--- a/All-Web.xlsx
+++ b/All-Web.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
+    <workbookView xWindow="33720" yWindow="-2820" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
@@ -354,11 +354,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
+      <selection activeCell="D892" sqref="D892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1197,7 +1200,7 @@
         <v>42010</v>
       </c>
       <c r="B105">
-        <v>812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1205,7 +1208,7 @@
         <v>42011</v>
       </c>
       <c r="B106">
-        <v>3603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1213,7 +1216,7 @@
         <v>42012</v>
       </c>
       <c r="B107">
-        <v>1268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1221,7 +1224,7 @@
         <v>42013</v>
       </c>
       <c r="B108">
-        <v>652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1229,7 +1232,7 @@
         <v>42014</v>
       </c>
       <c r="B109">
-        <v>343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1237,7 +1240,7 @@
         <v>42015</v>
       </c>
       <c r="B110">
-        <v>329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1245,7 +1248,7 @@
         <v>42016</v>
       </c>
       <c r="B111">
-        <v>505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1253,7 +1256,7 @@
         <v>42017</v>
       </c>
       <c r="B112">
-        <v>351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1261,7 +1264,7 @@
         <v>42018</v>
       </c>
       <c r="B113">
-        <v>386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1269,7 +1272,7 @@
         <v>42019</v>
       </c>
       <c r="B114">
-        <v>338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1277,7 +1280,7 @@
         <v>42020</v>
       </c>
       <c r="B115">
-        <v>278</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1285,7 +1288,7 @@
         <v>42021</v>
       </c>
       <c r="B116">
-        <v>245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1293,7 +1296,7 @@
         <v>42022</v>
       </c>
       <c r="B117">
-        <v>238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1301,7 +1304,7 @@
         <v>42023</v>
       </c>
       <c r="B118">
-        <v>260</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1309,7 +1312,7 @@
         <v>42024</v>
       </c>
       <c r="B119">
-        <v>561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1317,7 +1320,7 @@
         <v>42025</v>
       </c>
       <c r="B120">
-        <v>1596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1325,7 +1328,7 @@
         <v>42026</v>
       </c>
       <c r="B121">
-        <v>1315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1333,7 +1336,7 @@
         <v>42027</v>
       </c>
       <c r="B122">
-        <v>701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1341,7 +1344,7 @@
         <v>42028</v>
       </c>
       <c r="B123">
-        <v>513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1349,7 +1352,7 @@
         <v>42029</v>
       </c>
       <c r="B124">
-        <v>423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1357,7 +1360,7 @@
         <v>42030</v>
       </c>
       <c r="B125">
-        <v>528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1365,7 +1368,7 @@
         <v>42031</v>
       </c>
       <c r="B126">
-        <v>518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1373,7 +1376,7 @@
         <v>42032</v>
       </c>
       <c r="B127">
-        <v>407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1381,7 +1384,7 @@
         <v>42033</v>
       </c>
       <c r="B128">
-        <v>303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1389,7 +1392,7 @@
         <v>42034</v>
       </c>
       <c r="B129">
-        <v>808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1397,7 +1400,7 @@
         <v>42035</v>
       </c>
       <c r="B130">
-        <v>637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1405,7 +1408,7 @@
         <v>42036</v>
       </c>
       <c r="B131">
-        <v>488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1413,7 +1416,7 @@
         <v>42037</v>
       </c>
       <c r="B132">
-        <v>562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1421,7 +1424,7 @@
         <v>42038</v>
       </c>
       <c r="B133">
-        <v>783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1429,7 +1432,7 @@
         <v>42039</v>
       </c>
       <c r="B134">
-        <v>417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1437,7 +1440,7 @@
         <v>42040</v>
       </c>
       <c r="B135">
-        <v>671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1445,7 +1448,7 @@
         <v>42041</v>
       </c>
       <c r="B136">
-        <v>625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1453,7 +1456,7 @@
         <v>42042</v>
       </c>
       <c r="B137">
-        <v>352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1461,7 +1464,7 @@
         <v>42043</v>
       </c>
       <c r="B138">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1469,7 +1472,7 @@
         <v>42044</v>
       </c>
       <c r="B139">
-        <v>421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1477,7 +1480,7 @@
         <v>42045</v>
       </c>
       <c r="B140">
-        <v>357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1485,7 +1488,7 @@
         <v>42046</v>
       </c>
       <c r="B141">
-        <v>303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1493,7 +1496,7 @@
         <v>42047</v>
       </c>
       <c r="B142">
-        <v>327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1501,7 +1504,7 @@
         <v>42048</v>
       </c>
       <c r="B143">
-        <v>273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1509,7 +1512,7 @@
         <v>42049</v>
       </c>
       <c r="B144">
-        <v>227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1517,7 +1520,7 @@
         <v>42050</v>
       </c>
       <c r="B145">
-        <v>239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1525,7 +1528,7 @@
         <v>42051</v>
       </c>
       <c r="B146">
-        <v>887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1533,7 +1536,7 @@
         <v>42052</v>
       </c>
       <c r="B147">
-        <v>1176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1541,7 +1544,7 @@
         <v>42053</v>
       </c>
       <c r="B148">
-        <v>533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1549,7 +1552,7 @@
         <v>42054</v>
       </c>
       <c r="B149">
-        <v>891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -1557,7 +1560,7 @@
         <v>42055</v>
       </c>
       <c r="B150">
-        <v>709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1565,7 +1568,7 @@
         <v>42056</v>
       </c>
       <c r="B151">
-        <v>373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1573,7 +1576,7 @@
         <v>42057</v>
       </c>
       <c r="B152">
-        <v>387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1581,7 +1584,7 @@
         <v>42058</v>
       </c>
       <c r="B153">
-        <v>734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1589,7 +1592,7 @@
         <v>42059</v>
       </c>
       <c r="B154">
-        <v>460</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1597,7 +1600,7 @@
         <v>42060</v>
       </c>
       <c r="B155">
-        <v>426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1605,7 +1608,7 @@
         <v>42061</v>
       </c>
       <c r="B156">
-        <v>400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1613,7 +1616,7 @@
         <v>42062</v>
       </c>
       <c r="B157">
-        <v>411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1621,7 +1624,7 @@
         <v>42063</v>
       </c>
       <c r="B158">
-        <v>260</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1629,7 +1632,7 @@
         <v>42064</v>
       </c>
       <c r="B159">
-        <v>263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1637,7 +1640,7 @@
         <v>42065</v>
       </c>
       <c r="B160">
-        <v>387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1645,7 +1648,7 @@
         <v>42066</v>
       </c>
       <c r="B161">
-        <v>333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
@@ -1653,7 +1656,7 @@
         <v>42067</v>
       </c>
       <c r="B162">
-        <v>370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
@@ -1661,7 +1664,7 @@
         <v>42068</v>
       </c>
       <c r="B163">
-        <v>342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
@@ -1669,7 +1672,7 @@
         <v>42069</v>
       </c>
       <c r="B164">
-        <v>303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
@@ -1677,7 +1680,7 @@
         <v>42070</v>
       </c>
       <c r="B165">
-        <v>192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
@@ -1685,7 +1688,7 @@
         <v>42071</v>
       </c>
       <c r="B166">
-        <v>242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
@@ -1693,7 +1696,7 @@
         <v>42072</v>
       </c>
       <c r="B167">
-        <v>781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
@@ -1701,7 +1704,7 @@
         <v>42073</v>
       </c>
       <c r="B168">
-        <v>615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
@@ -1709,7 +1712,7 @@
         <v>42074</v>
       </c>
       <c r="B169">
-        <v>501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
@@ -1717,7 +1720,7 @@
         <v>42075</v>
       </c>
       <c r="B170">
-        <v>391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
@@ -1725,7 +1728,7 @@
         <v>42076</v>
       </c>
       <c r="B171">
-        <v>416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
@@ -1733,7 +1736,7 @@
         <v>42077</v>
       </c>
       <c r="B172">
-        <v>257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -1741,7 +1744,7 @@
         <v>42078</v>
       </c>
       <c r="B173">
-        <v>254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -1749,7 +1752,7 @@
         <v>42079</v>
       </c>
       <c r="B174">
-        <v>415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
@@ -1757,7 +1760,7 @@
         <v>42080</v>
       </c>
       <c r="B175">
-        <v>382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -1765,7 +1768,7 @@
         <v>42081</v>
       </c>
       <c r="B176">
-        <v>446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
@@ -1773,7 +1776,7 @@
         <v>42082</v>
       </c>
       <c r="B177">
-        <v>403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
@@ -1781,7 +1784,7 @@
         <v>42083</v>
       </c>
       <c r="B178">
-        <v>347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
@@ -1789,7 +1792,7 @@
         <v>42084</v>
       </c>
       <c r="B179">
-        <v>243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
@@ -1797,7 +1800,7 @@
         <v>42085</v>
       </c>
       <c r="B180">
-        <v>213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
@@ -1805,7 +1808,7 @@
         <v>42086</v>
       </c>
       <c r="B181">
-        <v>457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
@@ -1813,7 +1816,7 @@
         <v>42087</v>
       </c>
       <c r="B182">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
@@ -1821,7 +1824,7 @@
         <v>42088</v>
       </c>
       <c r="B183">
-        <v>433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
@@ -1829,7 +1832,7 @@
         <v>42089</v>
       </c>
       <c r="B184">
-        <v>390</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
@@ -1837,7 +1840,7 @@
         <v>42090</v>
       </c>
       <c r="B185">
-        <v>333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
@@ -1845,7 +1848,7 @@
         <v>42091</v>
       </c>
       <c r="B186">
-        <v>209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
@@ -1853,7 +1856,7 @@
         <v>42092</v>
       </c>
       <c r="B187">
-        <v>241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
@@ -1861,7 +1864,7 @@
         <v>42093</v>
       </c>
       <c r="B188">
-        <v>433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
@@ -1869,7 +1872,7 @@
         <v>42094</v>
       </c>
       <c r="B189">
-        <v>422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
@@ -1877,7 +1880,7 @@
         <v>42095</v>
       </c>
       <c r="B190">
-        <v>379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
@@ -1885,7 +1888,7 @@
         <v>42096</v>
       </c>
       <c r="B191">
-        <v>334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
@@ -1893,7 +1896,7 @@
         <v>42097</v>
       </c>
       <c r="B192">
-        <v>248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
@@ -1901,7 +1904,7 @@
         <v>42098</v>
       </c>
       <c r="B193">
-        <v>221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
@@ -1909,7 +1912,7 @@
         <v>42099</v>
       </c>
       <c r="B194">
-        <v>199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
@@ -1917,7 +1920,7 @@
         <v>42100</v>
       </c>
       <c r="B195">
-        <v>327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
@@ -1925,7 +1928,7 @@
         <v>42101</v>
       </c>
       <c r="B196">
-        <v>340</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
@@ -1933,7 +1936,7 @@
         <v>42102</v>
       </c>
       <c r="B197">
-        <v>506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
@@ -1941,7 +1944,7 @@
         <v>42103</v>
       </c>
       <c r="B198">
-        <v>1446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
@@ -1949,7 +1952,7 @@
         <v>42104</v>
       </c>
       <c r="B199">
-        <v>449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
@@ -1957,7 +1960,7 @@
         <v>42105</v>
       </c>
       <c r="B200">
-        <v>259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
@@ -1965,7 +1968,7 @@
         <v>42106</v>
       </c>
       <c r="B201">
-        <v>265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
@@ -1973,7 +1976,7 @@
         <v>42107</v>
       </c>
       <c r="B202">
-        <v>459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
@@ -1981,7 +1984,7 @@
         <v>42108</v>
       </c>
       <c r="B203">
-        <v>407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
@@ -1989,7 +1992,7 @@
         <v>42109</v>
       </c>
       <c r="B204">
-        <v>415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
@@ -1997,7 +2000,7 @@
         <v>42110</v>
       </c>
       <c r="B205">
-        <v>630</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
@@ -2005,7 +2008,7 @@
         <v>42111</v>
       </c>
       <c r="B206">
-        <v>474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
@@ -2013,7 +2016,7 @@
         <v>42112</v>
       </c>
       <c r="B207">
-        <v>215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
@@ -2021,7 +2024,7 @@
         <v>42113</v>
       </c>
       <c r="B208">
-        <v>285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
@@ -2029,7 +2032,7 @@
         <v>42114</v>
       </c>
       <c r="B209">
-        <v>890</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
@@ -2037,7 +2040,7 @@
         <v>42115</v>
       </c>
       <c r="B210">
-        <v>627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
@@ -2045,7 +2048,7 @@
         <v>42116</v>
       </c>
       <c r="B211">
-        <v>461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
@@ -2053,7 +2056,7 @@
         <v>42117</v>
       </c>
       <c r="B212">
-        <v>419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
@@ -2061,7 +2064,7 @@
         <v>42118</v>
       </c>
       <c r="B213">
-        <v>375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
@@ -2069,7 +2072,7 @@
         <v>42119</v>
       </c>
       <c r="B214">
-        <v>258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
@@ -2077,7 +2080,7 @@
         <v>42120</v>
       </c>
       <c r="B215">
-        <v>271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
@@ -2085,7 +2088,7 @@
         <v>42121</v>
       </c>
       <c r="B216">
-        <v>421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
@@ -2093,7 +2096,7 @@
         <v>42122</v>
       </c>
       <c r="B217">
-        <v>473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
@@ -2101,7 +2104,7 @@
         <v>42123</v>
       </c>
       <c r="B218">
-        <v>389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
@@ -2109,7 +2112,7 @@
         <v>42124</v>
       </c>
       <c r="B219">
-        <v>392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
@@ -2117,7 +2120,7 @@
         <v>42125</v>
       </c>
       <c r="B220">
-        <v>262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
@@ -2125,7 +2128,7 @@
         <v>42126</v>
       </c>
       <c r="B221">
-        <v>196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
@@ -2133,7 +2136,7 @@
         <v>42127</v>
       </c>
       <c r="B222">
-        <v>236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
@@ -2141,7 +2144,7 @@
         <v>42128</v>
       </c>
       <c r="B223">
-        <v>599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
@@ -2149,7 +2152,7 @@
         <v>42129</v>
       </c>
       <c r="B224">
-        <v>1704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
@@ -2157,7 +2160,7 @@
         <v>42130</v>
       </c>
       <c r="B225">
-        <v>768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
@@ -2165,7 +2168,7 @@
         <v>42131</v>
       </c>
       <c r="B226">
-        <v>1361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
@@ -2173,7 +2176,7 @@
         <v>42132</v>
       </c>
       <c r="B227">
-        <v>681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
@@ -2181,7 +2184,7 @@
         <v>42133</v>
       </c>
       <c r="B228">
-        <v>312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
@@ -2189,7 +2192,7 @@
         <v>42134</v>
       </c>
       <c r="B229">
-        <v>368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
@@ -2197,7 +2200,7 @@
         <v>42135</v>
       </c>
       <c r="B230">
-        <v>600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
@@ -2205,7 +2208,7 @@
         <v>42136</v>
       </c>
       <c r="B231">
-        <v>644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
@@ -2213,7 +2216,7 @@
         <v>42137</v>
       </c>
       <c r="B232">
-        <v>510</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
@@ -2221,7 +2224,7 @@
         <v>42138</v>
       </c>
       <c r="B233">
-        <v>458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
@@ -2229,7 +2232,7 @@
         <v>42139</v>
       </c>
       <c r="B234">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
@@ -2237,7 +2240,7 @@
         <v>42140</v>
       </c>
       <c r="B235">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
@@ -2245,7 +2248,7 @@
         <v>42141</v>
       </c>
       <c r="B236">
-        <v>385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
@@ -2253,7 +2256,7 @@
         <v>42142</v>
       </c>
       <c r="B237">
-        <v>647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
@@ -2261,7 +2264,7 @@
         <v>42143</v>
       </c>
       <c r="B238">
-        <v>528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
@@ -2269,7 +2272,7 @@
         <v>42144</v>
       </c>
       <c r="B239">
-        <v>473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
@@ -2277,7 +2280,7 @@
         <v>42145</v>
       </c>
       <c r="B240">
-        <v>478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
@@ -2285,7 +2288,7 @@
         <v>42146</v>
       </c>
       <c r="B241">
-        <v>474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
@@ -2293,7 +2296,7 @@
         <v>42147</v>
       </c>
       <c r="B242">
-        <v>253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
@@ -2301,7 +2304,7 @@
         <v>42148</v>
       </c>
       <c r="B243">
-        <v>199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
@@ -2309,7 +2312,7 @@
         <v>42149</v>
       </c>
       <c r="B244">
-        <v>341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
@@ -2317,7 +2320,7 @@
         <v>42150</v>
       </c>
       <c r="B245">
-        <v>510</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
@@ -2325,7 +2328,7 @@
         <v>42151</v>
       </c>
       <c r="B246">
-        <v>620</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
@@ -2333,7 +2336,7 @@
         <v>42152</v>
       </c>
       <c r="B247">
-        <v>699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
@@ -2341,7 +2344,7 @@
         <v>42153</v>
       </c>
       <c r="B248">
-        <v>452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
@@ -2349,7 +2352,7 @@
         <v>42154</v>
       </c>
       <c r="B249">
-        <v>304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
@@ -2357,7 +2360,7 @@
         <v>42155</v>
       </c>
       <c r="B250">
-        <v>370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
@@ -2365,7 +2368,7 @@
         <v>42156</v>
       </c>
       <c r="B251">
-        <v>481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
@@ -2373,7 +2376,7 @@
         <v>42157</v>
       </c>
       <c r="B252">
-        <v>577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
@@ -2381,7 +2384,7 @@
         <v>42158</v>
       </c>
       <c r="B253">
-        <v>603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
@@ -2389,7 +2392,7 @@
         <v>42159</v>
       </c>
       <c r="B254">
-        <v>517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
@@ -2397,7 +2400,7 @@
         <v>42160</v>
       </c>
       <c r="B255">
-        <v>516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
@@ -2405,7 +2408,7 @@
         <v>42161</v>
       </c>
       <c r="B256">
-        <v>261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
@@ -2413,7 +2416,7 @@
         <v>42162</v>
       </c>
       <c r="B257">
-        <v>359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
@@ -2421,7 +2424,7 @@
         <v>42163</v>
       </c>
       <c r="B258">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
@@ -2429,7 +2432,7 @@
         <v>42164</v>
       </c>
       <c r="B259">
-        <v>682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
@@ -2437,7 +2440,7 @@
         <v>42165</v>
       </c>
       <c r="B260">
-        <v>934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
@@ -2445,7 +2448,7 @@
         <v>42166</v>
       </c>
       <c r="B261">
-        <v>611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
@@ -2453,7 +2456,7 @@
         <v>42167</v>
       </c>
       <c r="B262">
-        <v>688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
@@ -2461,7 +2464,7 @@
         <v>42168</v>
       </c>
       <c r="B263">
-        <v>391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
@@ -2469,7 +2472,7 @@
         <v>42169</v>
       </c>
       <c r="B264">
-        <v>376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
@@ -2477,7 +2480,7 @@
         <v>42170</v>
       </c>
       <c r="B265">
-        <v>673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
@@ -2485,7 +2488,7 @@
         <v>42171</v>
       </c>
       <c r="B266">
-        <v>748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
@@ -2493,7 +2496,7 @@
         <v>42172</v>
       </c>
       <c r="B267">
-        <v>685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
@@ -2501,7 +2504,7 @@
         <v>42173</v>
       </c>
       <c r="B268">
-        <v>753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
@@ -2509,7 +2512,7 @@
         <v>42174</v>
       </c>
       <c r="B269">
-        <v>614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
@@ -2517,7 +2520,7 @@
         <v>42175</v>
       </c>
       <c r="B270">
-        <v>298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
@@ -2525,7 +2528,7 @@
         <v>42176</v>
       </c>
       <c r="B271">
-        <v>317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
@@ -2533,7 +2536,7 @@
         <v>42177</v>
       </c>
       <c r="B272">
-        <v>625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
@@ -2541,7 +2544,7 @@
         <v>42178</v>
       </c>
       <c r="B273">
-        <v>650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
@@ -2549,7 +2552,7 @@
         <v>42179</v>
       </c>
       <c r="B274">
-        <v>647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
@@ -2557,7 +2560,7 @@
         <v>42180</v>
       </c>
       <c r="B275">
-        <v>699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
@@ -2565,7 +2568,7 @@
         <v>42181</v>
       </c>
       <c r="B276">
-        <v>490</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
@@ -2573,7 +2576,7 @@
         <v>42182</v>
       </c>
       <c r="B277">
-        <v>289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
@@ -2581,7 +2584,7 @@
         <v>42183</v>
       </c>
       <c r="B278">
-        <v>301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
@@ -2589,7 +2592,7 @@
         <v>42184</v>
       </c>
       <c r="B279">
-        <v>578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
@@ -2597,7 +2600,7 @@
         <v>42185</v>
       </c>
       <c r="B280">
-        <v>637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
@@ -2605,7 +2608,7 @@
         <v>42186</v>
       </c>
       <c r="B281">
-        <v>629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
@@ -2613,7 +2616,7 @@
         <v>42187</v>
       </c>
       <c r="B282">
-        <v>997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
@@ -2621,7 +2624,7 @@
         <v>42188</v>
       </c>
       <c r="B283">
-        <v>763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
@@ -2629,7 +2632,7 @@
         <v>42189</v>
       </c>
       <c r="B284">
-        <v>431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
@@ -2637,7 +2640,7 @@
         <v>42190</v>
       </c>
       <c r="B285">
-        <v>7613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
@@ -2645,7 +2648,7 @@
         <v>42191</v>
       </c>
       <c r="B286">
-        <v>2314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
@@ -2653,7 +2656,7 @@
         <v>42192</v>
       </c>
       <c r="B287">
-        <v>1099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
@@ -2661,7 +2664,7 @@
         <v>42193</v>
       </c>
       <c r="B288">
-        <v>1011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
@@ -2669,7 +2672,7 @@
         <v>42194</v>
       </c>
       <c r="B289">
-        <v>883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
@@ -2677,7 +2680,7 @@
         <v>42195</v>
       </c>
       <c r="B290">
-        <v>643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
@@ -2685,7 +2688,7 @@
         <v>42196</v>
       </c>
       <c r="B291">
-        <v>397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
@@ -2693,7 +2696,7 @@
         <v>42197</v>
       </c>
       <c r="B292">
-        <v>438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
@@ -2701,7 +2704,7 @@
         <v>42198</v>
       </c>
       <c r="B293">
-        <v>2052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
@@ -2709,7 +2712,7 @@
         <v>42199</v>
       </c>
       <c r="B294">
-        <v>1283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
@@ -2717,7 +2720,7 @@
         <v>42200</v>
       </c>
       <c r="B295">
-        <v>930</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
@@ -2725,7 +2728,7 @@
         <v>42201</v>
       </c>
       <c r="B296">
-        <v>1698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
@@ -2733,7 +2736,7 @@
         <v>42202</v>
       </c>
       <c r="B297">
-        <v>1083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
@@ -2741,7 +2744,7 @@
         <v>42203</v>
       </c>
       <c r="B298">
-        <v>549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
@@ -2749,7 +2752,7 @@
         <v>42204</v>
       </c>
       <c r="B299">
-        <v>558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
@@ -2757,7 +2760,7 @@
         <v>42205</v>
       </c>
       <c r="B300">
-        <v>886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
@@ -2765,7 +2768,7 @@
         <v>42206</v>
       </c>
       <c r="B301">
-        <v>792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
@@ -2773,7 +2776,7 @@
         <v>42207</v>
       </c>
       <c r="B302">
-        <v>782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
@@ -2781,7 +2784,7 @@
         <v>42208</v>
       </c>
       <c r="B303">
-        <v>697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
@@ -2789,7 +2792,7 @@
         <v>42209</v>
       </c>
       <c r="B304">
-        <v>626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
@@ -2797,7 +2800,7 @@
         <v>42210</v>
       </c>
       <c r="B305">
-        <v>311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
@@ -2805,7 +2808,7 @@
         <v>42211</v>
       </c>
       <c r="B306">
-        <v>415</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
@@ -2813,7 +2816,7 @@
         <v>42212</v>
       </c>
       <c r="B307">
-        <v>713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
@@ -2821,7 +2824,7 @@
         <v>42213</v>
       </c>
       <c r="B308">
-        <v>801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
@@ -2829,7 +2832,7 @@
         <v>42214</v>
       </c>
       <c r="B309">
-        <v>728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
@@ -2837,7 +2840,7 @@
         <v>42215</v>
       </c>
       <c r="B310">
-        <v>625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
@@ -2845,7 +2848,7 @@
         <v>42216</v>
       </c>
       <c r="B311">
-        <v>628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
@@ -2853,7 +2856,7 @@
         <v>42217</v>
       </c>
       <c r="B312">
-        <v>283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
@@ -2861,7 +2864,7 @@
         <v>42218</v>
       </c>
       <c r="B313">
-        <v>356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
@@ -2869,7 +2872,7 @@
         <v>42219</v>
       </c>
       <c r="B314">
-        <v>659</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
@@ -2877,7 +2880,7 @@
         <v>42220</v>
       </c>
       <c r="B315">
-        <v>647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
@@ -2885,7 +2888,7 @@
         <v>42221</v>
       </c>
       <c r="B316">
-        <v>613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
@@ -2893,7 +2896,7 @@
         <v>42222</v>
       </c>
       <c r="B317">
-        <v>647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
@@ -2901,7 +2904,7 @@
         <v>42223</v>
       </c>
       <c r="B318">
-        <v>562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
@@ -2909,7 +2912,7 @@
         <v>42224</v>
       </c>
       <c r="B319">
-        <v>294</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
@@ -2917,7 +2920,7 @@
         <v>42225</v>
       </c>
       <c r="B320">
-        <v>327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
@@ -2925,7 +2928,7 @@
         <v>42226</v>
       </c>
       <c r="B321">
-        <v>646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
@@ -2933,7 +2936,7 @@
         <v>42227</v>
       </c>
       <c r="B322">
-        <v>650</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
@@ -2941,7 +2944,7 @@
         <v>42228</v>
       </c>
       <c r="B323">
-        <v>632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
@@ -2949,7 +2952,7 @@
         <v>42229</v>
       </c>
       <c r="B324">
-        <v>552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
@@ -2957,7 +2960,7 @@
         <v>42230</v>
       </c>
       <c r="B325">
-        <v>443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
@@ -2965,7 +2968,7 @@
         <v>42231</v>
       </c>
       <c r="B326">
-        <v>267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
@@ -2973,7 +2976,7 @@
         <v>42232</v>
       </c>
       <c r="B327">
-        <v>316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
@@ -2981,7 +2984,7 @@
         <v>42233</v>
       </c>
       <c r="B328">
-        <v>1621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
@@ -2989,7 +2992,7 @@
         <v>42234</v>
       </c>
       <c r="B329">
-        <v>912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
@@ -2997,7 +3000,7 @@
         <v>42235</v>
       </c>
       <c r="B330">
-        <v>665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
@@ -3005,7 +3008,7 @@
         <v>42236</v>
       </c>
       <c r="B331">
-        <v>1246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
@@ -3013,7 +3016,7 @@
         <v>42237</v>
       </c>
       <c r="B332">
-        <v>1050</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
@@ -3021,7 +3024,7 @@
         <v>42238</v>
       </c>
       <c r="B333">
-        <v>568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
@@ -3029,7 +3032,7 @@
         <v>42239</v>
       </c>
       <c r="B334">
-        <v>498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
@@ -3037,7 +3040,7 @@
         <v>42240</v>
       </c>
       <c r="B335">
-        <v>902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
@@ -3045,7 +3048,7 @@
         <v>42241</v>
       </c>
       <c r="B336">
-        <v>807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
@@ -3053,7 +3056,7 @@
         <v>42242</v>
       </c>
       <c r="B337">
-        <v>834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
@@ -3061,7 +3064,7 @@
         <v>42243</v>
       </c>
       <c r="B338">
-        <v>856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
@@ -3069,7 +3072,7 @@
         <v>42244</v>
       </c>
       <c r="B339">
-        <v>593</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
@@ -3077,7 +3080,7 @@
         <v>42245</v>
       </c>
       <c r="B340">
-        <v>377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
@@ -3085,7 +3088,7 @@
         <v>42246</v>
       </c>
       <c r="B341">
-        <v>358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
@@ -3093,7 +3096,7 @@
         <v>42247</v>
       </c>
       <c r="B342">
-        <v>706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
@@ -3101,7 +3104,7 @@
         <v>42248</v>
       </c>
       <c r="B343">
-        <v>658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
@@ -3109,7 +3112,7 @@
         <v>42249</v>
       </c>
       <c r="B344">
-        <v>694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
@@ -3117,7 +3120,7 @@
         <v>42250</v>
       </c>
       <c r="B345">
-        <v>662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
@@ -3125,7 +3128,7 @@
         <v>42251</v>
       </c>
       <c r="B346">
-        <v>673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
@@ -3133,7 +3136,7 @@
         <v>42252</v>
       </c>
       <c r="B347">
-        <v>382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
@@ -3141,7 +3144,7 @@
         <v>42253</v>
       </c>
       <c r="B348">
-        <v>403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
@@ -3149,7 +3152,7 @@
         <v>42254</v>
       </c>
       <c r="B349">
-        <v>546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
@@ -3157,7 +3160,7 @@
         <v>42255</v>
       </c>
       <c r="B350">
-        <v>654</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
@@ -3165,7 +3168,7 @@
         <v>42256</v>
       </c>
       <c r="B351">
-        <v>693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
@@ -3173,7 +3176,7 @@
         <v>42257</v>
       </c>
       <c r="B352">
-        <v>667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
@@ -3181,7 +3184,7 @@
         <v>42258</v>
       </c>
       <c r="B353">
-        <v>626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
@@ -3189,7 +3192,7 @@
         <v>42259</v>
       </c>
       <c r="B354">
-        <v>380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
@@ -3197,7 +3200,7 @@
         <v>42260</v>
       </c>
       <c r="B355">
-        <v>362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
@@ -3205,7 +3208,7 @@
         <v>42261</v>
       </c>
       <c r="B356">
-        <v>3651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
@@ -3213,7 +3216,7 @@
         <v>42262</v>
       </c>
       <c r="B357">
-        <v>1541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
@@ -3221,7 +3224,7 @@
         <v>42263</v>
       </c>
       <c r="B358">
-        <v>1075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
@@ -3229,7 +3232,7 @@
         <v>42264</v>
       </c>
       <c r="B359">
-        <v>1320</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
@@ -3237,7 +3240,7 @@
         <v>42265</v>
       </c>
       <c r="B360">
-        <v>1286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
@@ -3245,7 +3248,7 @@
         <v>42266</v>
       </c>
       <c r="B361">
-        <v>830</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
@@ -3253,7 +3256,7 @@
         <v>42267</v>
       </c>
       <c r="B362">
-        <v>639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
@@ -3261,7 +3264,7 @@
         <v>42268</v>
       </c>
       <c r="B363">
-        <v>1050</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
@@ -3269,7 +3272,7 @@
         <v>42269</v>
       </c>
       <c r="B364">
-        <v>994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
@@ -3277,7 +3280,7 @@
         <v>42270</v>
       </c>
       <c r="B365">
-        <v>894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
@@ -3285,7 +3288,7 @@
         <v>42271</v>
       </c>
       <c r="B366">
-        <v>775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
@@ -3293,7 +3296,7 @@
         <v>42272</v>
       </c>
       <c r="B367">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
@@ -3301,7 +3304,7 @@
         <v>42273</v>
       </c>
       <c r="B368">
-        <v>427</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
@@ -3309,7 +3312,7 @@
         <v>42274</v>
       </c>
       <c r="B369">
-        <v>534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
@@ -3317,7 +3320,7 @@
         <v>42275</v>
       </c>
       <c r="B370">
-        <v>893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
@@ -3325,7 +3328,7 @@
         <v>42276</v>
       </c>
       <c r="B371">
-        <v>886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
@@ -3333,7 +3336,7 @@
         <v>42277</v>
       </c>
       <c r="B372">
-        <v>768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
@@ -3341,7 +3344,7 @@
         <v>42278</v>
       </c>
       <c r="B373">
-        <v>744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
@@ -3349,7 +3352,7 @@
         <v>42279</v>
       </c>
       <c r="B374">
-        <v>657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
@@ -3357,7 +3360,7 @@
         <v>42280</v>
       </c>
       <c r="B375">
-        <v>433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
@@ -3365,7 +3368,7 @@
         <v>42281</v>
       </c>
       <c r="B376">
-        <v>411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
@@ -3373,7 +3376,7 @@
         <v>42282</v>
       </c>
       <c r="B377">
-        <v>722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
@@ -3381,7 +3384,7 @@
         <v>42283</v>
       </c>
       <c r="B378">
-        <v>776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
@@ -3389,7 +3392,7 @@
         <v>42284</v>
       </c>
       <c r="B379">
-        <v>879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
@@ -3397,7 +3400,7 @@
         <v>42285</v>
       </c>
       <c r="B380">
-        <v>875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
@@ -3405,7 +3408,7 @@
         <v>42286</v>
       </c>
       <c r="B381">
-        <v>694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
@@ -3413,7 +3416,7 @@
         <v>42287</v>
       </c>
       <c r="B382">
-        <v>424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
@@ -3421,7 +3424,7 @@
         <v>42288</v>
       </c>
       <c r="B383">
-        <v>641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
@@ -3429,7 +3432,7 @@
         <v>42289</v>
       </c>
       <c r="B384">
-        <v>798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
@@ -3437,7 +3440,7 @@
         <v>42290</v>
       </c>
       <c r="B385">
-        <v>833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
@@ -3445,7 +3448,7 @@
         <v>42291</v>
       </c>
       <c r="B386">
-        <v>841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
@@ -3453,7 +3456,7 @@
         <v>42292</v>
       </c>
       <c r="B387">
-        <v>834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
@@ -3461,7 +3464,7 @@
         <v>42293</v>
       </c>
       <c r="B388">
-        <v>719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
@@ -3469,7 +3472,7 @@
         <v>42294</v>
       </c>
       <c r="B389">
-        <v>403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
@@ -3477,7 +3480,7 @@
         <v>42295</v>
       </c>
       <c r="B390">
-        <v>459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
@@ -3485,7 +3488,7 @@
         <v>42296</v>
       </c>
       <c r="B391">
-        <v>782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
@@ -3493,7 +3496,7 @@
         <v>42297</v>
       </c>
       <c r="B392">
-        <v>830</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
@@ -3501,7 +3504,7 @@
         <v>42298</v>
       </c>
       <c r="B393">
-        <v>777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
@@ -3509,7 +3512,7 @@
         <v>42299</v>
       </c>
       <c r="B394">
-        <v>730</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
@@ -3517,7 +3520,7 @@
         <v>42300</v>
       </c>
       <c r="B395">
-        <v>711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
@@ -3525,7 +3528,7 @@
         <v>42301</v>
       </c>
       <c r="B396">
-        <v>429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
@@ -3533,7 +3536,7 @@
         <v>42302</v>
       </c>
       <c r="B397">
-        <v>470</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
@@ -3541,7 +3544,7 @@
         <v>42303</v>
       </c>
       <c r="B398">
-        <v>2143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
@@ -3549,7 +3552,7 @@
         <v>42304</v>
       </c>
       <c r="B399">
-        <v>1311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
@@ -3557,7 +3560,7 @@
         <v>42305</v>
       </c>
       <c r="B400">
-        <v>904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
@@ -3565,7 +3568,7 @@
         <v>42306</v>
       </c>
       <c r="B401">
-        <v>807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
@@ -3573,7 +3576,7 @@
         <v>42307</v>
       </c>
       <c r="B402">
-        <v>749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
@@ -3581,7 +3584,7 @@
         <v>42308</v>
       </c>
       <c r="B403">
-        <v>396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
@@ -3589,7 +3592,7 @@
         <v>42309</v>
       </c>
       <c r="B404">
-        <v>483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
@@ -3597,7 +3600,7 @@
         <v>42310</v>
       </c>
       <c r="B405">
-        <v>824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
@@ -3605,7 +3608,7 @@
         <v>42311</v>
       </c>
       <c r="B406">
-        <v>832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
@@ -3613,7 +3616,7 @@
         <v>42312</v>
       </c>
       <c r="B407">
-        <v>897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
@@ -3621,7 +3624,7 @@
         <v>42313</v>
       </c>
       <c r="B408">
-        <v>894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
@@ -3629,7 +3632,7 @@
         <v>42314</v>
       </c>
       <c r="B409">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
@@ -3637,7 +3640,7 @@
         <v>42315</v>
       </c>
       <c r="B410">
-        <v>383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
@@ -3645,7 +3648,7 @@
         <v>42316</v>
       </c>
       <c r="B411">
-        <v>487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
@@ -3653,7 +3656,7 @@
         <v>42317</v>
       </c>
       <c r="B412">
-        <v>810</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
@@ -3661,7 +3664,7 @@
         <v>42318</v>
       </c>
       <c r="B413">
-        <v>826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
@@ -3669,7 +3672,7 @@
         <v>42319</v>
       </c>
       <c r="B414">
-        <v>709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
@@ -3677,7 +3680,7 @@
         <v>42320</v>
       </c>
       <c r="B415">
-        <v>832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
@@ -3685,7 +3688,7 @@
         <v>42321</v>
       </c>
       <c r="B416">
-        <v>702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
@@ -3693,7 +3696,7 @@
         <v>42322</v>
       </c>
       <c r="B417">
-        <v>402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
@@ -3701,7 +3704,7 @@
         <v>42323</v>
       </c>
       <c r="B418">
-        <v>439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
@@ -3709,7 +3712,7 @@
         <v>42324</v>
       </c>
       <c r="B419">
-        <v>884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
@@ -3717,7 +3720,7 @@
         <v>42325</v>
       </c>
       <c r="B420">
-        <v>1109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
@@ -3725,7 +3728,7 @@
         <v>42326</v>
       </c>
       <c r="B421">
-        <v>1042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
@@ -3733,7 +3736,7 @@
         <v>42327</v>
       </c>
       <c r="B422">
-        <v>891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
@@ -3741,7 +3744,7 @@
         <v>42328</v>
       </c>
       <c r="B423">
-        <v>739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
@@ -3749,7 +3752,7 @@
         <v>42329</v>
       </c>
       <c r="B424">
-        <v>407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
@@ -3757,7 +3760,7 @@
         <v>42330</v>
       </c>
       <c r="B425">
-        <v>421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
@@ -3765,7 +3768,7 @@
         <v>42331</v>
       </c>
       <c r="B426">
-        <v>855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
@@ -3773,7 +3776,7 @@
         <v>42332</v>
       </c>
       <c r="B427">
-        <v>839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
@@ -3781,7 +3784,7 @@
         <v>42333</v>
       </c>
       <c r="B428">
-        <v>748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
@@ -3789,7 +3792,7 @@
         <v>42334</v>
       </c>
       <c r="B429">
-        <v>632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
@@ -3797,7 +3800,7 @@
         <v>42335</v>
       </c>
       <c r="B430">
-        <v>489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
@@ -3805,7 +3808,7 @@
         <v>42336</v>
       </c>
       <c r="B431">
-        <v>409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
@@ -3813,7 +3816,7 @@
         <v>42337</v>
       </c>
       <c r="B432">
-        <v>432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
@@ -3821,7 +3824,7 @@
         <v>42338</v>
       </c>
       <c r="B433">
-        <v>872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
@@ -3829,7 +3832,7 @@
         <v>42339</v>
       </c>
       <c r="B434">
-        <v>833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
@@ -3837,7 +3840,7 @@
         <v>42340</v>
       </c>
       <c r="B435">
-        <v>806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
@@ -3845,7 +3848,7 @@
         <v>42341</v>
       </c>
       <c r="B436">
-        <v>762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
@@ -3853,7 +3856,7 @@
         <v>42342</v>
       </c>
       <c r="B437">
-        <v>641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
@@ -3861,7 +3864,7 @@
         <v>42343</v>
       </c>
       <c r="B438">
-        <v>414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
@@ -3869,7 +3872,7 @@
         <v>42344</v>
       </c>
       <c r="B439">
-        <v>448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
@@ -3877,7 +3880,7 @@
         <v>42345</v>
       </c>
       <c r="B440">
-        <v>1868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
@@ -3885,7 +3888,7 @@
         <v>42346</v>
       </c>
       <c r="B441">
-        <v>1695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
@@ -3893,7 +3896,7 @@
         <v>42347</v>
       </c>
       <c r="B442">
-        <v>1011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
@@ -3901,7 +3904,7 @@
         <v>42348</v>
       </c>
       <c r="B443">
-        <v>1395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
@@ -3909,7 +3912,7 @@
         <v>42349</v>
       </c>
       <c r="B444">
-        <v>1137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
@@ -3917,7 +3920,7 @@
         <v>42350</v>
       </c>
       <c r="B445">
-        <v>534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
@@ -3925,7 +3928,7 @@
         <v>42351</v>
       </c>
       <c r="B446">
-        <v>595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
@@ -3933,7 +3936,7 @@
         <v>42352</v>
       </c>
       <c r="B447">
-        <v>1025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
@@ -3941,7 +3944,7 @@
         <v>42353</v>
       </c>
       <c r="B448">
-        <v>967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
@@ -3949,7 +3952,7 @@
         <v>42354</v>
       </c>
       <c r="B449">
-        <v>844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
@@ -3957,7 +3960,7 @@
         <v>42355</v>
       </c>
       <c r="B450">
-        <v>788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
@@ -3965,7 +3968,7 @@
         <v>42356</v>
       </c>
       <c r="B451">
-        <v>640</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
@@ -3973,7 +3976,7 @@
         <v>42357</v>
       </c>
       <c r="B452">
-        <v>390</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
@@ -3981,7 +3984,7 @@
         <v>42358</v>
       </c>
       <c r="B453">
-        <v>392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
@@ -3989,7 +3992,7 @@
         <v>42359</v>
       </c>
       <c r="B454">
-        <v>715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
@@ -3997,7 +4000,7 @@
         <v>42360</v>
       </c>
       <c r="B455">
-        <v>773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
@@ -4005,7 +4008,7 @@
         <v>42361</v>
       </c>
       <c r="B456">
-        <v>555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
@@ -4013,7 +4016,7 @@
         <v>42362</v>
       </c>
       <c r="B457">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
@@ -4021,7 +4024,7 @@
         <v>42363</v>
       </c>
       <c r="B458">
-        <v>313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
@@ -4029,7 +4032,7 @@
         <v>42364</v>
       </c>
       <c r="B459">
-        <v>297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
@@ -4037,7 +4040,7 @@
         <v>42365</v>
       </c>
       <c r="B460">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
@@ -4045,7 +4048,7 @@
         <v>42366</v>
       </c>
       <c r="B461">
-        <v>567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
@@ -4053,7 +4056,7 @@
         <v>42367</v>
       </c>
       <c r="B462">
-        <v>582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.15">
@@ -4061,7 +4064,7 @@
         <v>42368</v>
       </c>
       <c r="B463">
-        <v>842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.15">
@@ -4069,7 +4072,7 @@
         <v>42369</v>
       </c>
       <c r="B464">
-        <v>1214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
@@ -4077,7 +4080,7 @@
         <v>42370</v>
       </c>
       <c r="B465">
-        <v>460</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
@@ -4085,7 +4088,7 @@
         <v>42371</v>
       </c>
       <c r="B466">
-        <v>443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
@@ -4093,7 +4096,7 @@
         <v>42372</v>
       </c>
       <c r="B467">
-        <v>440</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
@@ -4101,7 +4104,7 @@
         <v>42373</v>
       </c>
       <c r="B468">
-        <v>790</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
@@ -4109,7 +4112,7 @@
         <v>42374</v>
       </c>
       <c r="B469">
-        <v>767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
@@ -4117,7 +4120,7 @@
         <v>42375</v>
       </c>
       <c r="B470">
-        <v>835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
@@ -4125,7 +4128,7 @@
         <v>42376</v>
       </c>
       <c r="B471">
-        <v>811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
@@ -4133,7 +4136,7 @@
         <v>42377</v>
       </c>
       <c r="B472">
-        <v>720</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
@@ -4141,7 +4144,7 @@
         <v>42378</v>
       </c>
       <c r="B473">
-        <v>422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
@@ -4149,7 +4152,7 @@
         <v>42379</v>
       </c>
       <c r="B474">
-        <v>435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
@@ -4157,7 +4160,7 @@
         <v>42380</v>
       </c>
       <c r="B475">
-        <v>873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
@@ -4165,7 +4168,7 @@
         <v>42381</v>
       </c>
       <c r="B476">
-        <v>844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
@@ -4173,7 +4176,7 @@
         <v>42382</v>
       </c>
       <c r="B477">
-        <v>836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
@@ -4181,7 +4184,7 @@
         <v>42383</v>
       </c>
       <c r="B478">
-        <v>791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
@@ -4189,7 +4192,7 @@
         <v>42384</v>
       </c>
       <c r="B479">
-        <v>738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
@@ -4197,7 +4200,7 @@
         <v>42385</v>
       </c>
       <c r="B480">
-        <v>339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
@@ -4205,7 +4208,7 @@
         <v>42386</v>
       </c>
       <c r="B481">
-        <v>481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.15">
@@ -4213,7 +4216,7 @@
         <v>42387</v>
       </c>
       <c r="B482">
-        <v>786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.15">
@@ -4221,7 +4224,7 @@
         <v>42388</v>
       </c>
       <c r="B483">
-        <v>913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.15">
@@ -4229,7 +4232,7 @@
         <v>42389</v>
       </c>
       <c r="B484">
-        <v>862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
@@ -4237,7 +4240,7 @@
         <v>42390</v>
       </c>
       <c r="B485">
-        <v>923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
@@ -4245,7 +4248,7 @@
         <v>42391</v>
       </c>
       <c r="B486">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
@@ -4253,7 +4256,7 @@
         <v>42392</v>
       </c>
       <c r="B487">
-        <v>441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
@@ -4261,7 +4264,7 @@
         <v>42393</v>
       </c>
       <c r="B488">
-        <v>540</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
@@ -4269,7 +4272,7 @@
         <v>42394</v>
       </c>
       <c r="B489">
-        <v>878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
@@ -4277,7 +4280,7 @@
         <v>42395</v>
       </c>
       <c r="B490">
-        <v>1524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
@@ -4285,7 +4288,7 @@
         <v>42396</v>
       </c>
       <c r="B491">
-        <v>1050</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
@@ -4293,7 +4296,7 @@
         <v>42397</v>
       </c>
       <c r="B492">
-        <v>1303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
@@ -4301,7 +4304,7 @@
         <v>42398</v>
       </c>
       <c r="B493">
-        <v>1157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.15">
@@ -4309,7 +4312,7 @@
         <v>42399</v>
       </c>
       <c r="B494">
-        <v>765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.15">
@@ -4317,7 +4320,7 @@
         <v>42400</v>
       </c>
       <c r="B495">
-        <v>701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.15">
@@ -4325,7 +4328,7 @@
         <v>42401</v>
       </c>
       <c r="B496">
-        <v>1073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
@@ -4333,7 +4336,7 @@
         <v>42402</v>
       </c>
       <c r="B497">
-        <v>1077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
@@ -4341,7 +4344,7 @@
         <v>42403</v>
       </c>
       <c r="B498">
-        <v>1060</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.15">
@@ -4349,7 +4352,7 @@
         <v>42404</v>
       </c>
       <c r="B499">
-        <v>951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
@@ -4357,7 +4360,7 @@
         <v>42405</v>
       </c>
       <c r="B500">
-        <v>862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
@@ -4365,7 +4368,7 @@
         <v>42406</v>
       </c>
       <c r="B501">
-        <v>503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.15">
@@ -4373,7 +4376,7 @@
         <v>42407</v>
       </c>
       <c r="B502">
-        <v>488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.15">
@@ -4381,7 +4384,7 @@
         <v>42408</v>
       </c>
       <c r="B503">
-        <v>970</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.15">
@@ -4389,7 +4392,7 @@
         <v>42409</v>
       </c>
       <c r="B504">
-        <v>913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.15">
@@ -4397,7 +4400,7 @@
         <v>42410</v>
       </c>
       <c r="B505">
-        <v>908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.15">
@@ -4405,7 +4408,7 @@
         <v>42411</v>
       </c>
       <c r="B506">
-        <v>922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.15">
@@ -4413,7 +4416,7 @@
         <v>42412</v>
       </c>
       <c r="B507">
-        <v>791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.15">
@@ -4421,7 +4424,7 @@
         <v>42413</v>
       </c>
       <c r="B508">
-        <v>517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.15">
@@ -4429,7 +4432,7 @@
         <v>42414</v>
       </c>
       <c r="B509">
-        <v>476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.15">
@@ -4437,7 +4440,7 @@
         <v>42415</v>
       </c>
       <c r="B510">
-        <v>941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.15">
@@ -4445,7 +4448,7 @@
         <v>42416</v>
       </c>
       <c r="B511">
-        <v>1004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.15">
@@ -4453,7 +4456,7 @@
         <v>42417</v>
       </c>
       <c r="B512">
-        <v>944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.15">
@@ -4461,7 +4464,7 @@
         <v>42418</v>
       </c>
       <c r="B513">
-        <v>953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.15">
@@ -4469,7 +4472,7 @@
         <v>42419</v>
       </c>
       <c r="B514">
-        <v>878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.15">
@@ -4477,7 +4480,7 @@
         <v>42420</v>
       </c>
       <c r="B515">
-        <v>530</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.15">
@@ -4485,7 +4488,7 @@
         <v>42421</v>
       </c>
       <c r="B516">
-        <v>580</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.15">
@@ -4493,7 +4496,7 @@
         <v>42422</v>
       </c>
       <c r="B517">
-        <v>956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.15">
@@ -4501,7 +4504,7 @@
         <v>42423</v>
       </c>
       <c r="B518">
-        <v>918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.15">
@@ -4509,7 +4512,7 @@
         <v>42424</v>
       </c>
       <c r="B519">
-        <v>924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.15">
@@ -4517,7 +4520,7 @@
         <v>42425</v>
       </c>
       <c r="B520">
-        <v>956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.15">
@@ -4525,7 +4528,7 @@
         <v>42426</v>
       </c>
       <c r="B521">
-        <v>851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.15">
@@ -4533,7 +4536,7 @@
         <v>42427</v>
       </c>
       <c r="B522">
-        <v>446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.15">
@@ -4541,7 +4544,7 @@
         <v>42428</v>
       </c>
       <c r="B523">
-        <v>504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.15">
@@ -4549,7 +4552,7 @@
         <v>42429</v>
       </c>
       <c r="B524">
-        <v>928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.15">
@@ -4557,7 +4560,7 @@
         <v>42430</v>
       </c>
       <c r="B525">
-        <v>975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.15">
@@ -4565,7 +4568,7 @@
         <v>42431</v>
       </c>
       <c r="B526">
-        <v>957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.15">
@@ -4573,7 +4576,7 @@
         <v>42432</v>
       </c>
       <c r="B527">
-        <v>947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.15">
@@ -4581,7 +4584,7 @@
         <v>42433</v>
       </c>
       <c r="B528">
-        <v>832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.15">
@@ -4589,7 +4592,7 @@
         <v>42434</v>
       </c>
       <c r="B529">
-        <v>460</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.15">
@@ -4597,7 +4600,7 @@
         <v>42435</v>
       </c>
       <c r="B530">
-        <v>520</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.15">
@@ -4605,7 +4608,7 @@
         <v>42436</v>
       </c>
       <c r="B531">
-        <v>964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.15">
@@ -4613,7 +4616,7 @@
         <v>42437</v>
       </c>
       <c r="B532">
-        <v>1041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.15">
@@ -4621,7 +4624,7 @@
         <v>42438</v>
       </c>
       <c r="B533">
-        <v>988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.15">
@@ -4629,7 +4632,7 @@
         <v>42439</v>
       </c>
       <c r="B534">
-        <v>972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.15">
@@ -4637,7 +4640,7 @@
         <v>42440</v>
       </c>
       <c r="B535">
-        <v>798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.15">
@@ -4645,7 +4648,7 @@
         <v>42441</v>
       </c>
       <c r="B536">
-        <v>446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.15">
@@ -4653,7 +4656,7 @@
         <v>42442</v>
       </c>
       <c r="B537">
-        <v>512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.15">
@@ -4661,7 +4664,7 @@
         <v>42443</v>
       </c>
       <c r="B538">
-        <v>1025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.15">
@@ -4669,7 +4672,7 @@
         <v>42444</v>
       </c>
       <c r="B539">
-        <v>1039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.15">
@@ -4677,7 +4680,7 @@
         <v>42445</v>
       </c>
       <c r="B540">
-        <v>1039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.15">
@@ -4685,7 +4688,7 @@
         <v>42446</v>
       </c>
       <c r="B541">
-        <v>963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.15">
@@ -4693,7 +4696,7 @@
         <v>42447</v>
       </c>
       <c r="B542">
-        <v>846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.15">
@@ -4701,7 +4704,7 @@
         <v>42448</v>
       </c>
       <c r="B543">
-        <v>521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.15">
@@ -4709,7 +4712,7 @@
         <v>42449</v>
       </c>
       <c r="B544">
-        <v>563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.15">
@@ -4717,7 +4720,7 @@
         <v>42450</v>
       </c>
       <c r="B545">
-        <v>948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.15">
@@ -4725,7 +4728,7 @@
         <v>42451</v>
       </c>
       <c r="B546">
-        <v>966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.15">
@@ -4733,7 +4736,7 @@
         <v>42452</v>
       </c>
       <c r="B547">
-        <v>914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.15">
@@ -4741,7 +4744,7 @@
         <v>42453</v>
       </c>
       <c r="B548">
-        <v>874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.15">
@@ -4749,7 +4752,7 @@
         <v>42454</v>
       </c>
       <c r="B549">
-        <v>709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.15">
@@ -4757,7 +4760,7 @@
         <v>42455</v>
       </c>
       <c r="B550">
-        <v>457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
@@ -4765,7 +4768,7 @@
         <v>42456</v>
       </c>
       <c r="B551">
-        <v>475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
@@ -4773,7 +4776,7 @@
         <v>42457</v>
       </c>
       <c r="B552">
-        <v>862</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
@@ -4781,7 +4784,7 @@
         <v>42458</v>
       </c>
       <c r="B553">
-        <v>977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
@@ -4789,7 +4792,7 @@
         <v>42459</v>
       </c>
       <c r="B554">
-        <v>971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
@@ -4797,7 +4800,7 @@
         <v>42460</v>
       </c>
       <c r="B555">
-        <v>931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
@@ -4805,7 +4808,7 @@
         <v>42461</v>
       </c>
       <c r="B556">
-        <v>804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
@@ -4813,7 +4816,7 @@
         <v>42462</v>
       </c>
       <c r="B557">
-        <v>462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
@@ -4821,7 +4824,7 @@
         <v>42463</v>
       </c>
       <c r="B558">
-        <v>552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.15">
@@ -4829,7 +4832,7 @@
         <v>42464</v>
       </c>
       <c r="B559">
-        <v>996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.15">
@@ -4837,7 +4840,7 @@
         <v>42465</v>
       </c>
       <c r="B560">
-        <v>1058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.15">
@@ -4845,7 +4848,7 @@
         <v>42466</v>
       </c>
       <c r="B561">
-        <v>2025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.15">
@@ -4853,7 +4856,7 @@
         <v>42467</v>
       </c>
       <c r="B562">
-        <v>2601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.15">
@@ -4861,7 +4864,7 @@
         <v>42468</v>
       </c>
       <c r="B563">
-        <v>1629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.15">
@@ -4869,7 +4872,7 @@
         <v>42469</v>
       </c>
       <c r="B564">
-        <v>873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.15">
@@ -4877,7 +4880,7 @@
         <v>42470</v>
       </c>
       <c r="B565">
-        <v>852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.15">
@@ -4885,7 +4888,7 @@
         <v>42471</v>
       </c>
       <c r="B566">
-        <v>1337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.15">
@@ -4893,7 +4896,7 @@
         <v>42472</v>
       </c>
       <c r="B567">
-        <v>1305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.15">
@@ -4901,7 +4904,7 @@
         <v>42473</v>
       </c>
       <c r="B568">
-        <v>1163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.15">
@@ -4909,7 +4912,7 @@
         <v>42474</v>
       </c>
       <c r="B569">
-        <v>1064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.15">
@@ -4917,7 +4920,7 @@
         <v>42475</v>
       </c>
       <c r="B570">
-        <v>1023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.15">
@@ -4925,7 +4928,7 @@
         <v>42476</v>
       </c>
       <c r="B571">
-        <v>542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.15">
@@ -4933,7 +4936,7 @@
         <v>42477</v>
       </c>
       <c r="B572">
-        <v>638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.15">
@@ -4941,7 +4944,7 @@
         <v>42478</v>
       </c>
       <c r="B573">
-        <v>1070</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.15">
@@ -4949,7 +4952,7 @@
         <v>42479</v>
       </c>
       <c r="B574">
-        <v>1247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.15">
@@ -4957,7 +4960,7 @@
         <v>42480</v>
       </c>
       <c r="B575">
-        <v>1205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.15">
@@ -4965,7 +4968,7 @@
         <v>42481</v>
       </c>
       <c r="B576">
-        <v>1092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.15">
@@ -4973,7 +4976,7 @@
         <v>42482</v>
       </c>
       <c r="B577">
-        <v>959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.15">
@@ -4981,7 +4984,7 @@
         <v>42483</v>
       </c>
       <c r="B578">
-        <v>536</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
@@ -4989,7 +4992,7 @@
         <v>42484</v>
       </c>
       <c r="B579">
-        <v>579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
@@ -4997,7 +5000,7 @@
         <v>42485</v>
       </c>
       <c r="B580">
-        <v>1149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
@@ -5005,7 +5008,7 @@
         <v>42486</v>
       </c>
       <c r="B581">
-        <v>1199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
@@ -5013,7 +5016,7 @@
         <v>42487</v>
       </c>
       <c r="B582">
-        <v>1163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.15">
@@ -5021,7 +5024,7 @@
         <v>42488</v>
       </c>
       <c r="B583">
-        <v>1046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.15">
@@ -5029,7 +5032,7 @@
         <v>42489</v>
       </c>
       <c r="B584">
-        <v>905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.15">
@@ -5037,7 +5040,7 @@
         <v>42490</v>
       </c>
       <c r="B585">
-        <v>553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.15">
@@ -5045,7 +5048,7 @@
         <v>42491</v>
       </c>
       <c r="B586">
-        <v>581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.15">
@@ -5053,7 +5056,7 @@
         <v>42492</v>
       </c>
       <c r="B587">
-        <v>1014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.15">
@@ -5061,7 +5064,7 @@
         <v>42493</v>
       </c>
       <c r="B588">
-        <v>1124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.15">
@@ -5069,7 +5072,7 @@
         <v>42494</v>
       </c>
       <c r="B589">
-        <v>1036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.15">
@@ -5077,7 +5080,7 @@
         <v>42495</v>
       </c>
       <c r="B590">
-        <v>945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.15">
@@ -5085,7 +5088,7 @@
         <v>42496</v>
       </c>
       <c r="B591">
-        <v>846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.15">
@@ -5093,7 +5096,7 @@
         <v>42497</v>
       </c>
       <c r="B592">
-        <v>448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.15">
@@ -5101,7 +5104,7 @@
         <v>42498</v>
       </c>
       <c r="B593">
-        <v>562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.15">
@@ -5109,7 +5112,7 @@
         <v>42499</v>
       </c>
       <c r="B594">
-        <v>1075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.15">
@@ -5117,7 +5120,7 @@
         <v>42500</v>
       </c>
       <c r="B595">
-        <v>1088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.15">
@@ -5125,7 +5128,7 @@
         <v>42501</v>
       </c>
       <c r="B596">
-        <v>1058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.15">
@@ -5133,7 +5136,7 @@
         <v>42502</v>
       </c>
       <c r="B597">
-        <v>1083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.15">
@@ -5141,7 +5144,7 @@
         <v>42503</v>
       </c>
       <c r="B598">
-        <v>1021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.15">
@@ -5149,7 +5152,7 @@
         <v>42504</v>
       </c>
       <c r="B599">
-        <v>581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.15">
@@ -5157,7 +5160,7 @@
         <v>42505</v>
       </c>
       <c r="B600">
-        <v>645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.15">
@@ -5165,7 +5168,7 @@
         <v>42506</v>
       </c>
       <c r="B601">
-        <v>1039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.15">
@@ -5173,7 +5176,7 @@
         <v>42507</v>
       </c>
       <c r="B602">
-        <v>1400</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.15">
@@ -5181,7 +5184,7 @@
         <v>42508</v>
       </c>
       <c r="B603">
-        <v>1224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.15">
@@ -5189,7 +5192,7 @@
         <v>42509</v>
       </c>
       <c r="B604">
-        <v>1027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.15">
@@ -5197,7 +5200,7 @@
         <v>42510</v>
       </c>
       <c r="B605">
-        <v>972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.15">
@@ -5205,7 +5208,7 @@
         <v>42511</v>
       </c>
       <c r="B606">
-        <v>542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.15">
@@ -5213,7 +5216,7 @@
         <v>42512</v>
       </c>
       <c r="B607">
-        <v>568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.15">
@@ -5221,7 +5224,7 @@
         <v>42513</v>
       </c>
       <c r="B608">
-        <v>1083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.15">
@@ -5229,7 +5232,7 @@
         <v>42514</v>
       </c>
       <c r="B609">
-        <v>1148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.15">
@@ -5237,7 +5240,7 @@
         <v>42515</v>
       </c>
       <c r="B610">
-        <v>1139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.15">
@@ -5245,7 +5248,7 @@
         <v>42516</v>
       </c>
       <c r="B611">
-        <v>1085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.15">
@@ -5253,7 +5256,7 @@
         <v>42517</v>
       </c>
       <c r="B612">
-        <v>933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.15">
@@ -5261,7 +5264,7 @@
         <v>42518</v>
       </c>
       <c r="B613">
-        <v>468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.15">
@@ -5269,7 +5272,7 @@
         <v>42519</v>
       </c>
       <c r="B614">
-        <v>461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.15">
@@ -5277,7 +5280,7 @@
         <v>42520</v>
       </c>
       <c r="B615">
-        <v>892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.15">
@@ -5285,7 +5288,7 @@
         <v>42521</v>
       </c>
       <c r="B616">
-        <v>1074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.15">
@@ -5293,7 +5296,7 @@
         <v>42522</v>
       </c>
       <c r="B617">
-        <v>1106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.15">
@@ -5301,7 +5304,7 @@
         <v>42523</v>
       </c>
       <c r="B618">
-        <v>1037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.15">
@@ -5309,7 +5312,7 @@
         <v>42524</v>
       </c>
       <c r="B619">
-        <v>946</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.15">
@@ -5317,7 +5320,7 @@
         <v>42525</v>
       </c>
       <c r="B620">
-        <v>483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.15">
@@ -5325,7 +5328,7 @@
         <v>42526</v>
       </c>
       <c r="B621">
-        <v>497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.15">
@@ -5333,7 +5336,7 @@
         <v>42527</v>
       </c>
       <c r="B622">
-        <v>1114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.15">
@@ -5341,7 +5344,7 @@
         <v>42528</v>
       </c>
       <c r="B623">
-        <v>1113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.15">
@@ -5349,7 +5352,7 @@
         <v>42529</v>
       </c>
       <c r="B624">
-        <v>1166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.15">
@@ -5357,7 +5360,7 @@
         <v>42530</v>
       </c>
       <c r="B625">
-        <v>1157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.15">
@@ -5365,7 +5368,7 @@
         <v>42531</v>
       </c>
       <c r="B626">
-        <v>939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.15">
@@ -5373,7 +5376,7 @@
         <v>42532</v>
       </c>
       <c r="B627">
-        <v>467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.15">
@@ -5381,7 +5384,7 @@
         <v>42533</v>
       </c>
       <c r="B628">
-        <v>549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.15">
@@ -5389,7 +5392,7 @@
         <v>42534</v>
       </c>
       <c r="B629">
-        <v>1194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.15">
@@ -5397,7 +5400,7 @@
         <v>42535</v>
       </c>
       <c r="B630">
-        <v>1165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.15">
@@ -5405,7 +5408,7 @@
         <v>42536</v>
       </c>
       <c r="B631">
-        <v>1749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.15">
@@ -5413,7 +5416,7 @@
         <v>42537</v>
       </c>
       <c r="B632">
-        <v>1601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.15">
@@ -5421,7 +5424,7 @@
         <v>42538</v>
       </c>
       <c r="B633">
-        <v>1239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.15">
@@ -5429,7 +5432,7 @@
         <v>42539</v>
       </c>
       <c r="B634">
-        <v>597</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.15">
@@ -5437,7 +5440,7 @@
         <v>42540</v>
       </c>
       <c r="B635">
-        <v>607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.15">
@@ -5445,7 +5448,7 @@
         <v>42541</v>
       </c>
       <c r="B636">
-        <v>1313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.15">
@@ -5453,7 +5456,7 @@
         <v>42542</v>
       </c>
       <c r="B637">
-        <v>1211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.15">
@@ -5461,7 +5464,7 @@
         <v>42543</v>
       </c>
       <c r="B638">
-        <v>1201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.15">
@@ -5469,7 +5472,7 @@
         <v>42544</v>
       </c>
       <c r="B639">
-        <v>1202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.15">
@@ -5477,7 +5480,7 @@
         <v>42545</v>
       </c>
       <c r="B640">
-        <v>969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.15">
@@ -5485,7 +5488,7 @@
         <v>42546</v>
       </c>
       <c r="B641">
-        <v>549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.15">
@@ -5493,7 +5496,7 @@
         <v>42547</v>
       </c>
       <c r="B642">
-        <v>546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.15">
@@ -5501,7 +5504,7 @@
         <v>42548</v>
       </c>
       <c r="B643">
-        <v>1079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.15">
@@ -5509,7 +5512,7 @@
         <v>42549</v>
       </c>
       <c r="B644">
-        <v>1242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.15">
@@ -5517,7 +5520,7 @@
         <v>42550</v>
       </c>
       <c r="B645">
-        <v>1109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.15">
@@ -5525,7 +5528,7 @@
         <v>42551</v>
       </c>
       <c r="B646">
-        <v>1130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.15">
@@ -5533,7 +5536,7 @@
         <v>42552</v>
       </c>
       <c r="B647">
-        <v>854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.15">
@@ -5541,7 +5544,7 @@
         <v>42553</v>
       </c>
       <c r="B648">
-        <v>498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.15">
@@ -5549,7 +5552,7 @@
         <v>42554</v>
       </c>
       <c r="B649">
-        <v>525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.15">
@@ -5557,7 +5560,7 @@
         <v>42555</v>
       </c>
       <c r="B650">
-        <v>824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.15">
@@ -5565,7 +5568,7 @@
         <v>42556</v>
       </c>
       <c r="B651">
-        <v>1094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.15">
@@ -5573,7 +5576,7 @@
         <v>42557</v>
       </c>
       <c r="B652">
-        <v>1196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.15">
@@ -5581,7 +5584,7 @@
         <v>42558</v>
       </c>
       <c r="B653">
-        <v>1082</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.15">
@@ -5589,7 +5592,7 @@
         <v>42559</v>
       </c>
       <c r="B654">
-        <v>963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.15">
@@ -5597,7 +5600,7 @@
         <v>42560</v>
       </c>
       <c r="B655">
-        <v>517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.15">
@@ -5605,7 +5608,7 @@
         <v>42561</v>
       </c>
       <c r="B656">
-        <v>492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.15">
@@ -5613,7 +5616,7 @@
         <v>42562</v>
       </c>
       <c r="B657">
-        <v>1156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.15">
@@ -5621,7 +5624,7 @@
         <v>42563</v>
       </c>
       <c r="B658">
-        <v>1131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.15">
@@ -5629,7 +5632,7 @@
         <v>42564</v>
       </c>
       <c r="B659">
-        <v>1101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.15">
@@ -5637,7 +5640,7 @@
         <v>42565</v>
       </c>
       <c r="B660">
-        <v>1099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.15">
@@ -5645,7 +5648,7 @@
         <v>42566</v>
       </c>
       <c r="B661">
-        <v>965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.15">
@@ -5653,7 +5656,7 @@
         <v>42567</v>
       </c>
       <c r="B662">
-        <v>503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.15">
@@ -5661,7 +5664,7 @@
         <v>42568</v>
       </c>
       <c r="B663">
-        <v>556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.15">
@@ -5669,7 +5672,7 @@
         <v>42569</v>
       </c>
       <c r="B664">
-        <v>1097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.15">
@@ -5677,7 +5680,7 @@
         <v>42570</v>
       </c>
       <c r="B665">
-        <v>1171</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.15">
@@ -5685,7 +5688,7 @@
         <v>42571</v>
       </c>
       <c r="B666">
-        <v>1135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.15">
@@ -5693,7 +5696,7 @@
         <v>42572</v>
       </c>
       <c r="B667">
-        <v>1133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.15">
@@ -5701,7 +5704,7 @@
         <v>42573</v>
       </c>
       <c r="B668">
-        <v>973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.15">
@@ -5709,7 +5712,7 @@
         <v>42574</v>
       </c>
       <c r="B669">
-        <v>516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.15">
@@ -5717,7 +5720,7 @@
         <v>42575</v>
       </c>
       <c r="B670">
-        <v>527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.15">
@@ -5725,7 +5728,7 @@
         <v>42576</v>
       </c>
       <c r="B671">
-        <v>1163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.15">
@@ -5733,7 +5736,7 @@
         <v>42577</v>
       </c>
       <c r="B672">
-        <v>1128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.15">
@@ -5741,7 +5744,7 @@
         <v>42578</v>
       </c>
       <c r="B673">
-        <v>1106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.15">
@@ -5749,7 +5752,7 @@
         <v>42579</v>
       </c>
       <c r="B674">
-        <v>1074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.15">
@@ -5757,7 +5760,7 @@
         <v>42580</v>
       </c>
       <c r="B675">
-        <v>867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.15">
@@ -5765,7 +5768,7 @@
         <v>42581</v>
       </c>
       <c r="B676">
-        <v>497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.15">
@@ -5773,7 +5776,7 @@
         <v>42582</v>
       </c>
       <c r="B677">
-        <v>556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.15">
@@ -5781,7 +5784,7 @@
         <v>42583</v>
       </c>
       <c r="B678">
-        <v>1095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.15">
@@ -5789,7 +5792,7 @@
         <v>42584</v>
       </c>
       <c r="B679">
-        <v>1192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.15">
@@ -5797,7 +5800,7 @@
         <v>42585</v>
       </c>
       <c r="B680">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.15">
@@ -5805,7 +5808,7 @@
         <v>42586</v>
       </c>
       <c r="B681">
-        <v>1047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.15">
@@ -5813,7 +5816,7 @@
         <v>42587</v>
       </c>
       <c r="B682">
-        <v>937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.15">
@@ -5821,7 +5824,7 @@
         <v>42588</v>
       </c>
       <c r="B683">
-        <v>411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.15">
@@ -5829,7 +5832,7 @@
         <v>42589</v>
       </c>
       <c r="B684">
-        <v>554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.15">
@@ -5837,7 +5840,7 @@
         <v>42590</v>
       </c>
       <c r="B685">
-        <v>1128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.15">
@@ -5845,7 +5848,7 @@
         <v>42591</v>
       </c>
       <c r="B686">
-        <v>1099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.15">
@@ -5853,7 +5856,7 @@
         <v>42592</v>
       </c>
       <c r="B687">
-        <v>1105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.15">
@@ -5861,7 +5864,7 @@
         <v>42593</v>
       </c>
       <c r="B688">
-        <v>1035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.15">
@@ -5869,7 +5872,7 @@
         <v>42594</v>
       </c>
       <c r="B689">
-        <v>933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.15">
@@ -5877,7 +5880,7 @@
         <v>42595</v>
       </c>
       <c r="B690">
-        <v>467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.15">
@@ -5885,7 +5888,7 @@
         <v>42596</v>
       </c>
       <c r="B691">
-        <v>550</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.15">
@@ -5893,7 +5896,7 @@
         <v>42597</v>
       </c>
       <c r="B692">
-        <v>938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.15">
@@ -5901,7 +5904,7 @@
         <v>42598</v>
       </c>
       <c r="B693">
-        <v>1219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.15">
@@ -5909,7 +5912,7 @@
         <v>42599</v>
       </c>
       <c r="B694">
-        <v>1135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.15">
@@ -5917,7 +5920,7 @@
         <v>42600</v>
       </c>
       <c r="B695">
-        <v>1088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.15">
@@ -5925,7 +5928,7 @@
         <v>42601</v>
       </c>
       <c r="B696">
-        <v>973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.15">
@@ -5933,7 +5936,7 @@
         <v>42602</v>
       </c>
       <c r="B697">
-        <v>498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.15">
@@ -5941,7 +5944,7 @@
         <v>42603</v>
       </c>
       <c r="B698">
-        <v>569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.15">
@@ -5949,7 +5952,7 @@
         <v>42604</v>
       </c>
       <c r="B699">
-        <v>1196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.15">
@@ -5957,7 +5960,7 @@
         <v>42605</v>
       </c>
       <c r="B700">
-        <v>1562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.15">
@@ -5965,7 +5968,7 @@
         <v>42606</v>
       </c>
       <c r="B701">
-        <v>1609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.15">
@@ -5973,7 +5976,7 @@
         <v>42607</v>
       </c>
       <c r="B702">
-        <v>1280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.15">
@@ -5981,7 +5984,7 @@
         <v>42608</v>
       </c>
       <c r="B703">
-        <v>1099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.15">
@@ -5989,7 +5992,7 @@
         <v>42609</v>
       </c>
       <c r="B704">
-        <v>520</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.15">
@@ -5997,7 +6000,7 @@
         <v>42610</v>
       </c>
       <c r="B705">
-        <v>621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.15">
@@ -6005,7 +6008,7 @@
         <v>42611</v>
       </c>
       <c r="B706">
-        <v>1890</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.15">
@@ -6013,7 +6016,7 @@
         <v>42612</v>
       </c>
       <c r="B707">
-        <v>1786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.15">
@@ -6021,7 +6024,7 @@
         <v>42613</v>
       </c>
       <c r="B708">
-        <v>1369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.15">
@@ -6029,7 +6032,7 @@
         <v>42614</v>
       </c>
       <c r="B709">
-        <v>1812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.15">
@@ -6037,7 +6040,7 @@
         <v>42615</v>
       </c>
       <c r="B710">
-        <v>1378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.15">
@@ -6045,7 +6048,7 @@
         <v>42616</v>
       </c>
       <c r="B711">
-        <v>622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.15">
@@ -6053,7 +6056,7 @@
         <v>42617</v>
       </c>
       <c r="B712">
-        <v>703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.15">
@@ -6061,7 +6064,7 @@
         <v>42618</v>
       </c>
       <c r="B713">
-        <v>1032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.15">
@@ -6069,7 +6072,7 @@
         <v>42619</v>
       </c>
       <c r="B714">
-        <v>1657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.15">
@@ -6077,7 +6080,7 @@
         <v>42620</v>
       </c>
       <c r="B715">
-        <v>1497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.15">
@@ -6085,7 +6088,7 @@
         <v>42621</v>
       </c>
       <c r="B716">
-        <v>1791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.15">
@@ -6093,7 +6096,7 @@
         <v>42622</v>
       </c>
       <c r="B717">
-        <v>1365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.15">
@@ -6101,7 +6104,7 @@
         <v>42623</v>
       </c>
       <c r="B718">
-        <v>670</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.15">
@@ -6109,7 +6112,7 @@
         <v>42624</v>
       </c>
       <c r="B719">
-        <v>717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.15">
@@ -6117,7 +6120,7 @@
         <v>42625</v>
       </c>
       <c r="B720">
-        <v>2087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.15">
@@ -6125,7 +6128,7 @@
         <v>42626</v>
       </c>
       <c r="B721">
-        <v>1663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.15">
@@ -6133,7 +6136,7 @@
         <v>42627</v>
       </c>
       <c r="B722">
-        <v>1254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.15">
@@ -6141,7 +6144,7 @@
         <v>42628</v>
       </c>
       <c r="B723">
-        <v>1325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.15">
@@ -6149,7 +6152,7 @@
         <v>42629</v>
       </c>
       <c r="B724">
-        <v>1096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.15">
@@ -6157,7 +6160,7 @@
         <v>42630</v>
       </c>
       <c r="B725">
-        <v>608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.15">
@@ -6165,7 +6168,7 @@
         <v>42631</v>
       </c>
       <c r="B726">
-        <v>671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.15">
@@ -6173,7 +6176,7 @@
         <v>42632</v>
       </c>
       <c r="B727">
-        <v>1207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.15">
@@ -6181,7 +6184,7 @@
         <v>42633</v>
       </c>
       <c r="B728">
-        <v>1321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.15">
@@ -6189,7 +6192,7 @@
         <v>42634</v>
       </c>
       <c r="B729">
-        <v>1380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.15">
@@ -6197,7 +6200,7 @@
         <v>42635</v>
       </c>
       <c r="B730">
-        <v>1240</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.15">
@@ -6205,7 +6208,7 @@
         <v>42636</v>
       </c>
       <c r="B731">
-        <v>1087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.15">
@@ -6213,7 +6216,7 @@
         <v>42637</v>
       </c>
       <c r="B732">
-        <v>554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.15">
@@ -6221,7 +6224,7 @@
         <v>42638</v>
       </c>
       <c r="B733">
-        <v>633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.15">
@@ -6229,7 +6232,7 @@
         <v>42639</v>
       </c>
       <c r="B734">
-        <v>1362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.15">
@@ -6237,7 +6240,7 @@
         <v>42640</v>
       </c>
       <c r="B735">
-        <v>1274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.15">
@@ -6245,7 +6248,7 @@
         <v>42641</v>
       </c>
       <c r="B736">
-        <v>1293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.15">
@@ -6253,7 +6256,7 @@
         <v>42642</v>
       </c>
       <c r="B737">
-        <v>1215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.15">
@@ -6261,7 +6264,7 @@
         <v>42643</v>
       </c>
       <c r="B738">
-        <v>1135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.15">
@@ -6269,7 +6272,7 @@
         <v>42644</v>
       </c>
       <c r="B739">
-        <v>622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.15">
@@ -6277,7 +6280,7 @@
         <v>42645</v>
       </c>
       <c r="B740">
-        <v>561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.15">
@@ -6285,7 +6288,7 @@
         <v>42646</v>
       </c>
       <c r="B741">
-        <v>1251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.15">
@@ -6293,7 +6296,7 @@
         <v>42647</v>
       </c>
       <c r="B742">
-        <v>1353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.15">
@@ -6301,7 +6304,7 @@
         <v>42648</v>
       </c>
       <c r="B743">
-        <v>1293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.15">
@@ -6309,7 +6312,7 @@
         <v>42649</v>
       </c>
       <c r="B744">
-        <v>1303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.15">
@@ -6317,7 +6320,7 @@
         <v>42650</v>
       </c>
       <c r="B745">
-        <v>1163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.15">
@@ -6325,7 +6328,7 @@
         <v>42651</v>
       </c>
       <c r="B746">
-        <v>614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.15">
@@ -6333,7 +6336,7 @@
         <v>42652</v>
       </c>
       <c r="B747">
-        <v>701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.15">
@@ -6341,7 +6344,7 @@
         <v>42653</v>
       </c>
       <c r="B748">
-        <v>1202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.15">
@@ -6349,7 +6352,7 @@
         <v>42654</v>
       </c>
       <c r="B749">
-        <v>1283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.15">
@@ -6357,7 +6360,7 @@
         <v>42655</v>
       </c>
       <c r="B750">
-        <v>1304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.15">
@@ -6365,7 +6368,7 @@
         <v>42656</v>
       </c>
       <c r="B751">
-        <v>1315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.15">
@@ -6373,7 +6376,7 @@
         <v>42657</v>
       </c>
       <c r="B752">
-        <v>1165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.15">
@@ -6381,7 +6384,7 @@
         <v>42658</v>
       </c>
       <c r="B753">
-        <v>649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.15">
@@ -6389,7 +6392,7 @@
         <v>42659</v>
       </c>
       <c r="B754">
-        <v>701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.15">
@@ -6397,7 +6400,7 @@
         <v>42660</v>
       </c>
       <c r="B755">
-        <v>1418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.15">
@@ -6405,7 +6408,7 @@
         <v>42661</v>
       </c>
       <c r="B756">
-        <v>1424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.15">
@@ -6413,7 +6416,7 @@
         <v>42662</v>
       </c>
       <c r="B757">
-        <v>1325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.15">
@@ -6421,7 +6424,7 @@
         <v>42663</v>
       </c>
       <c r="B758">
-        <v>1241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.15">
@@ -6429,7 +6432,7 @@
         <v>42664</v>
       </c>
       <c r="B759">
-        <v>1148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.15">
@@ -6437,7 +6440,7 @@
         <v>42665</v>
       </c>
       <c r="B760">
-        <v>591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.15">
@@ -6445,7 +6448,7 @@
         <v>42666</v>
       </c>
       <c r="B761">
-        <v>709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.15">
@@ -6453,7 +6456,7 @@
         <v>42667</v>
       </c>
       <c r="B762">
-        <v>1338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.15">
@@ -6461,7 +6464,7 @@
         <v>42668</v>
       </c>
       <c r="B763">
-        <v>1472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.15">
@@ -6469,7 +6472,7 @@
         <v>42669</v>
       </c>
       <c r="B764">
-        <v>1259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.15">
@@ -6477,7 +6480,7 @@
         <v>42670</v>
       </c>
       <c r="B765">
-        <v>1335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.15">
@@ -6485,7 +6488,7 @@
         <v>42671</v>
       </c>
       <c r="B766">
-        <v>1021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.15">
@@ -6493,7 +6496,7 @@
         <v>42672</v>
       </c>
       <c r="B767">
-        <v>621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.15">
@@ -6501,7 +6504,7 @@
         <v>42673</v>
       </c>
       <c r="B768">
-        <v>718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.15">
@@ -6509,7 +6512,7 @@
         <v>42674</v>
       </c>
       <c r="B769">
-        <v>1291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.15">
@@ -6517,7 +6520,7 @@
         <v>42675</v>
       </c>
       <c r="B770">
-        <v>1219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.15">
@@ -6525,7 +6528,7 @@
         <v>42676</v>
       </c>
       <c r="B771">
-        <v>1320</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.15">
@@ -6533,7 +6536,7 @@
         <v>42677</v>
       </c>
       <c r="B772">
-        <v>1268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.15">
@@ -6541,7 +6544,7 @@
         <v>42678</v>
       </c>
       <c r="B773">
-        <v>1100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.15">
@@ -6549,7 +6552,7 @@
         <v>42679</v>
       </c>
       <c r="B774">
-        <v>652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.15">
@@ -6557,7 +6560,7 @@
         <v>42680</v>
       </c>
       <c r="B775">
-        <v>806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.15">
@@ -6565,7 +6568,7 @@
         <v>42681</v>
       </c>
       <c r="B776">
-        <v>1311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.15">
@@ -6573,7 +6576,7 @@
         <v>42682</v>
       </c>
       <c r="B777">
-        <v>1246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.15">
@@ -6581,7 +6584,7 @@
         <v>42683</v>
       </c>
       <c r="B778">
-        <v>1604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.15">
@@ -6589,7 +6592,7 @@
         <v>42684</v>
       </c>
       <c r="B779">
-        <v>1574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.15">
@@ -6597,7 +6600,7 @@
         <v>42685</v>
       </c>
       <c r="B780">
-        <v>1196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.15">
@@ -6605,7 +6608,7 @@
         <v>42686</v>
       </c>
       <c r="B781">
-        <v>670</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.15">
@@ -6613,7 +6616,7 @@
         <v>42687</v>
       </c>
       <c r="B782">
-        <v>796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.15">
@@ -6621,7 +6624,7 @@
         <v>42688</v>
       </c>
       <c r="B783">
-        <v>1369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.15">
@@ -6629,7 +6632,7 @@
         <v>42689</v>
       </c>
       <c r="B784">
-        <v>1360</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.15">
@@ -6637,7 +6640,7 @@
         <v>42690</v>
       </c>
       <c r="B785">
-        <v>1326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.15">
@@ -6645,7 +6648,7 @@
         <v>42691</v>
       </c>
       <c r="B786">
-        <v>1390</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.15">
@@ -6653,7 +6656,7 @@
         <v>42692</v>
       </c>
       <c r="B787">
-        <v>1246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.15">
@@ -6661,7 +6664,7 @@
         <v>42693</v>
       </c>
       <c r="B788">
-        <v>669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.15">
@@ -6669,7 +6672,7 @@
         <v>42694</v>
       </c>
       <c r="B789">
-        <v>819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.15">
@@ -6677,7 +6680,7 @@
         <v>42695</v>
       </c>
       <c r="B790">
-        <v>2167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.15">
@@ -6685,7 +6688,7 @@
         <v>42696</v>
       </c>
       <c r="B791">
-        <v>1846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.15">
@@ -6693,7 +6696,7 @@
         <v>42697</v>
       </c>
       <c r="B792">
-        <v>1612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.15">
@@ -6701,7 +6704,7 @@
         <v>42698</v>
       </c>
       <c r="B793">
-        <v>1731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.15">
@@ -6709,7 +6712,7 @@
         <v>42699</v>
       </c>
       <c r="B794">
-        <v>1386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.15">
@@ -6717,7 +6720,7 @@
         <v>42700</v>
       </c>
       <c r="B795">
-        <v>777</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.15">
@@ -6725,7 +6728,7 @@
         <v>42701</v>
       </c>
       <c r="B796">
-        <v>905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.15">
@@ -6733,7 +6736,7 @@
         <v>42702</v>
       </c>
       <c r="B797">
-        <v>1903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.15">
@@ -6741,7 +6744,7 @@
         <v>42703</v>
       </c>
       <c r="B798">
-        <v>1920</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.15">
@@ -6749,7 +6752,7 @@
         <v>42704</v>
       </c>
       <c r="B799">
-        <v>1890</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.15">
@@ -6757,7 +6760,7 @@
         <v>42705</v>
       </c>
       <c r="B800">
-        <v>1834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.15">
@@ -6765,7 +6768,7 @@
         <v>42706</v>
       </c>
       <c r="B801">
-        <v>1572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.15">
@@ -6773,7 +6776,7 @@
         <v>42707</v>
       </c>
       <c r="B802">
-        <v>738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.15">
@@ -6781,7 +6784,7 @@
         <v>42708</v>
       </c>
       <c r="B803">
-        <v>790</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.15">
@@ -6789,7 +6792,7 @@
         <v>42709</v>
       </c>
       <c r="B804">
-        <v>1560</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.15">
@@ -6797,7 +6800,7 @@
         <v>42710</v>
       </c>
       <c r="B805">
-        <v>1678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.15">
@@ -6805,7 +6808,7 @@
         <v>42711</v>
       </c>
       <c r="B806">
-        <v>1392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.15">
@@ -6813,7 +6816,7 @@
         <v>42712</v>
       </c>
       <c r="B807">
-        <v>1413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.15">
@@ -6821,7 +6824,7 @@
         <v>42713</v>
       </c>
       <c r="B808">
-        <v>1231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.15">
@@ -6829,7 +6832,7 @@
         <v>42714</v>
       </c>
       <c r="B809">
-        <v>701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.15">
@@ -6837,7 +6840,7 @@
         <v>42715</v>
       </c>
       <c r="B810">
-        <v>797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.15">
@@ -6845,7 +6848,7 @@
         <v>42716</v>
       </c>
       <c r="B811">
-        <v>1382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.15">
@@ -6853,7 +6856,7 @@
         <v>42717</v>
       </c>
       <c r="B812">
-        <v>1595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.15">
@@ -6861,7 +6864,7 @@
         <v>42718</v>
       </c>
       <c r="B813">
-        <v>1577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.15">
@@ -6869,7 +6872,7 @@
         <v>42719</v>
       </c>
       <c r="B814">
-        <v>1408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.15">
@@ -6877,7 +6880,7 @@
         <v>42720</v>
       </c>
       <c r="B815">
-        <v>1157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.15">
@@ -6885,7 +6888,7 @@
         <v>42721</v>
       </c>
       <c r="B816">
-        <v>704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.15">
@@ -6893,7 +6896,7 @@
         <v>42722</v>
       </c>
       <c r="B817">
-        <v>782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.15">
@@ -6901,7 +6904,7 @@
         <v>42723</v>
       </c>
       <c r="B818">
-        <v>3198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.15">
@@ -6909,7 +6912,7 @@
         <v>42724</v>
       </c>
       <c r="B819">
-        <v>2229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.15">
@@ -6917,7 +6920,7 @@
         <v>42725</v>
       </c>
       <c r="B820">
-        <v>1341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.15">
@@ -6925,7 +6928,7 @@
         <v>42726</v>
       </c>
       <c r="B821">
-        <v>1470</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.15">
@@ -6933,7 +6936,7 @@
         <v>42727</v>
       </c>
       <c r="B822">
-        <v>1046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.15">
@@ -6941,7 +6944,7 @@
         <v>42728</v>
       </c>
       <c r="B823">
-        <v>547</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.15">
@@ -6949,7 +6952,7 @@
         <v>42729</v>
       </c>
       <c r="B824">
-        <v>552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.15">
@@ -6957,7 +6960,7 @@
         <v>42730</v>
       </c>
       <c r="B825">
-        <v>836</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.15">
@@ -6965,7 +6968,7 @@
         <v>42731</v>
       </c>
       <c r="B826">
-        <v>1034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.15">
@@ -6973,7 +6976,7 @@
         <v>42732</v>
       </c>
       <c r="B827">
-        <v>1062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.15">
@@ -6981,7 +6984,7 @@
         <v>42733</v>
       </c>
       <c r="B828">
-        <v>1003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.15">
@@ -6989,7 +6992,7 @@
         <v>42734</v>
       </c>
       <c r="B829">
-        <v>765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.15">
@@ -6997,7 +7000,7 @@
         <v>42735</v>
       </c>
       <c r="B830">
-        <v>420</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.15">
@@ -7005,7 +7008,7 @@
         <v>42736</v>
       </c>
       <c r="B831">
-        <v>518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.15">
@@ -7013,7 +7016,7 @@
         <v>42737</v>
       </c>
       <c r="B832">
-        <v>830</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.15">
@@ -7021,7 +7024,7 @@
         <v>42738</v>
       </c>
       <c r="B833">
-        <v>1262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.15">
@@ -7029,7 +7032,7 @@
         <v>42739</v>
       </c>
       <c r="B834">
-        <v>1282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.15">
@@ -7037,7 +7040,7 @@
         <v>42740</v>
       </c>
       <c r="B835">
-        <v>1362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.15">
@@ -7045,7 +7048,7 @@
         <v>42741</v>
       </c>
       <c r="B836">
-        <v>1154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.15">
@@ -7053,7 +7056,7 @@
         <v>42742</v>
       </c>
       <c r="B837">
-        <v>793</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.15">
@@ -7061,7 +7064,7 @@
         <v>42743</v>
       </c>
       <c r="B838">
-        <v>888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.15">
@@ -7069,7 +7072,7 @@
         <v>42744</v>
       </c>
       <c r="B839">
-        <v>1339</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.15">
@@ -7077,7 +7080,7 @@
         <v>42745</v>
       </c>
       <c r="B840">
-        <v>1335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.15">
@@ -7085,7 +7088,7 @@
         <v>42746</v>
       </c>
       <c r="B841">
-        <v>1425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.15">
@@ -7093,7 +7096,7 @@
         <v>42747</v>
       </c>
       <c r="B842">
-        <v>1370</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.15">
@@ -7101,7 +7104,7 @@
         <v>42748</v>
       </c>
       <c r="B843">
-        <v>1161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.15">
@@ -7109,7 +7112,7 @@
         <v>42749</v>
       </c>
       <c r="B844">
-        <v>643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.15">
@@ -7117,7 +7120,7 @@
         <v>42750</v>
       </c>
       <c r="B845">
-        <v>729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.15">
@@ -7125,7 +7128,7 @@
         <v>42751</v>
       </c>
       <c r="B846">
-        <v>1315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.15">
@@ -7133,7 +7136,7 @@
         <v>42752</v>
       </c>
       <c r="B847">
-        <v>1506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.15">
@@ -7141,7 +7144,7 @@
         <v>42753</v>
       </c>
       <c r="B848">
-        <v>1470</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.15">
@@ -7149,7 +7152,7 @@
         <v>42754</v>
       </c>
       <c r="B849">
-        <v>1473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.15">
@@ -7157,7 +7160,7 @@
         <v>42755</v>
       </c>
       <c r="B850">
-        <v>1214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.15">
@@ -7165,7 +7168,7 @@
         <v>42756</v>
       </c>
       <c r="B851">
-        <v>671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.15">
@@ -7173,7 +7176,7 @@
         <v>42757</v>
       </c>
       <c r="B852">
-        <v>786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.15">
@@ -7181,7 +7184,7 @@
         <v>42758</v>
       </c>
       <c r="B853">
-        <v>1405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.15">
@@ -7189,7 +7192,7 @@
         <v>42759</v>
       </c>
       <c r="B854">
-        <v>1529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.15">
@@ -7197,7 +7200,7 @@
         <v>42760</v>
       </c>
       <c r="B855">
-        <v>1401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.15">
@@ -7205,7 +7208,7 @@
         <v>42761</v>
       </c>
       <c r="B856">
-        <v>1318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.15">
@@ -7213,7 +7216,7 @@
         <v>42762</v>
       </c>
       <c r="B857">
-        <v>1130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.15">
@@ -7221,7 +7224,7 @@
         <v>42763</v>
       </c>
       <c r="B858">
-        <v>665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.15">
@@ -7229,7 +7232,7 @@
         <v>42764</v>
       </c>
       <c r="B859">
-        <v>744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.15">
@@ -7237,7 +7240,7 @@
         <v>42765</v>
       </c>
       <c r="B860">
-        <v>1435</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.15">
@@ -7245,7 +7248,7 @@
         <v>42766</v>
       </c>
       <c r="B861">
-        <v>1421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.15">
@@ -7253,7 +7256,7 @@
         <v>42767</v>
       </c>
       <c r="B862">
-        <v>1506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.15">
@@ -7261,7 +7264,7 @@
         <v>42768</v>
       </c>
       <c r="B863">
-        <v>1526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.15">
@@ -7269,7 +7272,7 @@
         <v>42769</v>
       </c>
       <c r="B864">
-        <v>1347</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.15">
@@ -7277,7 +7280,7 @@
         <v>42770</v>
       </c>
       <c r="B865">
-        <v>757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.15">
@@ -7285,7 +7288,7 @@
         <v>42771</v>
       </c>
       <c r="B866">
-        <v>832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.15">
@@ -7293,7 +7296,7 @@
         <v>42772</v>
       </c>
       <c r="B867">
-        <v>1981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.15">
@@ -7301,7 +7304,7 @@
         <v>42773</v>
       </c>
       <c r="B868">
-        <v>2026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.15">
@@ -7309,7 +7312,7 @@
         <v>42774</v>
       </c>
       <c r="B869">
-        <v>2196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.15">
@@ -7317,7 +7320,7 @@
         <v>42775</v>
       </c>
       <c r="B870">
-        <v>2095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.15">
@@ -7325,7 +7328,7 @@
         <v>42776</v>
       </c>
       <c r="B871">
-        <v>1775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.15">
@@ -7333,7 +7336,7 @@
         <v>42777</v>
       </c>
       <c r="B872">
-        <v>924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.15">
@@ -7341,7 +7344,7 @@
         <v>42778</v>
       </c>
       <c r="B873">
-        <v>1074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.15">
@@ -7349,7 +7352,7 @@
         <v>42779</v>
       </c>
       <c r="B874">
-        <v>1934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.15">
@@ -7357,7 +7360,7 @@
         <v>42780</v>
       </c>
       <c r="B875">
-        <v>1803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.15">
@@ -7365,7 +7368,7 @@
         <v>42781</v>
       </c>
       <c r="B876">
-        <v>1769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.15">
@@ -7373,7 +7376,7 @@
         <v>42782</v>
       </c>
       <c r="B877">
-        <v>1892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.15">
@@ -7381,7 +7384,7 @@
         <v>42783</v>
       </c>
       <c r="B878">
-        <v>1608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.15">
@@ -7389,7 +7392,7 @@
         <v>42784</v>
       </c>
       <c r="B879">
-        <v>990</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.15">
@@ -7397,7 +7400,7 @@
         <v>42785</v>
       </c>
       <c r="B880">
-        <v>1068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.15">
@@ -7405,7 +7408,7 @@
         <v>42786</v>
       </c>
       <c r="B881">
-        <v>1760</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.15">
@@ -7413,7 +7416,7 @@
         <v>42787</v>
       </c>
       <c r="B882">
-        <v>2580</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.15">
@@ -7421,7 +7424,7 @@
         <v>42788</v>
       </c>
       <c r="B883">
-        <v>2242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.15">
@@ -7429,7 +7432,7 @@
         <v>42789</v>
       </c>
       <c r="B884">
-        <v>2237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.15">
@@ -7437,7 +7440,7 @@
         <v>42790</v>
       </c>
       <c r="B885">
-        <v>1749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.15">
@@ -7445,7 +7448,7 @@
         <v>42791</v>
       </c>
       <c r="B886">
-        <v>996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.15">
@@ -7453,7 +7456,7 @@
         <v>42792</v>
       </c>
       <c r="B887">
-        <v>1274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.15">
@@ -7461,7 +7464,7 @@
         <v>42793</v>
       </c>
       <c r="B888">
-        <v>2131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.15">
@@ -7469,7 +7472,7 @@
         <v>42794</v>
       </c>
       <c r="B889">
-        <v>1701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.15">
@@ -7477,7 +7480,7 @@
         <v>42795</v>
       </c>
       <c r="B890">
-        <v>1914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.15">
@@ -7485,7 +7488,7 @@
         <v>42796</v>
       </c>
       <c r="B891">
-        <v>1912</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.15">
@@ -7493,7 +7496,7 @@
         <v>42797</v>
       </c>
       <c r="B892">
-        <v>1626</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/All-Web.xlsx
+++ b/All-Web.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-2820" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
+    <workbookView xWindow="31060" yWindow="-3360" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
@@ -354,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
-      <selection activeCell="D892" sqref="D892"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -373,663 +373,663 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>41907</v>
+        <v>43080</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>515.14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>41908</v>
+        <v>42224</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.75332500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>41909</v>
+        <v>42225</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.70189699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>41910</v>
+        <v>42226</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.70844799999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>41911</v>
+        <v>42227</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>41912</v>
+        <v>42228</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>41913</v>
+        <v>42229</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>41914</v>
+        <v>42230</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>41915</v>
+        <v>42231</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>41916</v>
+        <v>42232</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>41917</v>
+        <v>42233</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>41918</v>
+        <v>42234</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>41919</v>
+        <v>42235</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>41920</v>
+        <v>42236</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>41921</v>
+        <v>42237</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>41922</v>
+        <v>42238</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>41923</v>
+        <v>42239</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>41924</v>
+        <v>42240</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>41925</v>
+        <v>42241</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>41926</v>
+        <v>42242</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>41927</v>
+        <v>42243</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>41928</v>
+        <v>42244</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>41929</v>
+        <v>42245</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>41930</v>
+        <v>42246</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>41931</v>
+        <v>42247</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>41932</v>
+        <v>42248</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>41933</v>
+        <v>42249</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>41934</v>
+        <v>42250</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>41935</v>
+        <v>42251</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>41936</v>
+        <v>42252</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>41937</v>
+        <v>42253</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>41938</v>
+        <v>42254</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>41939</v>
+        <v>42255</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>41940</v>
+        <v>42256</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>41941</v>
+        <v>42257</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>41942</v>
+        <v>42258</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.98297800000000002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>41943</v>
+        <v>42259</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>41944</v>
+        <v>42260</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.93600300000000003</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>41945</v>
+        <v>42261</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.87562200000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>41946</v>
+        <v>42262</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.94440999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>41947</v>
+        <v>42263</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.90717499999999995</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>41948</v>
+        <v>42264</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.87423099999999998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>41949</v>
+        <v>42265</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.85368500000000003</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>41950</v>
+        <v>42266</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.88239100000000004</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>41951</v>
+        <v>42267</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.93844499999999997</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>41952</v>
+        <v>42268</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.91904699999999995</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>41953</v>
+        <v>42269</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.90179600000000004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>41954</v>
+        <v>42270</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.89340600000000003</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>41955</v>
+        <v>42271</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.81361000000000006</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>41956</v>
+        <v>42272</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.73622299999999996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>41957</v>
+        <v>42273</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.785964</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>41958</v>
+        <v>42274</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.72083900000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>41959</v>
+        <v>42275</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.58288600000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>41960</v>
+        <v>42276</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.66114600000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>41961</v>
+        <v>42277</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.73864399999999997</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>41962</v>
+        <v>42278</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.69021500000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>41963</v>
+        <v>42279</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.67857400000000001</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>41964</v>
+        <v>42280</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.68717099999999998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>41965</v>
+        <v>42281</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.66837899999999995</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>41966</v>
+        <v>42282</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.62864299999999995</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>41967</v>
+        <v>42283</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.65064500000000003</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>41968</v>
+        <v>42284</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.60938800000000004</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>41969</v>
+        <v>42285</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.62171600000000005</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>41970</v>
+        <v>42286</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.65062799999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>41971</v>
+        <v>42287</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.627857</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>41972</v>
+        <v>42288</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.63496300000000006</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>41973</v>
+        <v>42289</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.62602999999999998</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>41974</v>
+        <v>42290</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.60765499999999995</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>41975</v>
+        <v>42291</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.52296799999999999</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>41976</v>
+        <v>42292</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.56187799999999999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>41977</v>
+        <v>42293</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.53649500000000006</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>41978</v>
+        <v>42294</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.54717800000000005</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>41979</v>
+        <v>42295</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.51773400000000003</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>41980</v>
+        <v>42296</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.489014</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>41981</v>
+        <v>42297</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.43482900000000002</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>41982</v>
+        <v>42298</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.44732899999999998</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>41983</v>
+        <v>42299</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.56770200000000004</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>41984</v>
+        <v>42300</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.53965700000000005</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>41985</v>
+        <v>42301</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.56359000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>41986</v>
+        <v>42302</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0.616039</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>41987</v>
+        <v>42303</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.73131699999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>41988</v>
+        <v>42304</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.869641</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>41989</v>
+        <v>42305</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -1037,6467 +1037,6297 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>41990</v>
+        <v>42306</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>41991</v>
+        <v>42307</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>41992</v>
+        <v>42308</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0.91662699999999997</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>41993</v>
+        <v>42309</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>41994</v>
+        <v>42310</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.98978900000000003</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>41995</v>
+        <v>42311</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>41996</v>
+        <v>42312</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.89905000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>41997</v>
+        <v>42313</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0.89563700000000002</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>41998</v>
+        <v>42314</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.92603199999999997</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>41999</v>
+        <v>42315</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.92797399999999997</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>42000</v>
+        <v>42316</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>42001</v>
+        <v>42317</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.999278</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>42002</v>
+        <v>42318</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.93434799999999996</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>42003</v>
+        <v>42319</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.79182900000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>42004</v>
+        <v>42320</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.89571100000000003</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>42005</v>
+        <v>42321</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.90409600000000001</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>42006</v>
+        <v>42322</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.88881200000000005</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>42007</v>
+        <v>42323</v>
       </c>
       <c r="B102">
-        <v>3601</v>
+        <v>0.90636799999999995</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>42008</v>
+        <v>42324</v>
       </c>
       <c r="B103">
-        <v>565</v>
+        <v>0.92896199999999995</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>42009</v>
+        <v>42325</v>
       </c>
       <c r="B104">
-        <v>571</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>42010</v>
+        <v>42326</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0.99331899999999995</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>42011</v>
+        <v>42327</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0.95553200000000005</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>42012</v>
+        <v>42328</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.92491999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>42013</v>
+        <v>42329</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0.97614000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>42014</v>
+        <v>42330</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0.96801800000000005</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>42015</v>
+        <v>42331</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0.94696899999999995</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>42016</v>
+        <v>42332</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0.90019099999999996</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>42017</v>
+        <v>42333</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0.863537</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>42018</v>
+        <v>42334</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0.88418300000000005</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>42019</v>
+        <v>42335</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0.86795100000000003</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>42020</v>
+        <v>42336</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0.91570300000000004</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>42021</v>
+        <v>42337</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0.87861400000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>42022</v>
+        <v>42338</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0.87311899999999998</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>42023</v>
+        <v>42339</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0.87480000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>42024</v>
+        <v>42340</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0.82121</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>42025</v>
+        <v>42341</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0.81214299999999995</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>42026</v>
+        <v>42342</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0.84004100000000004</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>42027</v>
+        <v>42343</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0.86243800000000004</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>42028</v>
+        <v>42344</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0.83550000000000002</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>42029</v>
+        <v>42345</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0.81126399999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>42030</v>
+        <v>42346</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.82211800000000002</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>42031</v>
+        <v>42347</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0.79216699999999995</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>42032</v>
+        <v>42348</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0.84039600000000003</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>42033</v>
+        <v>42349</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0.92976199999999998</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>42034</v>
+        <v>42350</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0.97697299999999998</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>42035</v>
+        <v>42351</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0.95288399999999995</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>42036</v>
+        <v>42352</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.99302199999999996</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>42037</v>
+        <v>42353</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>42038</v>
+        <v>42354</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0.99118200000000001</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>42039</v>
+        <v>42355</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0.94070100000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>42040</v>
+        <v>42356</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0.92012700000000003</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>42041</v>
+        <v>42357</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0.90807199999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>42042</v>
+        <v>42358</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0.90388500000000005</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>42043</v>
+        <v>42359</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0.90077099999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>42044</v>
+        <v>42360</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0.86420200000000003</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>42045</v>
+        <v>42361</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0.85807699999999998</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>42046</v>
+        <v>42362</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0.86326199999999997</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>42047</v>
+        <v>42363</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0.870363</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>42048</v>
+        <v>42364</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0.854603</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>42049</v>
+        <v>42365</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0.85636500000000004</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>42050</v>
+        <v>42366</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0.84500500000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>42051</v>
+        <v>42367</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0.873054</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>42052</v>
+        <v>42368</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0.91195800000000005</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>42053</v>
+        <v>42369</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0.93354199999999998</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>42054</v>
+        <v>42370</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0.94802399999999998</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>42055</v>
+        <v>42371</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0.93712399999999996</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>42056</v>
+        <v>42372</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0.97190500000000002</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>42057</v>
+        <v>42373</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.95448</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>42058</v>
+        <v>42374</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0.95017600000000002</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>42059</v>
+        <v>42375</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0.95086000000000004</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>42060</v>
+        <v>42376</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0.94200499999999998</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>42061</v>
+        <v>42377</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>0.98678900000000003</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>42062</v>
+        <v>42378</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0.98683299999999996</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>42063</v>
+        <v>42379</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0.99923099999999998</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>42064</v>
+        <v>42380</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>42065</v>
+        <v>42381</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>42066</v>
+        <v>42382</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>42067</v>
+        <v>42383</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>42068</v>
+        <v>42384</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>42069</v>
+        <v>42385</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>42070</v>
+        <v>42386</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>42071</v>
+        <v>42387</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>42072</v>
+        <v>42388</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>42073</v>
+        <v>42389</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>42074</v>
+        <v>42390</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>42075</v>
+        <v>42391</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>42076</v>
+        <v>42392</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>42077</v>
+        <v>42393</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>42078</v>
+        <v>42394</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>42079</v>
+        <v>42395</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>42080</v>
+        <v>42396</v>
       </c>
       <c r="B175">
-        <v>1</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>42081</v>
+        <v>42397</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>42082</v>
+        <v>42398</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>42083</v>
+        <v>42399</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>42084</v>
+        <v>42400</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>42085</v>
+        <v>42401</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>42086</v>
+        <v>42402</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>42087</v>
+        <v>42403</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>42088</v>
+        <v>42404</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>42089</v>
+        <v>42405</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>42090</v>
+        <v>42406</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>42091</v>
+        <v>42407</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>42092</v>
+        <v>42408</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>42093</v>
+        <v>42409</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>42094</v>
+        <v>42410</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>42095</v>
+        <v>42411</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>42096</v>
+        <v>42412</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>42097</v>
+        <v>42413</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>42098</v>
+        <v>42414</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>42099</v>
+        <v>42415</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>42100</v>
+        <v>42416</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>42101</v>
+        <v>42417</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>42102</v>
+        <v>42418</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>42103</v>
+        <v>42419</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>42104</v>
+        <v>42420</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>42105</v>
+        <v>42421</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>42106</v>
+        <v>42422</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>42107</v>
+        <v>42423</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>42108</v>
+        <v>42424</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>42109</v>
+        <v>42425</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>42110</v>
+        <v>42426</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>42111</v>
+        <v>42427</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>42112</v>
+        <v>42428</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>42113</v>
+        <v>42429</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>42114</v>
+        <v>42430</v>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>42115</v>
+        <v>42431</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>8.4700000000000006</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>42116</v>
+        <v>42432</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>42117</v>
+        <v>42433</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>42118</v>
+        <v>42434</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>42119</v>
+        <v>42435</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>42120</v>
+        <v>42436</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>42121</v>
+        <v>42437</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>42122</v>
+        <v>42438</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>42123</v>
+        <v>42439</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>42124</v>
+        <v>42440</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>42125</v>
+        <v>42441</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>42126</v>
+        <v>42442</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>42127</v>
+        <v>42443</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>42128</v>
+        <v>42444</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>42129</v>
+        <v>42445</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>42130</v>
+        <v>42446</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>42131</v>
+        <v>42447</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>42132</v>
+        <v>42448</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>42133</v>
+        <v>42449</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>42134</v>
+        <v>42450</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>42135</v>
+        <v>42451</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>42136</v>
+        <v>42452</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>42137</v>
+        <v>42453</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>42138</v>
+        <v>42454</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>42139</v>
+        <v>42455</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>42140</v>
+        <v>42456</v>
       </c>
       <c r="B235">
-        <v>1</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>42141</v>
+        <v>42457</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>42142</v>
+        <v>42458</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>42143</v>
+        <v>42459</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>42144</v>
+        <v>42460</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>42145</v>
+        <v>42461</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>42146</v>
+        <v>42462</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>42147</v>
+        <v>42463</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>42148</v>
+        <v>42464</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>42149</v>
+        <v>42465</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>42150</v>
+        <v>42466</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>42151</v>
+        <v>42467</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>42152</v>
+        <v>42468</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>42153</v>
+        <v>42469</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>42154</v>
+        <v>42470</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>42155</v>
+        <v>42471</v>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>8.64</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>42156</v>
+        <v>42472</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>42157</v>
+        <v>42473</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>42158</v>
+        <v>42474</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>42159</v>
+        <v>42475</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>42160</v>
+        <v>42476</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>42161</v>
+        <v>42477</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>42162</v>
+        <v>42478</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>42163</v>
+        <v>42479</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>8.7100000000000009</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>42164</v>
+        <v>42480</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>8.4700000000000006</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>42165</v>
+        <v>42481</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>42166</v>
+        <v>42482</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>42167</v>
+        <v>42483</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
-        <v>42168</v>
+        <v>42484</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
-        <v>42169</v>
+        <v>42485</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
-        <v>42170</v>
+        <v>42486</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
-        <v>42171</v>
+        <v>42487</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
-        <v>42172</v>
+        <v>42488</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
-        <v>42173</v>
+        <v>42489</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
-        <v>42174</v>
+        <v>42490</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
-        <v>42175</v>
+        <v>42491</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
-        <v>42176</v>
+        <v>42492</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
-        <v>42177</v>
+        <v>42493</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
-        <v>42178</v>
+        <v>42494</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
-        <v>42179</v>
+        <v>42495</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
-        <v>42180</v>
+        <v>42496</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
-        <v>42181</v>
+        <v>42497</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
-        <v>42182</v>
+        <v>42498</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
-        <v>42183</v>
+        <v>42499</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
-        <v>42184</v>
+        <v>42500</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
-        <v>42185</v>
+        <v>42501</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
-        <v>42186</v>
+        <v>42502</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
-        <v>42187</v>
+        <v>42503</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
-        <v>42188</v>
+        <v>42504</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
-        <v>42189</v>
+        <v>42505</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
-        <v>42190</v>
+        <v>42506</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
-        <v>42191</v>
+        <v>42507</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
-        <v>42192</v>
+        <v>42508</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
-        <v>42193</v>
+        <v>42509</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
-        <v>42194</v>
+        <v>42510</v>
       </c>
       <c r="B289">
-        <v>1</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
-        <v>42195</v>
+        <v>42511</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
-        <v>42196</v>
+        <v>42512</v>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
-        <v>42197</v>
+        <v>42513</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
-        <v>42198</v>
+        <v>42514</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
-        <v>42199</v>
+        <v>42515</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
-        <v>42200</v>
+        <v>42516</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
-        <v>42201</v>
+        <v>42517</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
-        <v>42202</v>
+        <v>42518</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
-        <v>42203</v>
+        <v>42519</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
-        <v>42204</v>
+        <v>42520</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
-        <v>42205</v>
+        <v>42521</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
-        <v>42206</v>
+        <v>42522</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
-        <v>42207</v>
+        <v>42523</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
-        <v>42208</v>
+        <v>42524</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
-        <v>42209</v>
+        <v>42525</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
-        <v>42210</v>
+        <v>42526</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
-        <v>42211</v>
+        <v>42527</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
-        <v>42212</v>
+        <v>42528</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
-        <v>42213</v>
+        <v>42529</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
-        <v>42214</v>
+        <v>42530</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
-        <v>42215</v>
+        <v>42531</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
-        <v>42216</v>
+        <v>42532</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
-        <v>42217</v>
+        <v>42533</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
-        <v>42218</v>
+        <v>42534</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
-        <v>42219</v>
+        <v>42535</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
-        <v>42220</v>
+        <v>42536</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
-        <v>42221</v>
+        <v>42537</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
-        <v>42222</v>
+        <v>42538</v>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
-        <v>42223</v>
+        <v>42539</v>
       </c>
       <c r="B318">
-        <v>1</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
-        <v>42224</v>
+        <v>42540</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
-        <v>42225</v>
+        <v>42541</v>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
-        <v>42226</v>
+        <v>42542</v>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
-        <v>42227</v>
+        <v>42543</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
-        <v>42228</v>
+        <v>42544</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
-        <v>42229</v>
+        <v>42545</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
-        <v>42230</v>
+        <v>42546</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
-        <v>42231</v>
+        <v>42547</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
-        <v>42232</v>
+        <v>42548</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
-        <v>42233</v>
+        <v>42549</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
-        <v>42234</v>
+        <v>42550</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
-        <v>42235</v>
+        <v>42551</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
-        <v>42236</v>
+        <v>42552</v>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
-        <v>42237</v>
+        <v>42553</v>
       </c>
       <c r="B332">
-        <v>1</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
-        <v>42238</v>
+        <v>42554</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
-        <v>42239</v>
+        <v>42555</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
-        <v>42240</v>
+        <v>42556</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
-        <v>42241</v>
+        <v>42557</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
-        <v>42242</v>
+        <v>42558</v>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
-        <v>42243</v>
+        <v>42559</v>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
-        <v>42244</v>
+        <v>42560</v>
       </c>
       <c r="B339">
-        <v>1</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
-        <v>42245</v>
+        <v>42561</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
-        <v>42246</v>
+        <v>42562</v>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
-        <v>42247</v>
+        <v>42563</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
-        <v>42248</v>
+        <v>42564</v>
       </c>
       <c r="B343">
-        <v>1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
-        <v>42249</v>
+        <v>42565</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
-        <v>42250</v>
+        <v>42566</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
-        <v>42251</v>
+        <v>42567</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
-        <v>42252</v>
+        <v>42568</v>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
-        <v>42253</v>
+        <v>42569</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
-        <v>42254</v>
+        <v>42570</v>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
-        <v>42255</v>
+        <v>42571</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
-        <v>42256</v>
+        <v>42572</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
-        <v>42257</v>
+        <v>42573</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
-        <v>42258</v>
+        <v>42574</v>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
-        <v>42259</v>
+        <v>42575</v>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
-        <v>42260</v>
+        <v>42576</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
-        <v>42261</v>
+        <v>42577</v>
       </c>
       <c r="B356">
-        <v>1</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
-        <v>42262</v>
+        <v>42578</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
-        <v>42263</v>
+        <v>42579</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
-        <v>42264</v>
+        <v>42580</v>
       </c>
       <c r="B359">
-        <v>1</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
-        <v>42265</v>
+        <v>42581</v>
       </c>
       <c r="B360">
-        <v>1</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
-        <v>42266</v>
+        <v>42582</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
-        <v>42267</v>
+        <v>42583</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
-        <v>42268</v>
+        <v>42584</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
-        <v>42269</v>
+        <v>42585</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
-        <v>42270</v>
+        <v>42586</v>
       </c>
       <c r="B365">
-        <v>1</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
-        <v>42271</v>
+        <v>42587</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
-        <v>42272</v>
+        <v>42588</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
-        <v>42273</v>
+        <v>42589</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
-        <v>42274</v>
+        <v>42590</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
-        <v>42275</v>
+        <v>42591</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
-        <v>42276</v>
+        <v>42592</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
-        <v>42277</v>
+        <v>42593</v>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
-        <v>42278</v>
+        <v>42594</v>
       </c>
       <c r="B373">
-        <v>1</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
-        <v>42279</v>
+        <v>42595</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
-        <v>42280</v>
+        <v>42596</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
-        <v>42281</v>
+        <v>42597</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
-        <v>42282</v>
+        <v>42598</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
-        <v>42283</v>
+        <v>42599</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
-        <v>42284</v>
+        <v>42600</v>
       </c>
       <c r="B379">
-        <v>1</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
-        <v>42285</v>
+        <v>42601</v>
       </c>
       <c r="B380">
-        <v>1</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
-        <v>42286</v>
+        <v>42602</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
-        <v>42287</v>
+        <v>42603</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
-        <v>42288</v>
+        <v>42604</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
-        <v>42289</v>
+        <v>42605</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
-        <v>42290</v>
+        <v>42606</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
-        <v>42291</v>
+        <v>42607</v>
       </c>
       <c r="B386">
-        <v>1</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
-        <v>42292</v>
+        <v>42608</v>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
-        <v>42293</v>
+        <v>42609</v>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
-        <v>42294</v>
+        <v>42610</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
-        <v>42295</v>
+        <v>42611</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
-        <v>42296</v>
+        <v>42612</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
-        <v>42297</v>
+        <v>42613</v>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
-        <v>42298</v>
+        <v>42614</v>
       </c>
       <c r="B393">
-        <v>1</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
-        <v>42299</v>
+        <v>42615</v>
       </c>
       <c r="B394">
-        <v>1</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
-        <v>42300</v>
+        <v>42616</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
-        <v>42301</v>
+        <v>42617</v>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
-        <v>42302</v>
+        <v>42618</v>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
-        <v>42303</v>
+        <v>42619</v>
       </c>
       <c r="B398">
-        <v>1</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
-        <v>42304</v>
+        <v>42620</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
-        <v>42305</v>
+        <v>42621</v>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
-        <v>42306</v>
+        <v>42622</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
-        <v>42307</v>
+        <v>42623</v>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
-        <v>42308</v>
+        <v>42624</v>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
-        <v>42309</v>
+        <v>42625</v>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
-        <v>42310</v>
+        <v>42626</v>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
-        <v>42311</v>
+        <v>42627</v>
       </c>
       <c r="B406">
-        <v>1</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
-        <v>42312</v>
+        <v>42628</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
-        <v>42313</v>
+        <v>42629</v>
       </c>
       <c r="B408">
-        <v>1</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
-        <v>42314</v>
+        <v>42630</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
-        <v>42315</v>
+        <v>42631</v>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
-        <v>42316</v>
+        <v>42632</v>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
-        <v>42317</v>
+        <v>42633</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
-        <v>42318</v>
+        <v>42634</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
-        <v>42319</v>
+        <v>42635</v>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
-        <v>42320</v>
+        <v>42636</v>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
-        <v>42321</v>
+        <v>42637</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
-        <v>42322</v>
+        <v>42638</v>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
-        <v>42323</v>
+        <v>42639</v>
       </c>
       <c r="B418">
-        <v>1</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
-        <v>42324</v>
+        <v>42640</v>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
-        <v>42325</v>
+        <v>42641</v>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
-        <v>42326</v>
+        <v>42642</v>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
-        <v>42327</v>
+        <v>42643</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
-        <v>42328</v>
+        <v>42644</v>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
-        <v>42329</v>
+        <v>42645</v>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
-        <v>42330</v>
+        <v>42646</v>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
-        <v>42331</v>
+        <v>42647</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
-        <v>42332</v>
+        <v>42648</v>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
-        <v>42333</v>
+        <v>42649</v>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
-        <v>42334</v>
+        <v>42650</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
-        <v>42335</v>
+        <v>42651</v>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
-        <v>42336</v>
+        <v>42652</v>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
-        <v>42337</v>
+        <v>42653</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
-        <v>42338</v>
+        <v>42654</v>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
-        <v>42339</v>
+        <v>42655</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
-        <v>42340</v>
+        <v>42656</v>
       </c>
       <c r="B435">
-        <v>1</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
-        <v>42341</v>
+        <v>42657</v>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
-        <v>42342</v>
+        <v>42658</v>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
-        <v>42343</v>
+        <v>42659</v>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
-        <v>42344</v>
+        <v>42660</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
-        <v>42345</v>
+        <v>42661</v>
       </c>
       <c r="B440">
-        <v>1</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
-        <v>42346</v>
+        <v>42662</v>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
-        <v>42347</v>
+        <v>42663</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
-        <v>42348</v>
+        <v>42664</v>
       </c>
       <c r="B443">
-        <v>1</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
-        <v>42349</v>
+        <v>42665</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
-        <v>42350</v>
+        <v>42666</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
-        <v>42351</v>
+        <v>42667</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
-        <v>42352</v>
+        <v>42668</v>
       </c>
       <c r="B447">
-        <v>1</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
-        <v>42353</v>
+        <v>42669</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
-        <v>42354</v>
+        <v>42670</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
-        <v>42355</v>
+        <v>42671</v>
       </c>
       <c r="B450">
-        <v>1</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
-        <v>42356</v>
+        <v>42672</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
-        <v>42357</v>
+        <v>42673</v>
       </c>
       <c r="B452">
-        <v>1</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
-        <v>42358</v>
+        <v>42674</v>
       </c>
       <c r="B453">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
-        <v>42359</v>
+        <v>42675</v>
       </c>
       <c r="B454">
-        <v>1</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
-        <v>42360</v>
+        <v>42676</v>
       </c>
       <c r="B455">
-        <v>1</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
-        <v>42361</v>
+        <v>42677</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
-        <v>42362</v>
+        <v>42678</v>
       </c>
       <c r="B457">
-        <v>1</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
-        <v>42363</v>
+        <v>42679</v>
       </c>
       <c r="B458">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
-        <v>42364</v>
+        <v>42680</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
-        <v>42365</v>
+        <v>42681</v>
       </c>
       <c r="B460">
-        <v>1</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
-        <v>42366</v>
+        <v>42682</v>
       </c>
       <c r="B461">
-        <v>1</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
-        <v>42367</v>
+        <v>42683</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
-        <v>42368</v>
+        <v>42684</v>
       </c>
       <c r="B463">
-        <v>1</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
-        <v>42369</v>
+        <v>42685</v>
       </c>
       <c r="B464">
-        <v>1</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
-        <v>42370</v>
+        <v>42686</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
-        <v>42371</v>
+        <v>42687</v>
       </c>
       <c r="B466">
-        <v>1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
-        <v>42372</v>
+        <v>42688</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
-        <v>42373</v>
+        <v>42689</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
-        <v>42374</v>
+        <v>42690</v>
       </c>
       <c r="B469">
-        <v>1</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
-        <v>42375</v>
+        <v>42691</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
-        <v>42376</v>
+        <v>42692</v>
       </c>
       <c r="B471">
-        <v>1</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
-        <v>42377</v>
+        <v>42693</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
-        <v>42378</v>
+        <v>42694</v>
       </c>
       <c r="B473">
-        <v>1</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
-        <v>42379</v>
+        <v>42695</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
-        <v>42380</v>
+        <v>42696</v>
       </c>
       <c r="B475">
-        <v>1</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
-        <v>42381</v>
+        <v>42697</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
-        <v>42382</v>
+        <v>42698</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
-        <v>42383</v>
+        <v>42699</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
-        <v>42384</v>
+        <v>42700</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
-        <v>42385</v>
+        <v>42701</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
-        <v>42386</v>
+        <v>42702</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>8.7200000000000006</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
-        <v>42387</v>
+        <v>42703</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
-        <v>42388</v>
+        <v>42704</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
-        <v>42389</v>
+        <v>42705</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
-        <v>42390</v>
+        <v>42706</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
-        <v>42391</v>
+        <v>42707</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
-        <v>42392</v>
+        <v>42708</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
-        <v>42393</v>
+        <v>42709</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
-        <v>42394</v>
+        <v>42710</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
-        <v>42395</v>
+        <v>42711</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
-        <v>42396</v>
+        <v>42712</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
-        <v>42397</v>
+        <v>42713</v>
       </c>
       <c r="B492">
-        <v>1</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
-        <v>42398</v>
+        <v>42714</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
-        <v>42399</v>
+        <v>42715</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
-        <v>42400</v>
+        <v>42716</v>
       </c>
       <c r="B495">
-        <v>1</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
-        <v>42401</v>
+        <v>42717</v>
       </c>
       <c r="B496">
-        <v>1</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
-        <v>42402</v>
+        <v>42718</v>
       </c>
       <c r="B497">
-        <v>1</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
-        <v>42403</v>
+        <v>42719</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
-        <v>42404</v>
+        <v>42720</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
-        <v>42405</v>
+        <v>42721</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
-        <v>42406</v>
+        <v>42722</v>
       </c>
       <c r="B501">
-        <v>1</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
-        <v>42407</v>
+        <v>42723</v>
       </c>
       <c r="B502">
-        <v>1</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
-        <v>42408</v>
+        <v>42724</v>
       </c>
       <c r="B503">
-        <v>1</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
-        <v>42409</v>
+        <v>42725</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
-        <v>42410</v>
+        <v>42726</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
-        <v>42411</v>
+        <v>42727</v>
       </c>
       <c r="B506">
-        <v>1</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
-        <v>42412</v>
+        <v>42728</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
-        <v>42413</v>
+        <v>42729</v>
       </c>
       <c r="B508">
-        <v>1</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
-        <v>42414</v>
+        <v>42730</v>
       </c>
       <c r="B509">
-        <v>1</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
-        <v>42415</v>
+        <v>42731</v>
       </c>
       <c r="B510">
-        <v>1</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
-        <v>42416</v>
+        <v>42732</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
-        <v>42417</v>
+        <v>42733</v>
       </c>
       <c r="B512">
-        <v>1</v>
+        <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
-        <v>42418</v>
+        <v>42734</v>
       </c>
       <c r="B513">
-        <v>1</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
-        <v>42419</v>
+        <v>42735</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
-        <v>42420</v>
+        <v>42736</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
-        <v>42421</v>
+        <v>42737</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
-        <v>42422</v>
+        <v>42738</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
-        <v>42423</v>
+        <v>42739</v>
       </c>
       <c r="B518">
-        <v>1</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
-        <v>42424</v>
+        <v>42740</v>
       </c>
       <c r="B519">
-        <v>1</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
-        <v>42425</v>
+        <v>42741</v>
       </c>
       <c r="B520">
-        <v>1</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
-        <v>42426</v>
+        <v>42742</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
-        <v>42427</v>
+        <v>42743</v>
       </c>
       <c r="B522">
-        <v>1</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
-        <v>42428</v>
+        <v>42744</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
-        <v>42429</v>
+        <v>42745</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
-        <v>42430</v>
+        <v>42746</v>
       </c>
       <c r="B525">
-        <v>1</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
-        <v>42431</v>
+        <v>42747</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>9.86</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
-        <v>42432</v>
+        <v>42748</v>
       </c>
       <c r="B527">
-        <v>1</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
-        <v>42433</v>
+        <v>42749</v>
       </c>
       <c r="B528">
-        <v>1</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
-        <v>42434</v>
+        <v>42750</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
-        <v>42435</v>
+        <v>42751</v>
       </c>
       <c r="B530">
-        <v>1</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
-        <v>42436</v>
+        <v>42752</v>
       </c>
       <c r="B531">
-        <v>1</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
-        <v>42437</v>
+        <v>42753</v>
       </c>
       <c r="B532">
-        <v>1</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
-        <v>42438</v>
+        <v>42754</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
-        <v>42439</v>
+        <v>42755</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
-        <v>42440</v>
+        <v>42756</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
-        <v>42441</v>
+        <v>42757</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
-        <v>42442</v>
+        <v>42758</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
-        <v>42443</v>
+        <v>42759</v>
       </c>
       <c r="B538">
-        <v>1</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
-        <v>42444</v>
+        <v>42760</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
-        <v>42445</v>
+        <v>42761</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
-        <v>42446</v>
+        <v>42762</v>
       </c>
       <c r="B541">
-        <v>1</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
-        <v>42447</v>
+        <v>42763</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
-        <v>42448</v>
+        <v>42764</v>
       </c>
       <c r="B543">
-        <v>1</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
-        <v>42449</v>
+        <v>42765</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
-        <v>42450</v>
+        <v>42766</v>
       </c>
       <c r="B545">
-        <v>1</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
-        <v>42451</v>
+        <v>42767</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
-        <v>42452</v>
+        <v>42768</v>
       </c>
       <c r="B547">
-        <v>1</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
-        <v>42453</v>
+        <v>42769</v>
       </c>
       <c r="B548">
-        <v>1</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
-        <v>42454</v>
+        <v>42770</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
-        <v>42455</v>
+        <v>42771</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
-        <v>42456</v>
+        <v>42772</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
-        <v>42457</v>
+        <v>42773</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
-        <v>42458</v>
+        <v>42774</v>
       </c>
       <c r="B553">
-        <v>1</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
-        <v>42459</v>
+        <v>42775</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
-        <v>42460</v>
+        <v>42776</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
-        <v>42461</v>
+        <v>42777</v>
       </c>
       <c r="B556">
-        <v>1</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
-        <v>42462</v>
+        <v>42778</v>
       </c>
       <c r="B557">
-        <v>1</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
-        <v>42463</v>
+        <v>42779</v>
       </c>
       <c r="B558">
-        <v>1</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
-        <v>42464</v>
+        <v>42780</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
-        <v>42465</v>
+        <v>42781</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
-        <v>42466</v>
+        <v>42782</v>
       </c>
       <c r="B561">
-        <v>1</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
-        <v>42467</v>
+        <v>42783</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
-        <v>42468</v>
+        <v>42784</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
-        <v>42469</v>
+        <v>42785</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
-        <v>42470</v>
+        <v>42786</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
-        <v>42471</v>
+        <v>42787</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
-        <v>42472</v>
+        <v>42788</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
-        <v>42473</v>
+        <v>42789</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
-        <v>42474</v>
+        <v>42790</v>
       </c>
       <c r="B569">
-        <v>1</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
-        <v>42475</v>
+        <v>42791</v>
       </c>
       <c r="B570">
-        <v>1</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
-        <v>42476</v>
+        <v>42792</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
-        <v>42477</v>
+        <v>42793</v>
       </c>
       <c r="B572">
-        <v>1</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
-        <v>42478</v>
+        <v>42794</v>
       </c>
       <c r="B573">
-        <v>1</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
-        <v>42479</v>
+        <v>42795</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>17.350000000000001</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
-        <v>42480</v>
+        <v>42796</v>
       </c>
       <c r="B575">
-        <v>1</v>
+        <v>19.03</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
-        <v>42481</v>
+        <v>42797</v>
       </c>
       <c r="B576">
-        <v>1</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
-        <v>42482</v>
+        <v>42798</v>
       </c>
       <c r="B577">
-        <v>1</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
-        <v>42483</v>
+        <v>42799</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
-        <v>42484</v>
+        <v>42800</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
-        <v>42485</v>
+        <v>42801</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
-        <v>42486</v>
+        <v>42802</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>16.649999999999999</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
-        <v>42487</v>
+        <v>42803</v>
       </c>
       <c r="B582">
-        <v>1</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
-        <v>42488</v>
+        <v>42804</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
-        <v>42489</v>
+        <v>42805</v>
       </c>
       <c r="B584">
-        <v>1</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
-        <v>42490</v>
+        <v>42806</v>
       </c>
       <c r="B585">
-        <v>1</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
-        <v>42491</v>
+        <v>42807</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
-        <v>42492</v>
+        <v>42808</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
-        <v>42493</v>
+        <v>42809</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
-        <v>42494</v>
+        <v>42810</v>
       </c>
       <c r="B589">
-        <v>1</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
-        <v>42495</v>
+        <v>42811</v>
       </c>
       <c r="B590">
-        <v>1</v>
+        <v>46.83</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
-        <v>42496</v>
+        <v>42812</v>
       </c>
       <c r="B591">
-        <v>1</v>
+        <v>34.159999999999997</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
-        <v>42497</v>
+        <v>42813</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
-        <v>42498</v>
+        <v>42814</v>
       </c>
       <c r="B593">
-        <v>1</v>
+        <v>43.39</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
-        <v>42499</v>
+        <v>42815</v>
       </c>
       <c r="B594">
-        <v>1</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
-        <v>42500</v>
+        <v>42816</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
-        <v>42501</v>
+        <v>42817</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>43.68</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
-        <v>42502</v>
+        <v>42818</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
-        <v>42503</v>
+        <v>42819</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
-        <v>42504</v>
+        <v>42820</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
-        <v>42505</v>
+        <v>42821</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
-        <v>42506</v>
+        <v>42822</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
-        <v>42507</v>
+        <v>42823</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
-        <v>42508</v>
+        <v>42824</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>52.21</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A604" s="1">
-        <v>42509</v>
+        <v>42825</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>50.04</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A605" s="1">
-        <v>42510</v>
+        <v>42826</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
-        <v>42511</v>
+        <v>42827</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A607" s="1">
-        <v>42512</v>
+        <v>42828</v>
       </c>
       <c r="B607">
-        <v>1</v>
+        <v>44.36</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A608" s="1">
-        <v>42513</v>
+        <v>42829</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A609" s="1">
-        <v>42514</v>
+        <v>42830</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A610" s="1">
-        <v>42515</v>
+        <v>42831</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A611" s="1">
-        <v>42516</v>
+        <v>42832</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>42.16</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A612" s="1">
-        <v>42517</v>
+        <v>42833</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
-        <v>42518</v>
+        <v>42834</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>43.27</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
-        <v>42519</v>
+        <v>42835</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>43.44</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A615" s="1">
-        <v>42520</v>
+        <v>42836</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>43.41</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A616" s="1">
-        <v>42521</v>
+        <v>42837</v>
       </c>
       <c r="B616">
-        <v>1</v>
+        <v>46.29</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
-        <v>42522</v>
+        <v>42838</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
-        <v>42523</v>
+        <v>42839</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>47.57</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A619" s="1">
-        <v>42524</v>
+        <v>42840</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A620" s="1">
-        <v>42525</v>
+        <v>42841</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
-        <v>42526</v>
+        <v>42842</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A622" s="1">
-        <v>42527</v>
+        <v>42843</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>50.71</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A623" s="1">
-        <v>42528</v>
+        <v>42844</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>48.31</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A624" s="1">
-        <v>42529</v>
+        <v>42845</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A625" s="1">
-        <v>42530</v>
+        <v>42846</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>48.22</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
-        <v>42531</v>
+        <v>42847</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>48.55</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
-        <v>42532</v>
+        <v>42848</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>48.49</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A628" s="1">
-        <v>42533</v>
+        <v>42849</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>50.03</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
-        <v>42534</v>
+        <v>42850</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>49.89</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A630" s="1">
-        <v>42535</v>
+        <v>42851</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>52.72</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A631" s="1">
-        <v>42536</v>
+        <v>42852</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>62.17</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A632" s="1">
-        <v>42537</v>
+        <v>42853</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>70.16</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A633" s="1">
-        <v>42538</v>
+        <v>42854</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>68.38</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A634" s="1">
-        <v>42539</v>
+        <v>42855</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>79.02</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A635" s="1">
-        <v>42540</v>
+        <v>42856</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A636" s="1">
-        <v>42541</v>
+        <v>42857</v>
       </c>
       <c r="B636">
-        <v>1</v>
+        <v>77.260000000000005</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
-        <v>42542</v>
+        <v>42858</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>79.72</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
-        <v>42543</v>
+        <v>42859</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>96.98</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
-        <v>42544</v>
+        <v>42860</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A640" s="1">
-        <v>42545</v>
+        <v>42861</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
-        <v>42546</v>
+        <v>42862</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>94.01</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A642" s="1">
-        <v>42547</v>
+        <v>42863</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>91.42</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A643" s="1">
-        <v>42548</v>
+        <v>42864</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>91.16</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A644" s="1">
-        <v>42549</v>
+        <v>42865</v>
       </c>
       <c r="B644">
-        <v>1</v>
+        <v>89.52</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A645" s="1">
-        <v>42550</v>
+        <v>42866</v>
       </c>
       <c r="B645">
-        <v>1</v>
+        <v>89.88</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A646" s="1">
-        <v>42551</v>
+        <v>42867</v>
       </c>
       <c r="B646">
-        <v>1</v>
+        <v>88.66</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A647" s="1">
-        <v>42552</v>
+        <v>42868</v>
       </c>
       <c r="B647">
-        <v>1</v>
+        <v>90.84</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A648" s="1">
-        <v>42553</v>
+        <v>42869</v>
       </c>
       <c r="B648">
-        <v>1</v>
+        <v>90.79</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A649" s="1">
-        <v>42554</v>
+        <v>42870</v>
       </c>
       <c r="B649">
-        <v>1</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
-        <v>42555</v>
+        <v>42871</v>
       </c>
       <c r="B650">
-        <v>1</v>
+        <v>89.44</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A651" s="1">
-        <v>42556</v>
+        <v>42872</v>
       </c>
       <c r="B651">
-        <v>1</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A652" s="1">
-        <v>42557</v>
+        <v>42873</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>96.91</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A653" s="1">
-        <v>42558</v>
+        <v>42874</v>
       </c>
       <c r="B653">
-        <v>1</v>
+        <v>129.53</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A654" s="1">
-        <v>42559</v>
+        <v>42875</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>126.52</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A655" s="1">
-        <v>42560</v>
+        <v>42876</v>
       </c>
       <c r="B655">
-        <v>1</v>
+        <v>157.94</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A656" s="1">
-        <v>42561</v>
+        <v>42877</v>
       </c>
       <c r="B656">
-        <v>1</v>
+        <v>174.26</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
-        <v>42562</v>
+        <v>42878</v>
       </c>
       <c r="B657">
-        <v>1</v>
+        <v>181.95</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
-        <v>42563</v>
+        <v>42879</v>
       </c>
       <c r="B658">
-        <v>1</v>
+        <v>190.05</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
-        <v>42564</v>
+        <v>42880</v>
       </c>
       <c r="B659">
-        <v>1</v>
+        <v>174.45</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
-        <v>42565</v>
+        <v>42881</v>
       </c>
       <c r="B660">
-        <v>1</v>
+        <v>160.4</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
-        <v>42566</v>
+        <v>42882</v>
       </c>
       <c r="B661">
-        <v>1</v>
+        <v>157.76</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
-        <v>42567</v>
+        <v>42883</v>
       </c>
       <c r="B662">
-        <v>1</v>
+        <v>170.51</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
-        <v>42568</v>
+        <v>42884</v>
       </c>
       <c r="B663">
-        <v>1</v>
+        <v>194.91</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
-        <v>42569</v>
+        <v>42885</v>
       </c>
       <c r="B664">
-        <v>1</v>
+        <v>231.91</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
-        <v>42570</v>
+        <v>42886</v>
       </c>
       <c r="B665">
-        <v>1</v>
+        <v>230.67</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
-        <v>42571</v>
+        <v>42887</v>
       </c>
       <c r="B666">
-        <v>1</v>
+        <v>222.24</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
-        <v>42572</v>
+        <v>42888</v>
       </c>
       <c r="B667">
-        <v>1</v>
+        <v>223.78</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
-        <v>42573</v>
+        <v>42889</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>224.38</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
-        <v>42574</v>
+        <v>42890</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>245.33</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
-        <v>42575</v>
+        <v>42891</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>248.46</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
-        <v>42576</v>
+        <v>42892</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>264.47000000000003</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
-        <v>42577</v>
+        <v>42893</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>258.07</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
-        <v>42578</v>
+        <v>42894</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>261.67</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
-        <v>42579</v>
+        <v>42895</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>281.74</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
-        <v>42580</v>
+        <v>42896</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>337.67</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
-        <v>42581</v>
+        <v>42897</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>340.61</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
-        <v>42582</v>
+        <v>42898</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>401.49</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
-        <v>42583</v>
+        <v>42899</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>397.54</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
-        <v>42584</v>
+        <v>42900</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>359.05</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
-        <v>42585</v>
+        <v>42901</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>361.93</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
-        <v>42586</v>
+        <v>42902</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>370.23</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
-        <v>42587</v>
+        <v>42903</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>379.41</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
-        <v>42588</v>
+        <v>42904</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>371.46</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
-        <v>42589</v>
+        <v>42905</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>370.06</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
-        <v>42590</v>
+        <v>42906</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>359</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
-        <v>42591</v>
+        <v>42907</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>336.87</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
-        <v>42592</v>
+        <v>42908</v>
       </c>
       <c r="B687">
-        <v>1</v>
+        <v>336.37</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
-        <v>42593</v>
+        <v>42909</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>341.74</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
-        <v>42594</v>
+        <v>42910</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
-        <v>42595</v>
+        <v>42911</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>303.25</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A691" s="1">
-        <v>42596</v>
+        <v>42912</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>272.69</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
-        <v>42597</v>
+        <v>42913</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>293.08999999999997</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
-        <v>42598</v>
+        <v>42914</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>327.93</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
-        <v>42599</v>
+        <v>42915</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>302.88</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A695" s="1">
-        <v>42600</v>
+        <v>42916</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>294.92</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A696" s="1">
-        <v>42601</v>
+        <v>42917</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>274.60000000000002</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
-        <v>42602</v>
+        <v>42918</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>287.99</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
-        <v>42603</v>
+        <v>42919</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>282.89999999999998</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
-        <v>42604</v>
+        <v>42920</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>273.3</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
-        <v>42605</v>
+        <v>42921</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>268.77</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
-        <v>42606</v>
+        <v>42922</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>270.55</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
-        <v>42607</v>
+        <v>42923</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
-        <v>42608</v>
+        <v>42924</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>251.7</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
-        <v>42609</v>
+        <v>42925</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>242.14</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
-        <v>42610</v>
+        <v>42926</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>215.36</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
-        <v>42611</v>
+        <v>42927</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>197.4</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
-        <v>42612</v>
+        <v>42928</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>230.77</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
-        <v>42613</v>
+        <v>42929</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>209.73</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
-        <v>42614</v>
+        <v>42930</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>199.66</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A710" s="1">
-        <v>42615</v>
+        <v>42931</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>170.66</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A711" s="1">
-        <v>42616</v>
+        <v>42932</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>157.36000000000001</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A712" s="1">
-        <v>42617</v>
+        <v>42933</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>193.42</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A713" s="1">
-        <v>42618</v>
+        <v>42934</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>234.39</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A714" s="1">
-        <v>42619</v>
+        <v>42935</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>199.7</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A715" s="1">
-        <v>42620</v>
+        <v>42936</v>
       </c>
       <c r="B715">
-        <v>1</v>
+        <v>227.26</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A716" s="1">
-        <v>42621</v>
+        <v>42937</v>
       </c>
       <c r="B716">
-        <v>1</v>
+        <v>218.31</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A717" s="1">
-        <v>42622</v>
+        <v>42938</v>
       </c>
       <c r="B717">
-        <v>1</v>
+        <v>229.48</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A718" s="1">
-        <v>42623</v>
+        <v>42939</v>
       </c>
       <c r="B718">
-        <v>1</v>
+        <v>225.95</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A719" s="1">
-        <v>42624</v>
+        <v>42940</v>
       </c>
       <c r="B719">
-        <v>1</v>
+        <v>224.71</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A720" s="1">
-        <v>42625</v>
+        <v>42941</v>
       </c>
       <c r="B720">
-        <v>1</v>
+        <v>206.71</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A721" s="1">
-        <v>42626</v>
+        <v>42942</v>
       </c>
       <c r="B721">
-        <v>1</v>
+        <v>203.95</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A722" s="1">
-        <v>42627</v>
+        <v>42943</v>
       </c>
       <c r="B722">
-        <v>1</v>
+        <v>204.32</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A723" s="1">
-        <v>42628</v>
+        <v>42944</v>
       </c>
       <c r="B723">
-        <v>1</v>
+        <v>193.12</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A724" s="1">
-        <v>42629</v>
+        <v>42945</v>
       </c>
       <c r="B724">
-        <v>1</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A725" s="1">
-        <v>42630</v>
+        <v>42946</v>
       </c>
       <c r="B725">
-        <v>1</v>
+        <v>197.98</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A726" s="1">
-        <v>42631</v>
+        <v>42947</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A727" s="1">
-        <v>42632</v>
+        <v>42948</v>
       </c>
       <c r="B727">
-        <v>1</v>
+        <v>226.77</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A728" s="1">
-        <v>42633</v>
+        <v>42949</v>
       </c>
       <c r="B728">
-        <v>1</v>
+        <v>219.95</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A729" s="1">
-        <v>42634</v>
+        <v>42950</v>
       </c>
       <c r="B729">
-        <v>1</v>
+        <v>225.34</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A730" s="1">
-        <v>42635</v>
+        <v>42951</v>
       </c>
       <c r="B730">
-        <v>1</v>
+        <v>223.07</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A731" s="1">
-        <v>42636</v>
+        <v>42952</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>256.51</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A732" s="1">
-        <v>42637</v>
+        <v>42953</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>261.57</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A733" s="1">
-        <v>42638</v>
+        <v>42954</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>269.18</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A734" s="1">
-        <v>42639</v>
+        <v>42955</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>296.77</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A735" s="1">
-        <v>42640</v>
+        <v>42956</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>296.02999999999997</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A736" s="1">
-        <v>42641</v>
+        <v>42957</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>295.89</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A737" s="1">
-        <v>42642</v>
+        <v>42958</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>308.86</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A738" s="1">
-        <v>42643</v>
+        <v>42959</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>310.60000000000002</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A739" s="1">
-        <v>42644</v>
+        <v>42960</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>298.06</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A740" s="1">
-        <v>42645</v>
+        <v>42961</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>300.10000000000002</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A741" s="1">
-        <v>42646</v>
+        <v>42962</v>
       </c>
       <c r="B741">
-        <v>1</v>
+        <v>289.82</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A742" s="1">
-        <v>42647</v>
+        <v>42963</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>302.27</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A743" s="1">
-        <v>42648</v>
+        <v>42964</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>301.45999999999998</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A744" s="1">
-        <v>42649</v>
+        <v>42965</v>
       </c>
       <c r="B744">
-        <v>1</v>
+        <v>295.58999999999997</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A745" s="1">
-        <v>42650</v>
+        <v>42966</v>
       </c>
       <c r="B745">
-        <v>1</v>
+        <v>297.47000000000003</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A746" s="1">
-        <v>42651</v>
+        <v>42967</v>
       </c>
       <c r="B746">
-        <v>1</v>
+        <v>301.43</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A747" s="1">
-        <v>42652</v>
+        <v>42968</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>321.58999999999997</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A748" s="1">
-        <v>42653</v>
+        <v>42969</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>314.79000000000002</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A749" s="1">
-        <v>42654</v>
+        <v>42970</v>
       </c>
       <c r="B749">
-        <v>1</v>
+        <v>317.52</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A750" s="1">
-        <v>42655</v>
+        <v>42971</v>
       </c>
       <c r="B750">
-        <v>1</v>
+        <v>325.61</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A751" s="1">
-        <v>42656</v>
+        <v>42972</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>331.92</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A752" s="1">
-        <v>42657</v>
+        <v>42973</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>333.88</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A753" s="1">
-        <v>42658</v>
+        <v>42974</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>347.89</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A754" s="1">
-        <v>42659</v>
+        <v>42975</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>347.75</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A755" s="1">
-        <v>42660</v>
+        <v>42976</v>
       </c>
       <c r="B755">
-        <v>1</v>
+        <v>370.67</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A756" s="1">
-        <v>42661</v>
+        <v>42977</v>
       </c>
       <c r="B756">
-        <v>1</v>
+        <v>378.49</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A757" s="1">
-        <v>42662</v>
+        <v>42978</v>
       </c>
       <c r="B757">
-        <v>1</v>
+        <v>383.04</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A758" s="1">
-        <v>42663</v>
+        <v>42979</v>
       </c>
       <c r="B758">
-        <v>1</v>
+        <v>387.74</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A759" s="1">
-        <v>42664</v>
+        <v>42980</v>
       </c>
       <c r="B759">
-        <v>1</v>
+        <v>348.98</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A760" s="1">
-        <v>42665</v>
+        <v>42981</v>
       </c>
       <c r="B760">
-        <v>1</v>
+        <v>347.48</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A761" s="1">
-        <v>42666</v>
+        <v>42982</v>
       </c>
       <c r="B761">
-        <v>1</v>
+        <v>295.17</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A762" s="1">
-        <v>42667</v>
+        <v>42983</v>
       </c>
       <c r="B762">
-        <v>1</v>
+        <v>312.99</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A763" s="1">
-        <v>42668</v>
+        <v>42984</v>
       </c>
       <c r="B763">
-        <v>1</v>
+        <v>334.34</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A764" s="1">
-        <v>42669</v>
+        <v>42985</v>
       </c>
       <c r="B764">
-        <v>1</v>
+        <v>329.43</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A765" s="1">
-        <v>42670</v>
+        <v>42986</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A766" s="1">
-        <v>42671</v>
+        <v>42987</v>
       </c>
       <c r="B766">
-        <v>1</v>
+        <v>294.39999999999998</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A767" s="1">
-        <v>42672</v>
+        <v>42988</v>
       </c>
       <c r="B767">
-        <v>1</v>
+        <v>288.75</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A768" s="1">
-        <v>42673</v>
+        <v>42989</v>
       </c>
       <c r="B768">
-        <v>1</v>
+        <v>294.52999999999997</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A769" s="1">
-        <v>42674</v>
+        <v>42990</v>
       </c>
       <c r="B769">
-        <v>1</v>
+        <v>291.45999999999998</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A770" s="1">
-        <v>42675</v>
+        <v>42991</v>
       </c>
       <c r="B770">
-        <v>1</v>
+        <v>277.11</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A771" s="1">
-        <v>42676</v>
+        <v>42992</v>
       </c>
       <c r="B771">
-        <v>1</v>
+        <v>213.91</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A772" s="1">
-        <v>42677</v>
+        <v>42993</v>
       </c>
       <c r="B772">
-        <v>1</v>
+        <v>250.46</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A773" s="1">
-        <v>42678</v>
+        <v>42994</v>
       </c>
       <c r="B773">
-        <v>1</v>
+        <v>246.52</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A774" s="1">
-        <v>42679</v>
+        <v>42995</v>
       </c>
       <c r="B774">
-        <v>1</v>
+        <v>251.75</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A775" s="1">
-        <v>42680</v>
+        <v>42996</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A776" s="1">
-        <v>42681</v>
+        <v>42997</v>
       </c>
       <c r="B776">
-        <v>1</v>
+        <v>282.8</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A777" s="1">
-        <v>42682</v>
+        <v>42998</v>
       </c>
       <c r="B777">
-        <v>1</v>
+        <v>283.74</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A778" s="1">
-        <v>42683</v>
+        <v>42999</v>
       </c>
       <c r="B778">
-        <v>1</v>
+        <v>258.58</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A779" s="1">
-        <v>42684</v>
+        <v>43000</v>
       </c>
       <c r="B779">
-        <v>1</v>
+        <v>264.31</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A780" s="1">
-        <v>42685</v>
+        <v>43001</v>
       </c>
       <c r="B780">
-        <v>1</v>
+        <v>286.17</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A781" s="1">
-        <v>42686</v>
+        <v>43002</v>
       </c>
       <c r="B781">
-        <v>1</v>
+        <v>282.48</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A782" s="1">
-        <v>42687</v>
+        <v>43003</v>
       </c>
       <c r="B782">
-        <v>1</v>
+        <v>292.33</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A783" s="1">
-        <v>42688</v>
+        <v>43004</v>
       </c>
       <c r="B783">
-        <v>1</v>
+        <v>287.44</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A784" s="1">
-        <v>42689</v>
+        <v>43005</v>
       </c>
       <c r="B784">
-        <v>1</v>
+        <v>306.47000000000003</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A785" s="1">
-        <v>42690</v>
+        <v>43006</v>
       </c>
       <c r="B785">
-        <v>1</v>
+        <v>299.14999999999998</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A786" s="1">
-        <v>42691</v>
+        <v>43007</v>
       </c>
       <c r="B786">
-        <v>1</v>
+        <v>291.47000000000003</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A787" s="1">
-        <v>42692</v>
+        <v>43008</v>
       </c>
       <c r="B787">
-        <v>1</v>
+        <v>301.45999999999998</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A788" s="1">
-        <v>42693</v>
+        <v>43009</v>
       </c>
       <c r="B788">
-        <v>1</v>
+        <v>302.33999999999997</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A789" s="1">
-        <v>42694</v>
+        <v>43010</v>
       </c>
       <c r="B789">
-        <v>1</v>
+        <v>297.48</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A790" s="1">
-        <v>42695</v>
+        <v>43011</v>
       </c>
       <c r="B790">
-        <v>1</v>
+        <v>292.45999999999998</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A791" s="1">
-        <v>42696</v>
+        <v>43012</v>
       </c>
       <c r="B791">
-        <v>1</v>
+        <v>292.66000000000003</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A792" s="1">
-        <v>42697</v>
+        <v>43013</v>
       </c>
       <c r="B792">
-        <v>1</v>
+        <v>295.86</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A793" s="1">
-        <v>42698</v>
+        <v>43014</v>
       </c>
       <c r="B793">
-        <v>1</v>
+        <v>308.58999999999997</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A794" s="1">
-        <v>42699</v>
+        <v>43015</v>
       </c>
       <c r="B794">
-        <v>1</v>
+        <v>311.12</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A795" s="1">
-        <v>42700</v>
+        <v>43016</v>
       </c>
       <c r="B795">
-        <v>1</v>
+        <v>308.61</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A796" s="1">
-        <v>42701</v>
+        <v>43017</v>
       </c>
       <c r="B796">
-        <v>1</v>
+        <v>297.39</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A797" s="1">
-        <v>42702</v>
+        <v>43018</v>
       </c>
       <c r="B797">
-        <v>1</v>
+        <v>299.87</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A798" s="1">
-        <v>42703</v>
+        <v>43019</v>
       </c>
       <c r="B798">
-        <v>1</v>
+        <v>303.45999999999998</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A799" s="1">
-        <v>42704</v>
+        <v>43020</v>
       </c>
       <c r="B799">
-        <v>1</v>
+        <v>304.14</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A800" s="1">
-        <v>42705</v>
+        <v>43021</v>
       </c>
       <c r="B800">
-        <v>1</v>
+        <v>338.76</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A801" s="1">
-        <v>42706</v>
+        <v>43022</v>
       </c>
       <c r="B801">
-        <v>1</v>
+        <v>339.63</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A802" s="1">
-        <v>42707</v>
+        <v>43023</v>
       </c>
       <c r="B802">
-        <v>1</v>
+        <v>336.6</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A803" s="1">
-        <v>42708</v>
+        <v>43024</v>
       </c>
       <c r="B803">
-        <v>1</v>
+        <v>333.38</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A804" s="1">
-        <v>42709</v>
+        <v>43025</v>
       </c>
       <c r="B804">
-        <v>1</v>
+        <v>317.08</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A805" s="1">
-        <v>42710</v>
+        <v>43026</v>
       </c>
       <c r="B805">
-        <v>1</v>
+        <v>314.32</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A806" s="1">
-        <v>42711</v>
+        <v>43027</v>
       </c>
       <c r="B806">
-        <v>1</v>
+        <v>308.08999999999997</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A807" s="1">
-        <v>42712</v>
+        <v>43028</v>
       </c>
       <c r="B807">
-        <v>1</v>
+        <v>304.01</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A808" s="1">
-        <v>42713</v>
+        <v>43029</v>
       </c>
       <c r="B808">
-        <v>1</v>
+        <v>300.19</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A809" s="1">
-        <v>42714</v>
+        <v>43030</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>295.45</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A810" s="1">
-        <v>42715</v>
+        <v>43031</v>
       </c>
       <c r="B810">
-        <v>1</v>
+        <v>286.95</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A811" s="1">
-        <v>42716</v>
+        <v>43032</v>
       </c>
       <c r="B811">
-        <v>1</v>
+        <v>298.33</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A812" s="1">
-        <v>42717</v>
+        <v>43033</v>
       </c>
       <c r="B812">
-        <v>1</v>
+        <v>297.93</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A813" s="1">
-        <v>42718</v>
+        <v>43034</v>
       </c>
       <c r="B813">
-        <v>1</v>
+        <v>296.52999999999997</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A814" s="1">
-        <v>42719</v>
+        <v>43035</v>
       </c>
       <c r="B814">
-        <v>1</v>
+        <v>297.42</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A815" s="1">
-        <v>42720</v>
+        <v>43036</v>
       </c>
       <c r="B815">
-        <v>1</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A816" s="1">
-        <v>42721</v>
+        <v>43037</v>
       </c>
       <c r="B816">
-        <v>1</v>
+        <v>305.08999999999997</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A817" s="1">
-        <v>42722</v>
+        <v>43038</v>
       </c>
       <c r="B817">
-        <v>1</v>
+        <v>307.75</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A818" s="1">
-        <v>42723</v>
+        <v>43039</v>
       </c>
       <c r="B818">
-        <v>1</v>
+        <v>305.88</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A819" s="1">
-        <v>42724</v>
+        <v>43040</v>
       </c>
       <c r="B819">
-        <v>1</v>
+        <v>291.69</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A820" s="1">
-        <v>42725</v>
+        <v>43041</v>
       </c>
       <c r="B820">
-        <v>1</v>
+        <v>287.43</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A821" s="1">
-        <v>42726</v>
+        <v>43042</v>
       </c>
       <c r="B821">
-        <v>1</v>
+        <v>305.70999999999998</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A822" s="1">
-        <v>42727</v>
+        <v>43043</v>
       </c>
       <c r="B822">
-        <v>1</v>
+        <v>300.47000000000003</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A823" s="1">
-        <v>42728</v>
+        <v>43044</v>
       </c>
       <c r="B823">
-        <v>1</v>
+        <v>296.26</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A824" s="1">
-        <v>42729</v>
+        <v>43045</v>
       </c>
       <c r="B824">
-        <v>1</v>
+        <v>298.89</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A825" s="1">
-        <v>42730</v>
+        <v>43046</v>
       </c>
       <c r="B825">
-        <v>1</v>
+        <v>294.66000000000003</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A826" s="1">
-        <v>42731</v>
+        <v>43047</v>
       </c>
       <c r="B826">
-        <v>1</v>
+        <v>309.07</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A827" s="1">
-        <v>42732</v>
+        <v>43048</v>
       </c>
       <c r="B827">
-        <v>1</v>
+        <v>320.88</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A828" s="1">
-        <v>42733</v>
+        <v>43049</v>
       </c>
       <c r="B828">
-        <v>1</v>
+        <v>299.25</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A829" s="1">
-        <v>42734</v>
+        <v>43050</v>
       </c>
       <c r="B829">
-        <v>1</v>
+        <v>314.68</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A830" s="1">
-        <v>42735</v>
+        <v>43051</v>
       </c>
       <c r="B830">
-        <v>1</v>
+        <v>307.91000000000003</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A831" s="1">
-        <v>42736</v>
+        <v>43052</v>
       </c>
       <c r="B831">
-        <v>1</v>
+        <v>316.72000000000003</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A832" s="1">
-        <v>42737</v>
+        <v>43053</v>
       </c>
       <c r="B832">
-        <v>1</v>
+        <v>337.63</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A833" s="1">
-        <v>42738</v>
+        <v>43054</v>
       </c>
       <c r="B833">
-        <v>1</v>
+        <v>333.36</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A834" s="1">
-        <v>42739</v>
+        <v>43055</v>
       </c>
       <c r="B834">
-        <v>1</v>
+        <v>330.92</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A835" s="1">
-        <v>42740</v>
+        <v>43056</v>
       </c>
       <c r="B835">
-        <v>1</v>
+        <v>332.39</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A836" s="1">
-        <v>42741</v>
+        <v>43057</v>
       </c>
       <c r="B836">
-        <v>1</v>
+        <v>347.61</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A837" s="1">
-        <v>42742</v>
+        <v>43058</v>
       </c>
       <c r="B837">
-        <v>1</v>
+        <v>354.39</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A838" s="1">
-        <v>42743</v>
+        <v>43059</v>
       </c>
       <c r="B838">
-        <v>1</v>
+        <v>366.73</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A839" s="1">
-        <v>42744</v>
+        <v>43060</v>
       </c>
       <c r="B839">
-        <v>1</v>
+        <v>360.4</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A840" s="1">
-        <v>42745</v>
+        <v>43061</v>
       </c>
       <c r="B840">
-        <v>1</v>
+        <v>380.65</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A841" s="1">
-        <v>42746</v>
+        <v>43062</v>
       </c>
       <c r="B841">
-        <v>1</v>
+        <v>410.17</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A842" s="1">
-        <v>42747</v>
+        <v>43063</v>
       </c>
       <c r="B842">
-        <v>1</v>
+        <v>474.91</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A843" s="1">
-        <v>42748</v>
+        <v>43064</v>
       </c>
       <c r="B843">
-        <v>1</v>
+        <v>466.28</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A844" s="1">
-        <v>42749</v>
+        <v>43065</v>
       </c>
       <c r="B844">
-        <v>1</v>
+        <v>471.33</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A845" s="1">
-        <v>42750</v>
+        <v>43066</v>
       </c>
       <c r="B845">
-        <v>1</v>
+        <v>480.36</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A846" s="1">
-        <v>42751</v>
+        <v>43067</v>
       </c>
       <c r="B846">
-        <v>1</v>
+        <v>472.9</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A847" s="1">
-        <v>42752</v>
+        <v>43068</v>
       </c>
       <c r="B847">
-        <v>1</v>
+        <v>427.52</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A848" s="1">
-        <v>42753</v>
+        <v>43069</v>
       </c>
       <c r="B848">
-        <v>1</v>
+        <v>447.11</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A849" s="1">
-        <v>42754</v>
+        <v>43070</v>
       </c>
       <c r="B849">
-        <v>1</v>
+        <v>466.54</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A850" s="1">
-        <v>42755</v>
+        <v>43071</v>
       </c>
       <c r="B850">
-        <v>1</v>
+        <v>463.45</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A851" s="1">
-        <v>42756</v>
+        <v>43072</v>
       </c>
       <c r="B851">
-        <v>1</v>
+        <v>465.85</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A852" s="1">
-        <v>42757</v>
+        <v>43073</v>
       </c>
       <c r="B852">
-        <v>1</v>
+        <v>470.2</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A853" s="1">
-        <v>42758</v>
+        <v>43074</v>
       </c>
       <c r="B853">
-        <v>1</v>
+        <v>463.28</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A854" s="1">
-        <v>42759</v>
+        <v>43075</v>
       </c>
       <c r="B854">
-        <v>1</v>
+        <v>428.59</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A855" s="1">
-        <v>42760</v>
+        <v>43076</v>
       </c>
       <c r="B855">
-        <v>1</v>
+        <v>434.41</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A856" s="1">
-        <v>42761</v>
+        <v>43077</v>
       </c>
       <c r="B856">
-        <v>1</v>
+        <v>456.03</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A857" s="1">
-        <v>42762</v>
+        <v>43078</v>
       </c>
       <c r="B857">
-        <v>1</v>
+        <v>473.5</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A858" s="1">
-        <v>42763</v>
+        <v>43079</v>
       </c>
       <c r="B858">
-        <v>1</v>
+        <v>441.72</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A859" s="1">
-        <v>42764</v>
-      </c>
-      <c r="B859">
-        <v>1</v>
-      </c>
+      <c r="A859" s="1"/>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A860" s="1">
-        <v>42765</v>
-      </c>
-      <c r="B860">
-        <v>1</v>
-      </c>
+      <c r="A860" s="1"/>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A861" s="1">
-        <v>42766</v>
-      </c>
-      <c r="B861">
-        <v>1</v>
-      </c>
+      <c r="A861" s="1"/>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A862" s="1">
-        <v>42767</v>
-      </c>
-      <c r="B862">
-        <v>1</v>
-      </c>
+      <c r="A862" s="1"/>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A863" s="1">
-        <v>42768</v>
-      </c>
-      <c r="B863">
-        <v>1</v>
-      </c>
+      <c r="A863" s="1"/>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A864" s="1">
-        <v>42769</v>
-      </c>
-      <c r="B864">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A865" s="1">
-        <v>42770</v>
-      </c>
-      <c r="B865">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A866" s="1">
-        <v>42771</v>
-      </c>
-      <c r="B866">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A867" s="1">
-        <v>42772</v>
-      </c>
-      <c r="B867">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A868" s="1">
-        <v>42773</v>
-      </c>
-      <c r="B868">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A869" s="1">
-        <v>42774</v>
-      </c>
-      <c r="B869">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A870" s="1">
-        <v>42775</v>
-      </c>
-      <c r="B870">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A871" s="1">
-        <v>42776</v>
-      </c>
-      <c r="B871">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A872" s="1">
-        <v>42777</v>
-      </c>
-      <c r="B872">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A873" s="1">
-        <v>42778</v>
-      </c>
-      <c r="B873">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A874" s="1">
-        <v>42779</v>
-      </c>
-      <c r="B874">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A875" s="1">
-        <v>42780</v>
-      </c>
-      <c r="B875">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A876" s="1">
-        <v>42781</v>
-      </c>
-      <c r="B876">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A877" s="1">
-        <v>42782</v>
-      </c>
-      <c r="B877">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A878" s="1">
-        <v>42783</v>
-      </c>
-      <c r="B878">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A879" s="1">
-        <v>42784</v>
-      </c>
-      <c r="B879">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A880" s="1">
-        <v>42785</v>
-      </c>
-      <c r="B880">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A881" s="1">
-        <v>42786</v>
-      </c>
-      <c r="B881">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A882" s="1">
-        <v>42787</v>
-      </c>
-      <c r="B882">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A883" s="1">
-        <v>42788</v>
-      </c>
-      <c r="B883">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A884" s="1">
-        <v>42789</v>
-      </c>
-      <c r="B884">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A885" s="1">
-        <v>42790</v>
-      </c>
-      <c r="B885">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A886" s="1">
-        <v>42791</v>
-      </c>
-      <c r="B886">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A887" s="1">
-        <v>42792</v>
-      </c>
-      <c r="B887">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A888" s="1">
-        <v>42793</v>
-      </c>
-      <c r="B888">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A889" s="1">
-        <v>42794</v>
-      </c>
-      <c r="B889">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A890" s="1">
-        <v>42795</v>
-      </c>
-      <c r="B890">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A891" s="1">
-        <v>42796</v>
-      </c>
-      <c r="B891">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A892" s="1">
-        <v>42797</v>
-      </c>
-      <c r="B892">
-        <v>1</v>
-      </c>
+      <c r="A864" s="1"/>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A865" s="1"/>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A866" s="1"/>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A867" s="1"/>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A868" s="1"/>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A869" s="1"/>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A870" s="1"/>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A871" s="1"/>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A872" s="1"/>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A873" s="1"/>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A874" s="1"/>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A875" s="1"/>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A876" s="1"/>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A877" s="1"/>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A878" s="1"/>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A879" s="1"/>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A880" s="1"/>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A881" s="1"/>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A882" s="1"/>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A883" s="1"/>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A884" s="1"/>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A885" s="1"/>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A886" s="1"/>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A887" s="1"/>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A888" s="1"/>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A889" s="1"/>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A890" s="1"/>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A891" s="1"/>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A892" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/All-Web.xlsx
+++ b/All-Web.xlsx
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B892"/>
+  <dimension ref="A1:B891"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A851" zoomScale="208" workbookViewId="0">
+      <selection activeCell="C856" sqref="C856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -373,55 +373,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>43080</v>
+        <v>42224</v>
       </c>
       <c r="B2">
-        <v>515.14</v>
+        <v>0.75332500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>42224</v>
+        <v>42225</v>
       </c>
       <c r="B3">
-        <v>0.75332500000000002</v>
+        <v>0.70189699999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>42225</v>
+        <v>42226</v>
       </c>
       <c r="B4">
-        <v>0.70189699999999999</v>
+        <v>0.70844799999999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>42226</v>
+        <v>42227</v>
       </c>
       <c r="B5">
-        <v>0.70844799999999997</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>42227</v>
+        <v>42228</v>
       </c>
       <c r="B6">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>42228</v>
+        <v>42229</v>
       </c>
       <c r="B7">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>42229</v>
+        <v>42230</v>
       </c>
       <c r="B8">
         <v>1.83</v>
@@ -429,3175 +429,3175 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>42230</v>
+        <v>42231</v>
       </c>
       <c r="B9">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>42231</v>
+        <v>42232</v>
       </c>
       <c r="B10">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>42232</v>
+        <v>42233</v>
       </c>
       <c r="B11">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>42233</v>
+        <v>42234</v>
       </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>42234</v>
+        <v>42235</v>
       </c>
       <c r="B13">
-        <v>1.0900000000000001</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>42235</v>
+        <v>42236</v>
       </c>
       <c r="B14">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>42236</v>
+        <v>42237</v>
       </c>
       <c r="B15">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>42237</v>
+        <v>42238</v>
       </c>
       <c r="B16">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>42238</v>
+        <v>42239</v>
       </c>
       <c r="B17">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>42239</v>
+        <v>42240</v>
       </c>
       <c r="B18">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>42240</v>
+        <v>42241</v>
       </c>
       <c r="B19">
-        <v>1.23</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>42241</v>
+        <v>42242</v>
       </c>
       <c r="B20">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="B21">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>42243</v>
+        <v>42244</v>
       </c>
       <c r="B22">
-        <v>1.1499999999999999</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>42244</v>
+        <v>42245</v>
       </c>
       <c r="B23">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>42245</v>
+        <v>42246</v>
       </c>
       <c r="B24">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>42246</v>
+        <v>42247</v>
       </c>
       <c r="B25">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>42247</v>
+        <v>42248</v>
       </c>
       <c r="B26">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>42248</v>
+        <v>42249</v>
       </c>
       <c r="B27">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="B28">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="B29">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>42251</v>
+        <v>42252</v>
       </c>
       <c r="B30">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>42252</v>
+        <v>42253</v>
       </c>
       <c r="B31">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>42253</v>
+        <v>42254</v>
       </c>
       <c r="B32">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="B33">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>42255</v>
+        <v>42256</v>
       </c>
       <c r="B34">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="B35">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>42257</v>
+        <v>42258</v>
       </c>
       <c r="B36">
-        <v>1.17</v>
+        <v>0.98297800000000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>42258</v>
+        <v>42259</v>
       </c>
       <c r="B37">
-        <v>0.98297800000000002</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>42259</v>
+        <v>42260</v>
       </c>
       <c r="B38">
-        <v>1.04</v>
+        <v>0.93600300000000003</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>42260</v>
+        <v>42261</v>
       </c>
       <c r="B39">
-        <v>0.93600300000000003</v>
+        <v>0.87562200000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>42261</v>
+        <v>42262</v>
       </c>
       <c r="B40">
-        <v>0.87562200000000001</v>
+        <v>0.94440999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="B41">
-        <v>0.94440999999999997</v>
+        <v>0.90717499999999995</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="B42">
-        <v>0.90717499999999995</v>
+        <v>0.87423099999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="B43">
-        <v>0.87423099999999998</v>
+        <v>0.85368500000000003</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>42265</v>
+        <v>42266</v>
       </c>
       <c r="B44">
-        <v>0.85368500000000003</v>
+        <v>0.88239100000000004</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>42266</v>
+        <v>42267</v>
       </c>
       <c r="B45">
-        <v>0.88239100000000004</v>
+        <v>0.93844499999999997</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>42267</v>
+        <v>42268</v>
       </c>
       <c r="B46">
-        <v>0.93844499999999997</v>
+        <v>0.91904699999999995</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>42268</v>
+        <v>42269</v>
       </c>
       <c r="B47">
-        <v>0.91904699999999995</v>
+        <v>0.90179600000000004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>42269</v>
+        <v>42270</v>
       </c>
       <c r="B48">
-        <v>0.90179600000000004</v>
+        <v>0.89340600000000003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="B49">
-        <v>0.89340600000000003</v>
+        <v>0.81361000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>42271</v>
+        <v>42272</v>
       </c>
       <c r="B50">
-        <v>0.81361000000000006</v>
+        <v>0.73622299999999996</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>42272</v>
+        <v>42273</v>
       </c>
       <c r="B51">
-        <v>0.73622299999999996</v>
+        <v>0.785964</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>42273</v>
+        <v>42274</v>
       </c>
       <c r="B52">
-        <v>0.785964</v>
+        <v>0.72083900000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>42274</v>
+        <v>42275</v>
       </c>
       <c r="B53">
-        <v>0.72083900000000001</v>
+        <v>0.58288600000000002</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>42275</v>
+        <v>42276</v>
       </c>
       <c r="B54">
-        <v>0.58288600000000002</v>
+        <v>0.66114600000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>42276</v>
+        <v>42277</v>
       </c>
       <c r="B55">
-        <v>0.66114600000000001</v>
+        <v>0.73864399999999997</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="B56">
-        <v>0.73864399999999997</v>
+        <v>0.69021500000000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>42278</v>
+        <v>42279</v>
       </c>
       <c r="B57">
-        <v>0.69021500000000002</v>
+        <v>0.67857400000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>42279</v>
+        <v>42280</v>
       </c>
       <c r="B58">
-        <v>0.67857400000000001</v>
+        <v>0.68717099999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>42280</v>
+        <v>42281</v>
       </c>
       <c r="B59">
-        <v>0.68717099999999998</v>
+        <v>0.66837899999999995</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>42281</v>
+        <v>42282</v>
       </c>
       <c r="B60">
-        <v>0.66837899999999995</v>
+        <v>0.62864299999999995</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>42282</v>
+        <v>42283</v>
       </c>
       <c r="B61">
-        <v>0.62864299999999995</v>
+        <v>0.65064500000000003</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>42283</v>
+        <v>42284</v>
       </c>
       <c r="B62">
-        <v>0.65064500000000003</v>
+        <v>0.60938800000000004</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>42284</v>
+        <v>42285</v>
       </c>
       <c r="B63">
-        <v>0.60938800000000004</v>
+        <v>0.62171600000000005</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>42285</v>
+        <v>42286</v>
       </c>
       <c r="B64">
-        <v>0.62171600000000005</v>
+        <v>0.65062799999999998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>42286</v>
+        <v>42287</v>
       </c>
       <c r="B65">
-        <v>0.65062799999999998</v>
+        <v>0.627857</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>42287</v>
+        <v>42288</v>
       </c>
       <c r="B66">
-        <v>0.627857</v>
+        <v>0.63496300000000006</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>42288</v>
+        <v>42289</v>
       </c>
       <c r="B67">
-        <v>0.63496300000000006</v>
+        <v>0.62602999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>42289</v>
+        <v>42290</v>
       </c>
       <c r="B68">
-        <v>0.62602999999999998</v>
+        <v>0.60765499999999995</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>42290</v>
+        <v>42291</v>
       </c>
       <c r="B69">
-        <v>0.60765499999999995</v>
+        <v>0.52296799999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>42291</v>
+        <v>42292</v>
       </c>
       <c r="B70">
-        <v>0.52296799999999999</v>
+        <v>0.56187799999999999</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>42292</v>
+        <v>42293</v>
       </c>
       <c r="B71">
-        <v>0.56187799999999999</v>
+        <v>0.53649500000000006</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>42293</v>
+        <v>42294</v>
       </c>
       <c r="B72">
-        <v>0.53649500000000006</v>
+        <v>0.54717800000000005</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>42294</v>
+        <v>42295</v>
       </c>
       <c r="B73">
-        <v>0.54717800000000005</v>
+        <v>0.51773400000000003</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>42295</v>
+        <v>42296</v>
       </c>
       <c r="B74">
-        <v>0.51773400000000003</v>
+        <v>0.489014</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>42296</v>
+        <v>42297</v>
       </c>
       <c r="B75">
-        <v>0.489014</v>
+        <v>0.43482900000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>42297</v>
+        <v>42298</v>
       </c>
       <c r="B76">
-        <v>0.43482900000000002</v>
+        <v>0.44732899999999998</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>42298</v>
+        <v>42299</v>
       </c>
       <c r="B77">
-        <v>0.44732899999999998</v>
+        <v>0.56770200000000004</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>42299</v>
+        <v>42300</v>
       </c>
       <c r="B78">
-        <v>0.56770200000000004</v>
+        <v>0.53965700000000005</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>42300</v>
+        <v>42301</v>
       </c>
       <c r="B79">
-        <v>0.53965700000000005</v>
+        <v>0.56359000000000004</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>42301</v>
+        <v>42302</v>
       </c>
       <c r="B80">
-        <v>0.56359000000000004</v>
+        <v>0.616039</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
-        <v>42302</v>
+        <v>42303</v>
       </c>
       <c r="B81">
-        <v>0.616039</v>
+        <v>0.73131699999999999</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="B82">
-        <v>0.73131699999999999</v>
+        <v>0.869641</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="B83">
-        <v>0.869641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>42305</v>
+        <v>42306</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>42306</v>
+        <v>42307</v>
       </c>
       <c r="B85">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>42307</v>
+        <v>42308</v>
       </c>
       <c r="B86">
-        <v>1.04</v>
+        <v>0.91662699999999997</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>42308</v>
+        <v>42309</v>
       </c>
       <c r="B87">
-        <v>0.91662699999999997</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>42309</v>
+        <v>42310</v>
       </c>
       <c r="B88">
-        <v>1.06</v>
+        <v>0.98978900000000003</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>42310</v>
+        <v>42311</v>
       </c>
       <c r="B89">
-        <v>0.98978900000000003</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>42311</v>
+        <v>42312</v>
       </c>
       <c r="B90">
-        <v>1.01</v>
+        <v>0.89905000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
-        <v>42312</v>
+        <v>42313</v>
       </c>
       <c r="B91">
-        <v>0.89905000000000002</v>
+        <v>0.89563700000000002</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>42313</v>
+        <v>42314</v>
       </c>
       <c r="B92">
-        <v>0.89563700000000002</v>
+        <v>0.92603199999999997</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
-        <v>42314</v>
+        <v>42315</v>
       </c>
       <c r="B93">
-        <v>0.92603199999999997</v>
+        <v>0.92797399999999997</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>42315</v>
+        <v>42316</v>
       </c>
       <c r="B94">
-        <v>0.92797399999999997</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
-        <v>42316</v>
+        <v>42317</v>
       </c>
       <c r="B95">
-        <v>1.03</v>
+        <v>0.999278</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>42317</v>
+        <v>42318</v>
       </c>
       <c r="B96">
-        <v>0.999278</v>
+        <v>0.93434799999999996</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="B97">
-        <v>0.93434799999999996</v>
+        <v>0.79182900000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>42319</v>
+        <v>42320</v>
       </c>
       <c r="B98">
-        <v>0.79182900000000001</v>
+        <v>0.89571100000000003</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>42320</v>
+        <v>42321</v>
       </c>
       <c r="B99">
-        <v>0.89571100000000003</v>
+        <v>0.90409600000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>42321</v>
+        <v>42322</v>
       </c>
       <c r="B100">
-        <v>0.90409600000000001</v>
+        <v>0.88881200000000005</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>42322</v>
+        <v>42323</v>
       </c>
       <c r="B101">
-        <v>0.88881200000000005</v>
+        <v>0.90636799999999995</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
-        <v>42323</v>
+        <v>42324</v>
       </c>
       <c r="B102">
-        <v>0.90636799999999995</v>
+        <v>0.92896199999999995</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
-        <v>42324</v>
+        <v>42325</v>
       </c>
       <c r="B103">
-        <v>0.92896199999999995</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
-        <v>42325</v>
+        <v>42326</v>
       </c>
       <c r="B104">
-        <v>1.01</v>
+        <v>0.99331899999999995</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
-        <v>42326</v>
+        <v>42327</v>
       </c>
       <c r="B105">
-        <v>0.99331899999999995</v>
+        <v>0.95553200000000005</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
-        <v>42327</v>
+        <v>42328</v>
       </c>
       <c r="B106">
-        <v>0.95553200000000005</v>
+        <v>0.92491999999999996</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
-        <v>42328</v>
+        <v>42329</v>
       </c>
       <c r="B107">
-        <v>0.92491999999999996</v>
+        <v>0.97614000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
-        <v>42329</v>
+        <v>42330</v>
       </c>
       <c r="B108">
-        <v>0.97614000000000001</v>
+        <v>0.96801800000000005</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
-        <v>42330</v>
+        <v>42331</v>
       </c>
       <c r="B109">
-        <v>0.96801800000000005</v>
+        <v>0.94696899999999995</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
-        <v>42331</v>
+        <v>42332</v>
       </c>
       <c r="B110">
-        <v>0.94696899999999995</v>
+        <v>0.90019099999999996</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
-        <v>42332</v>
+        <v>42333</v>
       </c>
       <c r="B111">
-        <v>0.90019099999999996</v>
+        <v>0.863537</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
-        <v>42333</v>
+        <v>42334</v>
       </c>
       <c r="B112">
-        <v>0.863537</v>
+        <v>0.88418300000000005</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
-        <v>42334</v>
+        <v>42335</v>
       </c>
       <c r="B113">
-        <v>0.88418300000000005</v>
+        <v>0.86795100000000003</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
-        <v>42335</v>
+        <v>42336</v>
       </c>
       <c r="B114">
-        <v>0.86795100000000003</v>
+        <v>0.91570300000000004</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
-        <v>42336</v>
+        <v>42337</v>
       </c>
       <c r="B115">
-        <v>0.91570300000000004</v>
+        <v>0.87861400000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
-        <v>42337</v>
+        <v>42338</v>
       </c>
       <c r="B116">
-        <v>0.87861400000000001</v>
+        <v>0.87311899999999998</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
-        <v>42338</v>
+        <v>42339</v>
       </c>
       <c r="B117">
-        <v>0.87311899999999998</v>
+        <v>0.87480000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
-        <v>42339</v>
+        <v>42340</v>
       </c>
       <c r="B118">
-        <v>0.87480000000000002</v>
+        <v>0.82121</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="B119">
-        <v>0.82121</v>
+        <v>0.81214299999999995</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
-        <v>42341</v>
+        <v>42342</v>
       </c>
       <c r="B120">
-        <v>0.81214299999999995</v>
+        <v>0.84004100000000004</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
-        <v>42342</v>
+        <v>42343</v>
       </c>
       <c r="B121">
-        <v>0.84004100000000004</v>
+        <v>0.86243800000000004</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
-        <v>42343</v>
+        <v>42344</v>
       </c>
       <c r="B122">
-        <v>0.86243800000000004</v>
+        <v>0.83550000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
-        <v>42344</v>
+        <v>42345</v>
       </c>
       <c r="B123">
-        <v>0.83550000000000002</v>
+        <v>0.81126399999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="B124">
-        <v>0.81126399999999999</v>
+        <v>0.82211800000000002</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
-        <v>42346</v>
+        <v>42347</v>
       </c>
       <c r="B125">
-        <v>0.82211800000000002</v>
+        <v>0.79216699999999995</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
-        <v>42347</v>
+        <v>42348</v>
       </c>
       <c r="B126">
-        <v>0.79216699999999995</v>
+        <v>0.84039600000000003</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
-        <v>42348</v>
+        <v>42349</v>
       </c>
       <c r="B127">
-        <v>0.84039600000000003</v>
+        <v>0.92976199999999998</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
-        <v>42349</v>
+        <v>42350</v>
       </c>
       <c r="B128">
-        <v>0.92976199999999998</v>
+        <v>0.97697299999999998</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
-        <v>42350</v>
+        <v>42351</v>
       </c>
       <c r="B129">
-        <v>0.97697299999999998</v>
+        <v>0.95288399999999995</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
-        <v>42351</v>
+        <v>42352</v>
       </c>
       <c r="B130">
-        <v>0.95288399999999995</v>
+        <v>0.99302199999999996</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
-        <v>42352</v>
+        <v>42353</v>
       </c>
       <c r="B131">
-        <v>0.99302199999999996</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="B132">
-        <v>1.01</v>
+        <v>0.99118200000000001</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="B133">
-        <v>0.99118200000000001</v>
+        <v>0.94070100000000001</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="B134">
-        <v>0.94070100000000001</v>
+        <v>0.92012700000000003</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
-        <v>42356</v>
+        <v>42357</v>
       </c>
       <c r="B135">
-        <v>0.92012700000000003</v>
+        <v>0.90807199999999999</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
-        <v>42357</v>
+        <v>42358</v>
       </c>
       <c r="B136">
-        <v>0.90807199999999999</v>
+        <v>0.90388500000000005</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
-        <v>42358</v>
+        <v>42359</v>
       </c>
       <c r="B137">
-        <v>0.90388500000000005</v>
+        <v>0.90077099999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
-        <v>42359</v>
+        <v>42360</v>
       </c>
       <c r="B138">
-        <v>0.90077099999999999</v>
+        <v>0.86420200000000003</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
-        <v>42360</v>
+        <v>42361</v>
       </c>
       <c r="B139">
-        <v>0.86420200000000003</v>
+        <v>0.85807699999999998</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
-        <v>42361</v>
+        <v>42362</v>
       </c>
       <c r="B140">
-        <v>0.85807699999999998</v>
+        <v>0.86326199999999997</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
-        <v>42362</v>
+        <v>42363</v>
       </c>
       <c r="B141">
-        <v>0.86326199999999997</v>
+        <v>0.870363</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
-        <v>42363</v>
+        <v>42364</v>
       </c>
       <c r="B142">
-        <v>0.870363</v>
+        <v>0.854603</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
-        <v>42364</v>
+        <v>42365</v>
       </c>
       <c r="B143">
-        <v>0.854603</v>
+        <v>0.85636500000000004</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
-        <v>42365</v>
+        <v>42366</v>
       </c>
       <c r="B144">
-        <v>0.85636500000000004</v>
+        <v>0.84500500000000001</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
-        <v>42366</v>
+        <v>42367</v>
       </c>
       <c r="B145">
-        <v>0.84500500000000001</v>
+        <v>0.873054</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
-        <v>42367</v>
+        <v>42368</v>
       </c>
       <c r="B146">
-        <v>0.873054</v>
+        <v>0.91195800000000005</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="B147">
-        <v>0.91195800000000005</v>
+        <v>0.93354199999999998</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
-        <v>42369</v>
+        <v>42370</v>
       </c>
       <c r="B148">
-        <v>0.93354199999999998</v>
+        <v>0.94802399999999998</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
-        <v>42370</v>
+        <v>42371</v>
       </c>
       <c r="B149">
-        <v>0.94802399999999998</v>
+        <v>0.93712399999999996</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
-        <v>42371</v>
+        <v>42372</v>
       </c>
       <c r="B150">
-        <v>0.93712399999999996</v>
+        <v>0.97190500000000002</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
-        <v>42372</v>
+        <v>42373</v>
       </c>
       <c r="B151">
-        <v>0.97190500000000002</v>
+        <v>0.95448</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="B152">
-        <v>0.95448</v>
+        <v>0.95017600000000002</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
-        <v>42374</v>
+        <v>42375</v>
       </c>
       <c r="B153">
-        <v>0.95017600000000002</v>
+        <v>0.95086000000000004</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
-        <v>42375</v>
+        <v>42376</v>
       </c>
       <c r="B154">
-        <v>0.95086000000000004</v>
+        <v>0.94200499999999998</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
-        <v>42376</v>
+        <v>42377</v>
       </c>
       <c r="B155">
-        <v>0.94200499999999998</v>
+        <v>0.98678900000000003</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
-        <v>42377</v>
+        <v>42378</v>
       </c>
       <c r="B156">
-        <v>0.98678900000000003</v>
+        <v>0.98683299999999996</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
-        <v>42378</v>
+        <v>42379</v>
       </c>
       <c r="B157">
-        <v>0.98683299999999996</v>
+        <v>0.99923099999999998</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
-        <v>42379</v>
+        <v>42380</v>
       </c>
       <c r="B158">
-        <v>0.99923099999999998</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
-        <v>42380</v>
+        <v>42381</v>
       </c>
       <c r="B159">
-        <v>1.06</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
-        <v>42381</v>
+        <v>42382</v>
       </c>
       <c r="B160">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
-        <v>42382</v>
+        <v>42383</v>
       </c>
       <c r="B161">
-        <v>1.1299999999999999</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
-        <v>42383</v>
+        <v>42384</v>
       </c>
       <c r="B162">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
-        <v>42384</v>
+        <v>42385</v>
       </c>
       <c r="B163">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
-        <v>42385</v>
+        <v>42386</v>
       </c>
       <c r="B164">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
-        <v>42386</v>
+        <v>42387</v>
       </c>
       <c r="B165">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
-        <v>42387</v>
+        <v>42388</v>
       </c>
       <c r="B166">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
-        <v>42388</v>
+        <v>42389</v>
       </c>
       <c r="B167">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
-        <v>42389</v>
+        <v>42390</v>
       </c>
       <c r="B168">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
-        <v>42390</v>
+        <v>42391</v>
       </c>
       <c r="B169">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
-        <v>42391</v>
+        <v>42392</v>
       </c>
       <c r="B170">
-        <v>1.5</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
-        <v>42392</v>
+        <v>42393</v>
       </c>
       <c r="B171">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
-        <v>42393</v>
+        <v>42394</v>
       </c>
       <c r="B172">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
-        <v>42394</v>
+        <v>42395</v>
       </c>
       <c r="B173">
-        <v>2.5</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
-        <v>42395</v>
+        <v>42396</v>
       </c>
       <c r="B174">
-        <v>2.2799999999999998</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
-        <v>42396</v>
+        <v>42397</v>
       </c>
       <c r="B175">
-        <v>2.39</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
-        <v>42397</v>
+        <v>42398</v>
       </c>
       <c r="B176">
-        <v>2.5299999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
-        <v>42398</v>
+        <v>42399</v>
       </c>
       <c r="B177">
-        <v>2.4900000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
-        <v>42399</v>
+        <v>42400</v>
       </c>
       <c r="B178">
-        <v>2.4500000000000002</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
-        <v>42400</v>
+        <v>42401</v>
       </c>
       <c r="B179">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
-        <v>42401</v>
+        <v>42402</v>
       </c>
       <c r="B180">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
-        <v>42402</v>
+        <v>42403</v>
       </c>
       <c r="B181">
-        <v>2.44</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
-        <v>42403</v>
+        <v>42404</v>
       </c>
       <c r="B182">
-        <v>2.5299999999999998</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
-        <v>42404</v>
+        <v>42405</v>
       </c>
       <c r="B183">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
-        <v>42405</v>
+        <v>42406</v>
       </c>
       <c r="B184">
-        <v>2.54</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
-        <v>42406</v>
+        <v>42407</v>
       </c>
       <c r="B185">
-        <v>2.5299999999999998</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
-        <v>42407</v>
+        <v>42408</v>
       </c>
       <c r="B186">
-        <v>2.96</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
-        <v>42408</v>
+        <v>42409</v>
       </c>
       <c r="B187">
-        <v>3.18</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
-        <v>42409</v>
+        <v>42410</v>
       </c>
       <c r="B188">
-        <v>4.04</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
-        <v>42410</v>
+        <v>42411</v>
       </c>
       <c r="B189">
-        <v>4.4400000000000004</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
-        <v>42411</v>
+        <v>42412</v>
       </c>
       <c r="B190">
-        <v>6.01</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
-        <v>42412</v>
+        <v>42413</v>
       </c>
       <c r="B191">
-        <v>5.55</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
-        <v>42413</v>
+        <v>42414</v>
       </c>
       <c r="B192">
-        <v>5.39</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
-        <v>42414</v>
+        <v>42415</v>
       </c>
       <c r="B193">
-        <v>5.24</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
-        <v>42415</v>
+        <v>42416</v>
       </c>
       <c r="B194">
-        <v>5.29</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
-        <v>42416</v>
+        <v>42417</v>
       </c>
       <c r="B195">
-        <v>4.32</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
-        <v>42417</v>
+        <v>42418</v>
       </c>
       <c r="B196">
-        <v>3.76</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
-        <v>42418</v>
+        <v>42419</v>
       </c>
       <c r="B197">
-        <v>4.4000000000000004</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
-        <v>42419</v>
+        <v>42420</v>
       </c>
       <c r="B198">
-        <v>4.74</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
-        <v>42420</v>
+        <v>42421</v>
       </c>
       <c r="B199">
-        <v>4.34</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
-        <v>42421</v>
+        <v>42422</v>
       </c>
       <c r="B200">
-        <v>4.6500000000000004</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
-        <v>42422</v>
+        <v>42423</v>
       </c>
       <c r="B201">
-        <v>5.62</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
-        <v>42423</v>
+        <v>42424</v>
       </c>
       <c r="B202">
-        <v>5.59</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
-        <v>42424</v>
+        <v>42425</v>
       </c>
       <c r="B203">
-        <v>6.24</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
-        <v>42425</v>
+        <v>42426</v>
       </c>
       <c r="B204">
-        <v>6.1</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
-        <v>42426</v>
+        <v>42427</v>
       </c>
       <c r="B205">
-        <v>5.92</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
-        <v>42427</v>
+        <v>42428</v>
       </c>
       <c r="B206">
-        <v>6.43</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
-        <v>42428</v>
+        <v>42429</v>
       </c>
       <c r="B207">
-        <v>6.47</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
-        <v>42429</v>
+        <v>42430</v>
       </c>
       <c r="B208">
-        <v>6.34</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
-        <v>42430</v>
+        <v>42431</v>
       </c>
       <c r="B209">
-        <v>7.65</v>
+        <v>8.4700000000000006</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
-        <v>42431</v>
+        <v>42432</v>
       </c>
       <c r="B210">
-        <v>8.4700000000000006</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
-        <v>42432</v>
+        <v>42433</v>
       </c>
       <c r="B211">
-        <v>9.2899999999999991</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
-        <v>42433</v>
+        <v>42434</v>
       </c>
       <c r="B212">
-        <v>10.41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
-        <v>42434</v>
+        <v>42435</v>
       </c>
       <c r="B213">
-        <v>11</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
-        <v>42435</v>
+        <v>42436</v>
       </c>
       <c r="B214">
-        <v>11.38</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="B215">
-        <v>9.5500000000000007</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
-        <v>42437</v>
+        <v>42438</v>
       </c>
       <c r="B216">
-        <v>9.85</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
-        <v>42438</v>
+        <v>42439</v>
       </c>
       <c r="B217">
-        <v>11.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
-        <v>42439</v>
+        <v>42440</v>
       </c>
       <c r="B218">
-        <v>11.3</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
-        <v>42440</v>
+        <v>42441</v>
       </c>
       <c r="B219">
-        <v>11.08</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
-        <v>42441</v>
+        <v>42442</v>
       </c>
       <c r="B220">
-        <v>13.53</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
-        <v>42442</v>
+        <v>42443</v>
       </c>
       <c r="B221">
-        <v>14.47</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
-        <v>42443</v>
+        <v>42444</v>
       </c>
       <c r="B222">
-        <v>12.45</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
-        <v>42444</v>
+        <v>42445</v>
       </c>
       <c r="B223">
-        <v>13.01</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
-        <v>42445</v>
+        <v>42446</v>
       </c>
       <c r="B224">
-        <v>12.52</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
-        <v>42446</v>
+        <v>42447</v>
       </c>
       <c r="B225">
-        <v>11.08</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
-        <v>42447</v>
+        <v>42448</v>
       </c>
       <c r="B226">
-        <v>11</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
-        <v>42448</v>
+        <v>42449</v>
       </c>
       <c r="B227">
-        <v>10.53</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
-        <v>42449</v>
+        <v>42450</v>
       </c>
       <c r="B228">
-        <v>10.32</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
-        <v>42450</v>
+        <v>42451</v>
       </c>
       <c r="B229">
-        <v>11.86</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
-        <v>42451</v>
+        <v>42452</v>
       </c>
       <c r="B230">
-        <v>11.27</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="B231">
-        <v>12.42</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
-        <v>42453</v>
+        <v>42454</v>
       </c>
       <c r="B232">
-        <v>11.23</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
-        <v>42454</v>
+        <v>42455</v>
       </c>
       <c r="B233">
-        <v>10.74</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
-        <v>42455</v>
+        <v>42456</v>
       </c>
       <c r="B234">
-        <v>10.97</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
-        <v>42456</v>
+        <v>42457</v>
       </c>
       <c r="B235">
-        <v>10.42</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
-        <v>42457</v>
+        <v>42458</v>
       </c>
       <c r="B236">
-        <v>11.67</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
-        <v>42458</v>
+        <v>42459</v>
       </c>
       <c r="B237">
-        <v>11.66</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
-        <v>42459</v>
+        <v>42460</v>
       </c>
       <c r="B238">
-        <v>11.95</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
-        <v>42460</v>
+        <v>42461</v>
       </c>
       <c r="B239">
-        <v>11.4</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
-        <v>42461</v>
+        <v>42462</v>
       </c>
       <c r="B240">
-        <v>11.66</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
-        <v>42462</v>
+        <v>42463</v>
       </c>
       <c r="B241">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
-        <v>42463</v>
+        <v>42464</v>
       </c>
       <c r="B242">
-        <v>11.62</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
-        <v>42464</v>
+        <v>42465</v>
       </c>
       <c r="B243">
-        <v>11.16</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
-        <v>42465</v>
+        <v>42466</v>
       </c>
       <c r="B244">
-        <v>10.44</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
-        <v>42466</v>
+        <v>42467</v>
       </c>
       <c r="B245">
-        <v>10.69</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="B246">
-        <v>10.07</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
-        <v>42468</v>
+        <v>42469</v>
       </c>
       <c r="B247">
-        <v>9.7200000000000006</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
-        <v>42469</v>
+        <v>42470</v>
       </c>
       <c r="B248">
-        <v>9.15</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
-        <v>42470</v>
+        <v>42471</v>
       </c>
       <c r="B249">
-        <v>8.94</v>
+        <v>8.64</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="B250">
-        <v>8.64</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
-        <v>42472</v>
+        <v>42473</v>
       </c>
       <c r="B251">
-        <v>7.44</v>
+        <v>8.0399999999999991</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
-        <v>42473</v>
+        <v>42474</v>
       </c>
       <c r="B252">
-        <v>8.0399999999999991</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="B253">
-        <v>8.39</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
-        <v>42475</v>
+        <v>42476</v>
       </c>
       <c r="B254">
-        <v>8.24</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
-        <v>42476</v>
+        <v>42477</v>
       </c>
       <c r="B255">
-        <v>8.61</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
-        <v>42477</v>
+        <v>42478</v>
       </c>
       <c r="B256">
-        <v>9.31</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
-        <v>42478</v>
+        <v>42479</v>
       </c>
       <c r="B257">
-        <v>9.0399999999999991</v>
+        <v>8.7100000000000009</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
-        <v>42479</v>
+        <v>42480</v>
       </c>
       <c r="B258">
-        <v>8.7100000000000009</v>
+        <v>8.4700000000000006</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
-        <v>42480</v>
+        <v>42481</v>
       </c>
       <c r="B259">
-        <v>8.4700000000000006</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
-        <v>42481</v>
+        <v>42482</v>
       </c>
       <c r="B260">
-        <v>8.1</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
-        <v>42482</v>
+        <v>42483</v>
       </c>
       <c r="B261">
-        <v>7.82</v>
+        <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
-        <v>42483</v>
+        <v>42484</v>
       </c>
       <c r="B262">
-        <v>8.2899999999999991</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
-        <v>42484</v>
+        <v>42485</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
-        <v>42485</v>
+        <v>42486</v>
       </c>
       <c r="B264">
-        <v>7.55</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
-        <v>42486</v>
+        <v>42487</v>
       </c>
       <c r="B265">
-        <v>7.4</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
-        <v>42487</v>
+        <v>42488</v>
       </c>
       <c r="B266">
-        <v>7.76</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
-        <v>42488</v>
+        <v>42489</v>
       </c>
       <c r="B267">
-        <v>7.17</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
-        <v>42489</v>
+        <v>42490</v>
       </c>
       <c r="B268">
-        <v>7.46</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
-        <v>42490</v>
+        <v>42491</v>
       </c>
       <c r="B269">
-        <v>8.81</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
-        <v>42491</v>
+        <v>42492</v>
       </c>
       <c r="B270">
-        <v>8.85</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
-        <v>42492</v>
+        <v>42493</v>
       </c>
       <c r="B271">
-        <v>10.16</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
-        <v>42493</v>
+        <v>42494</v>
       </c>
       <c r="B272">
-        <v>9.31</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B273">
-        <v>9.41</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="B274">
-        <v>9.83</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
-        <v>42496</v>
+        <v>42497</v>
       </c>
       <c r="B275">
-        <v>9.35</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
-        <v>42497</v>
+        <v>42498</v>
       </c>
       <c r="B276">
-        <v>9.3699999999999992</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
-        <v>42498</v>
+        <v>42499</v>
       </c>
       <c r="B277">
-        <v>9.48</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
-        <v>42499</v>
+        <v>42500</v>
       </c>
       <c r="B278">
-        <v>9.3000000000000007</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
-        <v>42500</v>
+        <v>42501</v>
       </c>
       <c r="B279">
-        <v>9.36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
-        <v>42501</v>
+        <v>42502</v>
       </c>
       <c r="B280">
-        <v>10</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="B281">
-        <v>10.06</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
-        <v>42503</v>
+        <v>42504</v>
       </c>
       <c r="B282">
-        <v>10.51</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
-        <v>42504</v>
+        <v>42505</v>
       </c>
       <c r="B283">
-        <v>10.24</v>
+        <v>9.9600000000000009</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
-        <v>42505</v>
+        <v>42506</v>
       </c>
       <c r="B284">
-        <v>9.9600000000000009</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
-        <v>42506</v>
+        <v>42507</v>
       </c>
       <c r="B285">
-        <v>11.17</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
-        <v>42507</v>
+        <v>42508</v>
       </c>
       <c r="B286">
-        <v>12.2</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
-        <v>42508</v>
+        <v>42509</v>
       </c>
       <c r="B287">
-        <v>13.56</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
-        <v>42509</v>
+        <v>42510</v>
       </c>
       <c r="B288">
-        <v>14.77</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
-        <v>42510</v>
+        <v>42511</v>
       </c>
       <c r="B289">
-        <v>13.64</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
-        <v>42511</v>
+        <v>42512</v>
       </c>
       <c r="B290">
-        <v>14.02</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
-        <v>42512</v>
+        <v>42513</v>
       </c>
       <c r="B291">
-        <v>14.29</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
-        <v>42513</v>
+        <v>42514</v>
       </c>
       <c r="B292">
-        <v>13.46</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
-        <v>42514</v>
+        <v>42515</v>
       </c>
       <c r="B293">
-        <v>12.73</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
-        <v>42515</v>
+        <v>42516</v>
       </c>
       <c r="B294">
-        <v>12.53</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
-        <v>42516</v>
+        <v>42517</v>
       </c>
       <c r="B295">
-        <v>12.43</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
-        <v>42517</v>
+        <v>42518</v>
       </c>
       <c r="B296">
-        <v>11.3</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
-        <v>42518</v>
+        <v>42519</v>
       </c>
       <c r="B297">
-        <v>11.89</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
-        <v>42519</v>
+        <v>42520</v>
       </c>
       <c r="B298">
-        <v>12.35</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
-        <v>42520</v>
+        <v>42521</v>
       </c>
       <c r="B299">
-        <v>12.73</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
-        <v>42521</v>
+        <v>42522</v>
       </c>
       <c r="B300">
-        <v>14.08</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
-        <v>42522</v>
+        <v>42523</v>
       </c>
       <c r="B301">
-        <v>14</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
-        <v>42523</v>
+        <v>42524</v>
       </c>
       <c r="B302">
-        <v>13.74</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
-        <v>42524</v>
+        <v>42525</v>
       </c>
       <c r="B303">
-        <v>13.85</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
-        <v>42525</v>
+        <v>42526</v>
       </c>
       <c r="B304">
-        <v>13.74</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
-        <v>42526</v>
+        <v>42527</v>
       </c>
       <c r="B305">
-        <v>13.97</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
-        <v>42527</v>
+        <v>42528</v>
       </c>
       <c r="B306">
-        <v>13.93</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
-        <v>42528</v>
+        <v>42529</v>
       </c>
       <c r="B307">
-        <v>14.51</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
-        <v>42529</v>
+        <v>42530</v>
       </c>
       <c r="B308">
-        <v>14.42</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
-        <v>42530</v>
+        <v>42531</v>
       </c>
       <c r="B309">
-        <v>14.4</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
-        <v>42531</v>
+        <v>42532</v>
       </c>
       <c r="B310">
-        <v>13.91</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
-        <v>42532</v>
+        <v>42533</v>
       </c>
       <c r="B311">
-        <v>14.19</v>
+        <v>15.74</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
-        <v>42533</v>
+        <v>42534</v>
       </c>
       <c r="B312">
-        <v>15.74</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
-        <v>42534</v>
+        <v>42535</v>
       </c>
       <c r="B313">
-        <v>17.600000000000001</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
-        <v>42535</v>
+        <v>42536</v>
       </c>
       <c r="B314">
-        <v>18.89</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
-        <v>42536</v>
+        <v>42537</v>
       </c>
       <c r="B315">
-        <v>18.350000000000001</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
-        <v>42537</v>
+        <v>42538</v>
       </c>
       <c r="B316">
-        <v>20.59</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
-        <v>42538</v>
+        <v>42539</v>
       </c>
       <c r="B317">
-        <v>15.38</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
-        <v>42539</v>
+        <v>42540</v>
       </c>
       <c r="B318">
-        <v>11.33</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
-        <v>42540</v>
+        <v>42541</v>
       </c>
       <c r="B319">
-        <v>12.23</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="B320">
-        <v>11.84</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
-        <v>42542</v>
+        <v>42543</v>
       </c>
       <c r="B321">
-        <v>13.31</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
-        <v>42543</v>
+        <v>42544</v>
       </c>
       <c r="B322">
-        <v>13.1</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
-        <v>42544</v>
+        <v>42545</v>
       </c>
       <c r="B323">
-        <v>13.68</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
-        <v>42545</v>
+        <v>42546</v>
       </c>
       <c r="B324">
-        <v>14.33</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
-        <v>42546</v>
+        <v>42547</v>
       </c>
       <c r="B325">
-        <v>14.28</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
-        <v>42547</v>
+        <v>42548</v>
       </c>
       <c r="B326">
-        <v>13.85</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
-        <v>42548</v>
+        <v>42549</v>
       </c>
       <c r="B327">
-        <v>13.88</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
-        <v>42549</v>
+        <v>42550</v>
       </c>
       <c r="B328">
-        <v>12.18</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
-        <v>42550</v>
+        <v>42551</v>
       </c>
       <c r="B329">
-        <v>12.61</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
-        <v>42551</v>
+        <v>42552</v>
       </c>
       <c r="B330">
-        <v>12.46</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
-        <v>42552</v>
+        <v>42553</v>
       </c>
       <c r="B331">
-        <v>12.2</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
-        <v>42553</v>
+        <v>42554</v>
       </c>
       <c r="B332">
-        <v>12.13</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
-        <v>42554</v>
+        <v>42555</v>
       </c>
       <c r="B333">
-        <v>11.72</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
-        <v>42555</v>
+        <v>42556</v>
       </c>
       <c r="B334">
-        <v>11.47</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
-        <v>42556</v>
+        <v>42557</v>
       </c>
       <c r="B335">
-        <v>10.61</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
-        <v>42557</v>
+        <v>42558</v>
       </c>
       <c r="B336">
-        <v>10.53</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
-        <v>42558</v>
+        <v>42559</v>
       </c>
       <c r="B337">
-        <v>10.11</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
-        <v>42559</v>
+        <v>42560</v>
       </c>
       <c r="B338">
-        <v>11.39</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
-        <v>42560</v>
+        <v>42561</v>
       </c>
       <c r="B339">
-        <v>10.97</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
-        <v>42561</v>
+        <v>42562</v>
       </c>
       <c r="B340">
-        <v>10.95</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="B341">
-        <v>10.46</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
-        <v>42563</v>
+        <v>42564</v>
       </c>
       <c r="B342">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
-        <v>42564</v>
+        <v>42565</v>
       </c>
       <c r="B343">
-        <v>10.5</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
-        <v>42565</v>
+        <v>42566</v>
       </c>
       <c r="B344">
-        <v>11.51</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
-        <v>42566</v>
+        <v>42567</v>
       </c>
       <c r="B345">
-        <v>11.95</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
-        <v>42567</v>
+        <v>42568</v>
       </c>
       <c r="B346">
-        <v>11.65</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
-        <v>42568</v>
+        <v>42569</v>
       </c>
       <c r="B347">
-        <v>11.16</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
-        <v>42569</v>
+        <v>42570</v>
       </c>
       <c r="B348">
-        <v>11.03</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="B349">
-        <v>11.62</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
-        <v>42571</v>
+        <v>42572</v>
       </c>
       <c r="B350">
-        <v>12.45</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
-        <v>42572</v>
+        <v>42573</v>
       </c>
       <c r="B351">
-        <v>12.65</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
-        <v>42573</v>
+        <v>42574</v>
       </c>
       <c r="B352">
-        <v>14.66</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
-        <v>42574</v>
+        <v>42575</v>
       </c>
       <c r="B353">
-        <v>14.3</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
-        <v>42575</v>
+        <v>42576</v>
       </c>
       <c r="B354">
-        <v>12.75</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
-        <v>42576</v>
+        <v>42577</v>
       </c>
       <c r="B355">
-        <v>13.84</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
-        <v>42577</v>
+        <v>42578</v>
       </c>
       <c r="B356">
-        <v>11.99</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
-        <v>42578</v>
+        <v>42579</v>
       </c>
       <c r="B357">
-        <v>12.97</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
-        <v>42579</v>
+        <v>42580</v>
       </c>
       <c r="B358">
-        <v>12.84</v>
+        <v>12.79</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
-        <v>42580</v>
+        <v>42581</v>
       </c>
       <c r="B359">
-        <v>12.79</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
-        <v>42581</v>
+        <v>42582</v>
       </c>
       <c r="B360">
-        <v>12.46</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
-        <v>42582</v>
+        <v>42583</v>
       </c>
       <c r="B361">
-        <v>11.88</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
-        <v>42583</v>
+        <v>42584</v>
       </c>
       <c r="B362">
-        <v>10.94</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
-        <v>42584</v>
+        <v>42585</v>
       </c>
       <c r="B363">
-        <v>8.7899999999999991</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
-        <v>42585</v>
+        <v>42586</v>
       </c>
       <c r="B364">
-        <v>10.29</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
-        <v>42586</v>
+        <v>42587</v>
       </c>
       <c r="B365">
-        <v>11.04</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
-        <v>42587</v>
+        <v>42588</v>
       </c>
       <c r="B366">
-        <v>10.93</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
-        <v>42588</v>
+        <v>42589</v>
       </c>
       <c r="B367">
-        <v>10.88</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
-        <v>42589</v>
+        <v>42590</v>
       </c>
       <c r="B368">
-        <v>10.91</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
-        <v>42590</v>
+        <v>42591</v>
       </c>
       <c r="B369">
-        <v>11.25</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="B370">
-        <v>12.24</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="B371">
-        <v>12.14</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
-        <v>42593</v>
+        <v>42594</v>
       </c>
       <c r="B372">
-        <v>11.69</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
-        <v>42594</v>
+        <v>42595</v>
       </c>
       <c r="B373">
-        <v>11.78</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
-        <v>42595</v>
+        <v>42596</v>
       </c>
       <c r="B374">
-        <v>11.57</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
-        <v>42596</v>
+        <v>42597</v>
       </c>
       <c r="B375">
-        <v>11.19</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
-        <v>42597</v>
+        <v>42598</v>
       </c>
       <c r="B376">
-        <v>11.22</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
-        <v>42598</v>
+        <v>42599</v>
       </c>
       <c r="B377">
-        <v>11.14</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="B378">
-        <v>10.75</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
-        <v>42600</v>
+        <v>42601</v>
       </c>
       <c r="B379">
-        <v>10.76</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
-        <v>42601</v>
+        <v>42602</v>
       </c>
       <c r="B380">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
-        <v>42602</v>
+        <v>42603</v>
       </c>
       <c r="B381">
-        <v>11.25</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
-        <v>42603</v>
+        <v>42604</v>
       </c>
       <c r="B382">
-        <v>11.18</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="B383">
-        <v>11.12</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
-        <v>42605</v>
+        <v>42606</v>
       </c>
       <c r="B384">
-        <v>11.03</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
-        <v>42606</v>
+        <v>42607</v>
       </c>
       <c r="B385">
-        <v>11.04</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
-        <v>42607</v>
+        <v>42608</v>
       </c>
       <c r="B386">
-        <v>11.36</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
-        <v>42608</v>
+        <v>42609</v>
       </c>
       <c r="B387">
-        <v>11.3</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
-        <v>42609</v>
+        <v>42610</v>
       </c>
       <c r="B388">
-        <v>11.15</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
-        <v>42610</v>
+        <v>42611</v>
       </c>
       <c r="B389">
-        <v>10.93</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
-        <v>42611</v>
+        <v>42612</v>
       </c>
       <c r="B390">
-        <v>10.98</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
-        <v>42612</v>
+        <v>42613</v>
       </c>
       <c r="B391">
-        <v>11.23</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="B392">
-        <v>11.67</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
-        <v>42614</v>
+        <v>42615</v>
       </c>
       <c r="B393">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
-        <v>42615</v>
+        <v>42616</v>
       </c>
       <c r="B394">
-        <v>12.11</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
-        <v>42616</v>
+        <v>42617</v>
       </c>
       <c r="B395">
-        <v>11.76</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
-        <v>42617</v>
+        <v>42618</v>
       </c>
       <c r="B396">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
-        <v>42618</v>
+        <v>42619</v>
       </c>
       <c r="B397">
-        <v>11.72</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
-        <v>42619</v>
+        <v>42620</v>
       </c>
       <c r="B398">
-        <v>11.69</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="B399">
-        <v>11.55</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="B400">
-        <v>11.35</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
-        <v>42622</v>
+        <v>42623</v>
       </c>
       <c r="B401">
-        <v>11.65</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
-        <v>42623</v>
+        <v>42624</v>
       </c>
       <c r="B402">
-        <v>12.17</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
-        <v>42624</v>
+        <v>42625</v>
       </c>
       <c r="B403">
-        <v>11.64</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
-        <v>42625</v>
+        <v>42626</v>
       </c>
       <c r="B404">
-        <v>11.89</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
-        <v>42626</v>
+        <v>42627</v>
       </c>
       <c r="B405">
         <v>11.92</v>
@@ -3605,911 +3605,911 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="B406">
-        <v>11.92</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
-        <v>42628</v>
+        <v>42629</v>
       </c>
       <c r="B407">
-        <v>11.94</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
-        <v>42629</v>
+        <v>42630</v>
       </c>
       <c r="B408">
-        <v>12.56</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
-        <v>42630</v>
+        <v>42631</v>
       </c>
       <c r="B409">
-        <v>12.7</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
-        <v>42631</v>
+        <v>42632</v>
       </c>
       <c r="B410">
-        <v>12.43</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
-        <v>42632</v>
+        <v>42633</v>
       </c>
       <c r="B411">
-        <v>13.19</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
-        <v>42633</v>
+        <v>42634</v>
       </c>
       <c r="B412">
-        <v>14.43</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
-        <v>42634</v>
+        <v>42635</v>
       </c>
       <c r="B413">
-        <v>13.77</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
-        <v>42635</v>
+        <v>42636</v>
       </c>
       <c r="B414">
-        <v>13.25</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
-        <v>42636</v>
+        <v>42637</v>
       </c>
       <c r="B415">
-        <v>13.33</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
-        <v>42637</v>
+        <v>42638</v>
       </c>
       <c r="B416">
-        <v>12.88</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
-        <v>42638</v>
+        <v>42639</v>
       </c>
       <c r="B417">
-        <v>13.1</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
-        <v>42639</v>
+        <v>42640</v>
       </c>
       <c r="B418">
-        <v>12.82</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
-        <v>42640</v>
+        <v>42641</v>
       </c>
       <c r="B419">
-        <v>13.1</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
-        <v>42641</v>
+        <v>42642</v>
       </c>
       <c r="B420">
-        <v>13.27</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
-        <v>42642</v>
+        <v>42643</v>
       </c>
       <c r="B421">
-        <v>13.07</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
-        <v>42643</v>
+        <v>42644</v>
       </c>
       <c r="B422">
-        <v>13.22</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
-        <v>42644</v>
+        <v>42645</v>
       </c>
       <c r="B423">
-        <v>13.17</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
-        <v>42645</v>
+        <v>42646</v>
       </c>
       <c r="B424">
-        <v>13.2</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
-        <v>42646</v>
+        <v>42647</v>
       </c>
       <c r="B425">
-        <v>13.45</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
-        <v>42647</v>
+        <v>42648</v>
       </c>
       <c r="B426">
-        <v>13.28</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
-        <v>42648</v>
+        <v>42649</v>
       </c>
       <c r="B427">
-        <v>13.04</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
-        <v>42649</v>
+        <v>42650</v>
       </c>
       <c r="B428">
-        <v>12.85</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
-        <v>42650</v>
+        <v>42651</v>
       </c>
       <c r="B429">
-        <v>12.67</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
-        <v>42651</v>
+        <v>42652</v>
       </c>
       <c r="B430">
-        <v>12.22</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
-        <v>42652</v>
+        <v>42653</v>
       </c>
       <c r="B431">
-        <v>12.05</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
-        <v>42653</v>
+        <v>42654</v>
       </c>
       <c r="B432">
-        <v>11.76</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
-        <v>42654</v>
+        <v>42655</v>
       </c>
       <c r="B433">
-        <v>11.79</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
-        <v>42655</v>
+        <v>42656</v>
       </c>
       <c r="B434">
-        <v>11.93</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
-        <v>42656</v>
+        <v>42657</v>
       </c>
       <c r="B435">
-        <v>11.96</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
-        <v>42657</v>
+        <v>42658</v>
       </c>
       <c r="B436">
-        <v>11.94</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
-        <v>42658</v>
+        <v>42659</v>
       </c>
       <c r="B437">
-        <v>11.98</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
-        <v>42659</v>
+        <v>42660</v>
       </c>
       <c r="B438">
-        <v>11.95</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
-        <v>42660</v>
+        <v>42661</v>
       </c>
       <c r="B439">
-        <v>12.01</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
-        <v>42661</v>
+        <v>42662</v>
       </c>
       <c r="B440">
-        <v>12.59</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
-        <v>42662</v>
+        <v>42663</v>
       </c>
       <c r="B441">
-        <v>12.02</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
-        <v>42663</v>
+        <v>42664</v>
       </c>
       <c r="B442">
-        <v>12.1</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
-        <v>42664</v>
+        <v>42665</v>
       </c>
       <c r="B443">
-        <v>12.18</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
-        <v>42665</v>
+        <v>42666</v>
       </c>
       <c r="B444">
-        <v>12.07</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
-        <v>42666</v>
+        <v>42667</v>
       </c>
       <c r="B445">
-        <v>12.04</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
-        <v>42667</v>
+        <v>42668</v>
       </c>
       <c r="B446">
-        <v>11.97</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
-        <v>42668</v>
+        <v>42669</v>
       </c>
       <c r="B447">
-        <v>11.41</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
-        <v>42669</v>
+        <v>42670</v>
       </c>
       <c r="B448">
-        <v>11.53</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
-        <v>42670</v>
+        <v>42671</v>
       </c>
       <c r="B449">
-        <v>11.5</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
-        <v>42671</v>
+        <v>42672</v>
       </c>
       <c r="B450">
-        <v>11.09</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
-        <v>42672</v>
+        <v>42673</v>
       </c>
       <c r="B451">
-        <v>10.44</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
-        <v>42673</v>
+        <v>42674</v>
       </c>
       <c r="B452">
-        <v>11.18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
-        <v>42674</v>
+        <v>42675</v>
       </c>
       <c r="B453">
-        <v>11</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
-        <v>42675</v>
+        <v>42676</v>
       </c>
       <c r="B454">
-        <v>10.77</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
-        <v>42676</v>
+        <v>42677</v>
       </c>
       <c r="B455">
-        <v>10.75</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
-        <v>42677</v>
+        <v>42678</v>
       </c>
       <c r="B456">
-        <v>10.8</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
-        <v>42678</v>
+        <v>42679</v>
       </c>
       <c r="B457">
-        <v>11.09</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
-        <v>42679</v>
+        <v>42680</v>
       </c>
       <c r="B458">
-        <v>11</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
-        <v>42680</v>
+        <v>42681</v>
       </c>
       <c r="B459">
-        <v>10.87</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="B460">
-        <v>10.81</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
-        <v>42682</v>
+        <v>42683</v>
       </c>
       <c r="B461">
-        <v>10.83</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
-        <v>42683</v>
+        <v>42684</v>
       </c>
       <c r="B462">
-        <v>10.66</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
-        <v>42684</v>
+        <v>42685</v>
       </c>
       <c r="B463">
-        <v>10.52</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
-        <v>42685</v>
+        <v>42686</v>
       </c>
       <c r="B464">
-        <v>10.29</v>
+        <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
-        <v>42686</v>
+        <v>42687</v>
       </c>
       <c r="B465">
-        <v>9.8800000000000008</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
-        <v>42687</v>
+        <v>42688</v>
       </c>
       <c r="B466">
-        <v>10.1</v>
+        <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
-        <v>42688</v>
+        <v>42689</v>
       </c>
       <c r="B467">
-        <v>9.9700000000000006</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
-        <v>42689</v>
+        <v>42690</v>
       </c>
       <c r="B468">
-        <v>10.220000000000001</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
-        <v>42690</v>
+        <v>42691</v>
       </c>
       <c r="B469">
-        <v>10.06</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
-        <v>42691</v>
+        <v>42692</v>
       </c>
       <c r="B470">
-        <v>9.99</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
-        <v>42692</v>
+        <v>42693</v>
       </c>
       <c r="B471">
-        <v>9.48</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
-        <v>42693</v>
+        <v>42694</v>
       </c>
       <c r="B472">
-        <v>9.66</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
-        <v>42694</v>
+        <v>42695</v>
       </c>
       <c r="B473">
-        <v>9.58</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="B474">
-        <v>9.6199999999999992</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
-        <v>42696</v>
+        <v>42697</v>
       </c>
       <c r="B475">
-        <v>9.91</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
-        <v>42697</v>
+        <v>42698</v>
       </c>
       <c r="B476">
-        <v>9.84</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
-        <v>42698</v>
+        <v>42699</v>
       </c>
       <c r="B477">
-        <v>9.23</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
-        <v>42699</v>
+        <v>42700</v>
       </c>
       <c r="B478">
-        <v>9.4</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
-        <v>42700</v>
+        <v>42701</v>
       </c>
       <c r="B479">
-        <v>9.33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
-        <v>42701</v>
+        <v>42702</v>
       </c>
       <c r="B480">
-        <v>9</v>
+        <v>8.7200000000000006</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
-        <v>42702</v>
+        <v>42703</v>
       </c>
       <c r="B481">
-        <v>8.7200000000000006</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
-        <v>42703</v>
+        <v>42704</v>
       </c>
       <c r="B482">
-        <v>8.17</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="B483">
-        <v>8.59</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="B484">
-        <v>8.4499999999999993</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
-        <v>42706</v>
+        <v>42707</v>
       </c>
       <c r="B485">
-        <v>7.76</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
-        <v>42707</v>
+        <v>42708</v>
       </c>
       <c r="B486">
-        <v>7.92</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
-        <v>42708</v>
+        <v>42709</v>
       </c>
       <c r="B487">
-        <v>7.44</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="B488">
-        <v>6.82</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
-        <v>42710</v>
+        <v>42711</v>
       </c>
       <c r="B489">
-        <v>7.87</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
-        <v>42711</v>
+        <v>42712</v>
       </c>
       <c r="B490">
-        <v>8.3800000000000008</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
-        <v>42712</v>
+        <v>42713</v>
       </c>
       <c r="B491">
-        <v>8.23</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
-        <v>42713</v>
+        <v>42714</v>
       </c>
       <c r="B492">
-        <v>8.4499999999999993</v>
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
-        <v>42714</v>
+        <v>42715</v>
       </c>
       <c r="B493">
-        <v>8.1300000000000008</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
-        <v>42715</v>
+        <v>42716</v>
       </c>
       <c r="B494">
-        <v>8.19</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
-        <v>42716</v>
+        <v>42717</v>
       </c>
       <c r="B495">
-        <v>8.52</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
-        <v>42717</v>
+        <v>42718</v>
       </c>
       <c r="B496">
-        <v>8.42</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
-        <v>42718</v>
+        <v>42719</v>
       </c>
       <c r="B497">
-        <v>8.27</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
-        <v>42719</v>
+        <v>42720</v>
       </c>
       <c r="B498">
-        <v>7.83</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
-        <v>42720</v>
+        <v>42721</v>
       </c>
       <c r="B499">
-        <v>7.86</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
-        <v>42721</v>
+        <v>42722</v>
       </c>
       <c r="B500">
-        <v>7.88</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
-        <v>42722</v>
+        <v>42723</v>
       </c>
       <c r="B501">
-        <v>7.87</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
-        <v>42723</v>
+        <v>42724</v>
       </c>
       <c r="B502">
-        <v>7.64</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="B503">
-        <v>7.66</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
-        <v>42725</v>
+        <v>42726</v>
       </c>
       <c r="B504">
-        <v>7.91</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
-        <v>42726</v>
+        <v>42727</v>
       </c>
       <c r="B505">
-        <v>7.58</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
-        <v>42727</v>
+        <v>42728</v>
       </c>
       <c r="B506">
-        <v>7.17</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
-        <v>42728</v>
+        <v>42729</v>
       </c>
       <c r="B507">
-        <v>7.27</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
-        <v>42729</v>
+        <v>42730</v>
       </c>
       <c r="B508">
-        <v>7.18</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
-        <v>42730</v>
+        <v>42731</v>
       </c>
       <c r="B509">
-        <v>7.27</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
-        <v>42731</v>
+        <v>42732</v>
       </c>
       <c r="B510">
-        <v>7.17</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
-        <v>42732</v>
+        <v>42733</v>
       </c>
       <c r="B511">
-        <v>7.52</v>
+        <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
-        <v>42733</v>
+        <v>42734</v>
       </c>
       <c r="B512">
-        <v>8.2799999999999994</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
-        <v>42734</v>
+        <v>42735</v>
       </c>
       <c r="B513">
-        <v>8.16</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
-        <v>42735</v>
+        <v>42736</v>
       </c>
       <c r="B514">
-        <v>7.97</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
-        <v>42736</v>
+        <v>42737</v>
       </c>
       <c r="B515">
-        <v>8.17</v>
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
-        <v>42737</v>
+        <v>42738</v>
       </c>
       <c r="B516">
-        <v>8.3800000000000008</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
-        <v>42738</v>
+        <v>42739</v>
       </c>
       <c r="B517">
-        <v>9.73</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
-        <v>42739</v>
+        <v>42740</v>
       </c>
       <c r="B518">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
-        <v>42740</v>
+        <v>42741</v>
       </c>
       <c r="B519">
         <v>10.25</v>
@@ -4517,207 +4517,207 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
-        <v>42741</v>
+        <v>42742</v>
       </c>
       <c r="B520">
-        <v>10.25</v>
+        <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
-        <v>42742</v>
+        <v>42743</v>
       </c>
       <c r="B521">
-        <v>9.8699999999999992</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
-        <v>42743</v>
+        <v>42744</v>
       </c>
       <c r="B522">
-        <v>10.29</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
-        <v>42744</v>
+        <v>42745</v>
       </c>
       <c r="B523">
-        <v>10.33</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
-        <v>42745</v>
+        <v>42746</v>
       </c>
       <c r="B524">
-        <v>10.55</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
-        <v>42746</v>
+        <v>42747</v>
       </c>
       <c r="B525">
-        <v>9.7200000000000006</v>
+        <v>9.86</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
-        <v>42747</v>
+        <v>42748</v>
       </c>
       <c r="B526">
-        <v>9.86</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
-        <v>42748</v>
+        <v>42749</v>
       </c>
       <c r="B527">
-        <v>9.77</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
-        <v>42749</v>
+        <v>42750</v>
       </c>
       <c r="B528">
-        <v>9.65</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
-        <v>42750</v>
+        <v>42751</v>
       </c>
       <c r="B529">
-        <v>9.9</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
-        <v>42751</v>
+        <v>42752</v>
       </c>
       <c r="B530">
-        <v>9.64</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
-        <v>42752</v>
+        <v>42753</v>
       </c>
       <c r="B531">
-        <v>10.3</v>
+        <v>10.23</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="B532">
-        <v>10.23</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
-        <v>42754</v>
+        <v>42755</v>
       </c>
       <c r="B533">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
-        <v>42755</v>
+        <v>42756</v>
       </c>
       <c r="B534">
-        <v>10.6</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
-        <v>42756</v>
+        <v>42757</v>
       </c>
       <c r="B535">
-        <v>10.91</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
-        <v>42757</v>
+        <v>42758</v>
       </c>
       <c r="B536">
-        <v>10.7</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
-        <v>42758</v>
+        <v>42759</v>
       </c>
       <c r="B537">
-        <v>10.82</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
-        <v>42759</v>
+        <v>42760</v>
       </c>
       <c r="B538">
-        <v>10.63</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
-        <v>42760</v>
+        <v>42761</v>
       </c>
       <c r="B539">
-        <v>10.57</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
-        <v>42761</v>
+        <v>42762</v>
       </c>
       <c r="B540">
-        <v>10.59</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
-        <v>42762</v>
+        <v>42763</v>
       </c>
       <c r="B541">
-        <v>10.54</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
-        <v>42763</v>
+        <v>42764</v>
       </c>
       <c r="B542">
-        <v>10.56</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
-        <v>42764</v>
+        <v>42765</v>
       </c>
       <c r="B543">
-        <v>10.48</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
-        <v>42765</v>
+        <v>42766</v>
       </c>
       <c r="B544">
-        <v>10.57</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="B545">
         <v>10.73</v>
@@ -4725,2506 +4725,2506 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
-        <v>42767</v>
+        <v>42768</v>
       </c>
       <c r="B546">
-        <v>10.73</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
-        <v>42768</v>
+        <v>42769</v>
       </c>
       <c r="B547">
-        <v>10.82</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
-        <v>42769</v>
+        <v>42770</v>
       </c>
       <c r="B548">
-        <v>11.11</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
-        <v>42770</v>
+        <v>42771</v>
       </c>
       <c r="B549">
-        <v>11.43</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
-        <v>42771</v>
+        <v>42772</v>
       </c>
       <c r="B550">
-        <v>11.35</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
-        <v>42772</v>
+        <v>42773</v>
       </c>
       <c r="B551">
-        <v>11.39</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="B552">
-        <v>11.52</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
-        <v>42774</v>
+        <v>42775</v>
       </c>
       <c r="B553">
-        <v>11.43</v>
+        <v>11.03</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
-        <v>42775</v>
+        <v>42776</v>
       </c>
       <c r="B554">
-        <v>11.03</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
-        <v>42776</v>
+        <v>42777</v>
       </c>
       <c r="B555">
-        <v>11.28</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
-        <v>42777</v>
+        <v>42778</v>
       </c>
       <c r="B556">
-        <v>11.35</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
-        <v>42778</v>
+        <v>42779</v>
       </c>
       <c r="B557">
-        <v>11.4</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
-        <v>42779</v>
+        <v>42780</v>
       </c>
       <c r="B558">
-        <v>11.27</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
-        <v>42780</v>
+        <v>42781</v>
       </c>
       <c r="B559">
-        <v>13.03</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
-        <v>42781</v>
+        <v>42782</v>
       </c>
       <c r="B560">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
-        <v>42782</v>
+        <v>42783</v>
       </c>
       <c r="B561">
-        <v>12.9</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
-        <v>42783</v>
+        <v>42784</v>
       </c>
       <c r="B562">
-        <v>12.68</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
-        <v>42784</v>
+        <v>42785</v>
       </c>
       <c r="B563">
-        <v>12.81</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
-        <v>42785</v>
+        <v>42786</v>
       </c>
       <c r="B564">
-        <v>12.76</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
-        <v>42786</v>
+        <v>42787</v>
       </c>
       <c r="B565">
-        <v>12.43</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="B566">
-        <v>12.67</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="B567">
-        <v>12.6</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="B568">
-        <v>13.12</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
-        <v>42790</v>
+        <v>42791</v>
       </c>
       <c r="B569">
-        <v>13.07</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
-        <v>42791</v>
+        <v>42792</v>
       </c>
       <c r="B570">
-        <v>13.55</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
-        <v>42792</v>
+        <v>42793</v>
       </c>
       <c r="B571">
-        <v>14.52</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="B572">
-        <v>15.4</v>
+        <v>15.82</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="B573">
-        <v>15.82</v>
+        <v>17.350000000000001</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="B574">
-        <v>17.350000000000001</v>
+        <v>19.03</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
-        <v>42796</v>
+        <v>42797</v>
       </c>
       <c r="B575">
-        <v>19.03</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
-        <v>42797</v>
+        <v>42798</v>
       </c>
       <c r="B576">
-        <v>19.46</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
-        <v>42798</v>
+        <v>42799</v>
       </c>
       <c r="B577">
-        <v>18.62</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="B578">
-        <v>19.3</v>
+        <v>19.61</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="B579">
-        <v>19.61</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="B580">
-        <v>18.89</v>
+        <v>16.649999999999999</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="B581">
-        <v>16.649999999999999</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="B582">
-        <v>17.75</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
-        <v>42804</v>
+        <v>42805</v>
       </c>
       <c r="B583">
-        <v>19.329999999999998</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
-        <v>42805</v>
+        <v>42806</v>
       </c>
       <c r="B584">
-        <v>21.47</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
-        <v>42806</v>
+        <v>42807</v>
       </c>
       <c r="B585">
-        <v>23.44</v>
+        <v>28.59</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="B586">
-        <v>28.59</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="B587">
-        <v>28.65</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="B588">
-        <v>35.06</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="B589">
-        <v>46.35</v>
+        <v>46.83</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="B590">
-        <v>46.83</v>
+        <v>34.159999999999997</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
-        <v>42812</v>
+        <v>42813</v>
       </c>
       <c r="B591">
-        <v>34.159999999999997</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
-        <v>42813</v>
+        <v>42814</v>
       </c>
       <c r="B592">
-        <v>44.74</v>
+        <v>43.39</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="B593">
-        <v>43.39</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="B594">
-        <v>43.15</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="B595">
-        <v>42.34</v>
+        <v>43.68</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="B596">
-        <v>43.68</v>
+        <v>53.11</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
-        <v>42818</v>
+        <v>42819</v>
       </c>
       <c r="B597">
-        <v>53.11</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
-        <v>42819</v>
+        <v>42820</v>
       </c>
       <c r="B598">
-        <v>51.25</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="B599">
-        <v>50.52</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="B600">
-        <v>49.67</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="B601">
-        <v>50.77</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
-        <v>42823</v>
+        <v>42824</v>
       </c>
       <c r="B602">
-        <v>53.13</v>
+        <v>52.21</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
-        <v>42824</v>
+        <v>42825</v>
       </c>
       <c r="B603">
-        <v>52.21</v>
+        <v>50.04</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A604" s="1">
-        <v>42825</v>
+        <v>42826</v>
       </c>
       <c r="B604">
-        <v>50.04</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A605" s="1">
-        <v>42826</v>
+        <v>42827</v>
       </c>
       <c r="B605">
-        <v>50.7</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
-        <v>42827</v>
+        <v>42828</v>
       </c>
       <c r="B606">
-        <v>48.75</v>
+        <v>44.36</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A607" s="1">
-        <v>42828</v>
+        <v>42829</v>
       </c>
       <c r="B607">
-        <v>44.36</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A608" s="1">
-        <v>42829</v>
+        <v>42830</v>
       </c>
       <c r="B608">
-        <v>44.64</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A609" s="1">
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="B609">
-        <v>45.3</v>
+        <v>43.24</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A610" s="1">
-        <v>42831</v>
+        <v>42832</v>
       </c>
       <c r="B610">
-        <v>43.24</v>
+        <v>42.16</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A611" s="1">
-        <v>42832</v>
+        <v>42833</v>
       </c>
       <c r="B611">
-        <v>42.16</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A612" s="1">
-        <v>42833</v>
+        <v>42834</v>
       </c>
       <c r="B612">
-        <v>44.31</v>
+        <v>43.27</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
-        <v>42834</v>
+        <v>42835</v>
       </c>
       <c r="B613">
-        <v>43.27</v>
+        <v>43.44</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
-        <v>42835</v>
+        <v>42836</v>
       </c>
       <c r="B614">
-        <v>43.44</v>
+        <v>43.41</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A615" s="1">
-        <v>42836</v>
+        <v>42837</v>
       </c>
       <c r="B615">
-        <v>43.41</v>
+        <v>46.29</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A616" s="1">
-        <v>42837</v>
+        <v>42838</v>
       </c>
       <c r="B616">
-        <v>46.29</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
-        <v>42838</v>
+        <v>42839</v>
       </c>
       <c r="B617">
-        <v>50.22</v>
+        <v>47.57</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
-        <v>42839</v>
+        <v>42840</v>
       </c>
       <c r="B618">
-        <v>47.57</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A619" s="1">
-        <v>42840</v>
+        <v>42841</v>
       </c>
       <c r="B619">
-        <v>49.1</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A620" s="1">
-        <v>42841</v>
+        <v>42842</v>
       </c>
       <c r="B620">
-        <v>48.72</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
-        <v>42842</v>
+        <v>42843</v>
       </c>
       <c r="B621">
-        <v>48.3</v>
+        <v>50.71</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A622" s="1">
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="B622">
-        <v>50.71</v>
+        <v>48.31</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A623" s="1">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="B623">
-        <v>48.31</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A624" s="1">
-        <v>42845</v>
+        <v>42846</v>
       </c>
       <c r="B624">
-        <v>49.67</v>
+        <v>48.22</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A625" s="1">
-        <v>42846</v>
+        <v>42847</v>
       </c>
       <c r="B625">
-        <v>48.22</v>
+        <v>48.55</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
-        <v>42847</v>
+        <v>42848</v>
       </c>
       <c r="B626">
-        <v>48.55</v>
+        <v>48.49</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
-        <v>42848</v>
+        <v>42849</v>
       </c>
       <c r="B627">
-        <v>48.49</v>
+        <v>50.03</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A628" s="1">
-        <v>42849</v>
+        <v>42850</v>
       </c>
       <c r="B628">
-        <v>50.03</v>
+        <v>49.89</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
-        <v>42850</v>
+        <v>42851</v>
       </c>
       <c r="B629">
-        <v>49.89</v>
+        <v>52.72</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A630" s="1">
-        <v>42851</v>
+        <v>42852</v>
       </c>
       <c r="B630">
-        <v>52.72</v>
+        <v>62.17</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A631" s="1">
-        <v>42852</v>
+        <v>42853</v>
       </c>
       <c r="B631">
-        <v>62.17</v>
+        <v>70.16</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A632" s="1">
-        <v>42853</v>
+        <v>42854</v>
       </c>
       <c r="B632">
-        <v>70.16</v>
+        <v>68.38</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A633" s="1">
-        <v>42854</v>
+        <v>42855</v>
       </c>
       <c r="B633">
-        <v>68.38</v>
+        <v>79.02</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A634" s="1">
-        <v>42855</v>
+        <v>42856</v>
       </c>
       <c r="B634">
-        <v>79.02</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A635" s="1">
-        <v>42856</v>
+        <v>42857</v>
       </c>
       <c r="B635">
-        <v>76.3</v>
+        <v>77.260000000000005</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A636" s="1">
-        <v>42857</v>
+        <v>42858</v>
       </c>
       <c r="B636">
-        <v>77.260000000000005</v>
+        <v>79.72</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="B637">
-        <v>79.72</v>
+        <v>96.98</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
-        <v>42859</v>
+        <v>42860</v>
       </c>
       <c r="B638">
-        <v>96.98</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
-        <v>42860</v>
+        <v>42861</v>
       </c>
       <c r="B639">
-        <v>94.4</v>
+        <v>97.81</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A640" s="1">
-        <v>42861</v>
+        <v>42862</v>
       </c>
       <c r="B640">
-        <v>97.81</v>
+        <v>94.01</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
-        <v>42862</v>
+        <v>42863</v>
       </c>
       <c r="B641">
-        <v>94.01</v>
+        <v>91.42</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A642" s="1">
-        <v>42863</v>
+        <v>42864</v>
       </c>
       <c r="B642">
-        <v>91.42</v>
+        <v>91.16</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A643" s="1">
-        <v>42864</v>
+        <v>42865</v>
       </c>
       <c r="B643">
-        <v>91.16</v>
+        <v>89.52</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A644" s="1">
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="B644">
-        <v>89.52</v>
+        <v>89.88</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A645" s="1">
-        <v>42866</v>
+        <v>42867</v>
       </c>
       <c r="B645">
-        <v>89.88</v>
+        <v>88.66</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A646" s="1">
-        <v>42867</v>
+        <v>42868</v>
       </c>
       <c r="B646">
-        <v>88.66</v>
+        <v>90.84</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A647" s="1">
-        <v>42868</v>
+        <v>42869</v>
       </c>
       <c r="B647">
-        <v>90.84</v>
+        <v>90.79</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A648" s="1">
-        <v>42869</v>
+        <v>42870</v>
       </c>
       <c r="B648">
-        <v>90.79</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A649" s="1">
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="B649">
-        <v>92.41</v>
+        <v>89.44</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
-        <v>42871</v>
+        <v>42872</v>
       </c>
       <c r="B650">
-        <v>89.44</v>
+        <v>89.86</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A651" s="1">
-        <v>42872</v>
+        <v>42873</v>
       </c>
       <c r="B651">
-        <v>89.86</v>
+        <v>96.91</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A652" s="1">
-        <v>42873</v>
+        <v>42874</v>
       </c>
       <c r="B652">
-        <v>96.91</v>
+        <v>129.53</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A653" s="1">
-        <v>42874</v>
+        <v>42875</v>
       </c>
       <c r="B653">
-        <v>129.53</v>
+        <v>126.52</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A654" s="1">
-        <v>42875</v>
+        <v>42876</v>
       </c>
       <c r="B654">
-        <v>126.52</v>
+        <v>157.94</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A655" s="1">
-        <v>42876</v>
+        <v>42877</v>
       </c>
       <c r="B655">
-        <v>157.94</v>
+        <v>174.26</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A656" s="1">
-        <v>42877</v>
+        <v>42878</v>
       </c>
       <c r="B656">
-        <v>174.26</v>
+        <v>181.95</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
-        <v>42878</v>
+        <v>42879</v>
       </c>
       <c r="B657">
-        <v>181.95</v>
+        <v>190.05</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
-        <v>42879</v>
+        <v>42880</v>
       </c>
       <c r="B658">
-        <v>190.05</v>
+        <v>174.45</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
-        <v>42880</v>
+        <v>42881</v>
       </c>
       <c r="B659">
-        <v>174.45</v>
+        <v>160.4</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
-        <v>42881</v>
+        <v>42882</v>
       </c>
       <c r="B660">
-        <v>160.4</v>
+        <v>157.76</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
-        <v>42882</v>
+        <v>42883</v>
       </c>
       <c r="B661">
-        <v>157.76</v>
+        <v>170.51</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
-        <v>42883</v>
+        <v>42884</v>
       </c>
       <c r="B662">
-        <v>170.51</v>
+        <v>194.91</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
-        <v>42884</v>
+        <v>42885</v>
       </c>
       <c r="B663">
-        <v>194.91</v>
+        <v>231.91</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
-        <v>42885</v>
+        <v>42886</v>
       </c>
       <c r="B664">
-        <v>231.91</v>
+        <v>230.67</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B665">
-        <v>230.67</v>
+        <v>222.24</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
-        <v>42887</v>
+        <v>42888</v>
       </c>
       <c r="B666">
-        <v>222.24</v>
+        <v>223.78</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
-        <v>42888</v>
+        <v>42889</v>
       </c>
       <c r="B667">
-        <v>223.78</v>
+        <v>224.38</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
-        <v>42889</v>
+        <v>42890</v>
       </c>
       <c r="B668">
-        <v>224.38</v>
+        <v>245.33</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
-        <v>42890</v>
+        <v>42891</v>
       </c>
       <c r="B669">
-        <v>245.33</v>
+        <v>248.46</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="B670">
-        <v>248.46</v>
+        <v>264.47000000000003</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="B671">
-        <v>264.47000000000003</v>
+        <v>258.07</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="B672">
-        <v>258.07</v>
+        <v>261.67</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="B673">
-        <v>261.67</v>
+        <v>281.74</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
-        <v>42895</v>
+        <v>42896</v>
       </c>
       <c r="B674">
-        <v>281.74</v>
+        <v>337.67</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
-        <v>42896</v>
+        <v>42897</v>
       </c>
       <c r="B675">
-        <v>337.67</v>
+        <v>340.61</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
-        <v>42897</v>
+        <v>42898</v>
       </c>
       <c r="B676">
-        <v>340.61</v>
+        <v>401.49</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="B677">
-        <v>401.49</v>
+        <v>397.54</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
-        <v>42899</v>
+        <v>42900</v>
       </c>
       <c r="B678">
-        <v>397.54</v>
+        <v>359.05</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
-        <v>42900</v>
+        <v>42901</v>
       </c>
       <c r="B679">
-        <v>359.05</v>
+        <v>361.93</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
-        <v>42901</v>
+        <v>42902</v>
       </c>
       <c r="B680">
-        <v>361.93</v>
+        <v>370.23</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
-        <v>42902</v>
+        <v>42903</v>
       </c>
       <c r="B681">
-        <v>370.23</v>
+        <v>379.41</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
-        <v>42903</v>
+        <v>42904</v>
       </c>
       <c r="B682">
-        <v>379.41</v>
+        <v>371.46</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
-        <v>42904</v>
+        <v>42905</v>
       </c>
       <c r="B683">
-        <v>371.46</v>
+        <v>370.06</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
-        <v>42905</v>
+        <v>42906</v>
       </c>
       <c r="B684">
-        <v>370.06</v>
+        <v>359</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="B685">
-        <v>359</v>
+        <v>336.87</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
-        <v>42907</v>
+        <v>42908</v>
       </c>
       <c r="B686">
-        <v>336.87</v>
+        <v>336.37</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
-        <v>42908</v>
+        <v>42909</v>
       </c>
       <c r="B687">
-        <v>336.37</v>
+        <v>341.74</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
-        <v>42909</v>
+        <v>42910</v>
       </c>
       <c r="B688">
-        <v>341.74</v>
+        <v>323.7</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
-        <v>42910</v>
+        <v>42911</v>
       </c>
       <c r="B689">
-        <v>323.7</v>
+        <v>303.25</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
-        <v>42911</v>
+        <v>42912</v>
       </c>
       <c r="B690">
-        <v>303.25</v>
+        <v>272.69</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A691" s="1">
-        <v>42912</v>
+        <v>42913</v>
       </c>
       <c r="B691">
-        <v>272.69</v>
+        <v>293.08999999999997</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
-        <v>42913</v>
+        <v>42914</v>
       </c>
       <c r="B692">
-        <v>293.08999999999997</v>
+        <v>327.93</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="B693">
-        <v>327.93</v>
+        <v>302.88</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
-        <v>42915</v>
+        <v>42916</v>
       </c>
       <c r="B694">
-        <v>302.88</v>
+        <v>294.92</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A695" s="1">
-        <v>42916</v>
+        <v>42917</v>
       </c>
       <c r="B695">
-        <v>294.92</v>
+        <v>274.60000000000002</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A696" s="1">
-        <v>42917</v>
+        <v>42918</v>
       </c>
       <c r="B696">
-        <v>274.60000000000002</v>
+        <v>287.99</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
-        <v>42918</v>
+        <v>42919</v>
       </c>
       <c r="B697">
-        <v>287.99</v>
+        <v>282.89999999999998</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
-        <v>42919</v>
+        <v>42920</v>
       </c>
       <c r="B698">
-        <v>282.89999999999998</v>
+        <v>273.3</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
-        <v>42920</v>
+        <v>42921</v>
       </c>
       <c r="B699">
-        <v>273.3</v>
+        <v>268.77</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
-        <v>42921</v>
+        <v>42922</v>
       </c>
       <c r="B700">
-        <v>268.77</v>
+        <v>270.55</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
-        <v>42922</v>
+        <v>42923</v>
       </c>
       <c r="B701">
-        <v>270.55</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
-        <v>42923</v>
+        <v>42924</v>
       </c>
       <c r="B702">
-        <v>245.99</v>
+        <v>251.7</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
-        <v>42924</v>
+        <v>42925</v>
       </c>
       <c r="B703">
-        <v>251.7</v>
+        <v>242.14</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
-        <v>42925</v>
+        <v>42926</v>
       </c>
       <c r="B704">
-        <v>242.14</v>
+        <v>215.36</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="B705">
-        <v>215.36</v>
+        <v>197.4</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
-        <v>42927</v>
+        <v>42928</v>
       </c>
       <c r="B706">
-        <v>197.4</v>
+        <v>230.77</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
-        <v>42928</v>
+        <v>42929</v>
       </c>
       <c r="B707">
-        <v>230.77</v>
+        <v>209.73</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
-        <v>42929</v>
+        <v>42930</v>
       </c>
       <c r="B708">
-        <v>209.73</v>
+        <v>199.66</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
-        <v>42930</v>
+        <v>42931</v>
       </c>
       <c r="B709">
-        <v>199.66</v>
+        <v>170.66</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A710" s="1">
-        <v>42931</v>
+        <v>42932</v>
       </c>
       <c r="B710">
-        <v>170.66</v>
+        <v>157.36000000000001</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A711" s="1">
-        <v>42932</v>
+        <v>42933</v>
       </c>
       <c r="B711">
-        <v>157.36000000000001</v>
+        <v>193.42</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A712" s="1">
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="B712">
-        <v>193.42</v>
+        <v>234.39</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A713" s="1">
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="B713">
-        <v>234.39</v>
+        <v>199.7</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A714" s="1">
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="B714">
-        <v>199.7</v>
+        <v>227.26</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A715" s="1">
-        <v>42936</v>
+        <v>42937</v>
       </c>
       <c r="B715">
-        <v>227.26</v>
+        <v>218.31</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A716" s="1">
-        <v>42937</v>
+        <v>42938</v>
       </c>
       <c r="B716">
-        <v>218.31</v>
+        <v>229.48</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A717" s="1">
-        <v>42938</v>
+        <v>42939</v>
       </c>
       <c r="B717">
-        <v>229.48</v>
+        <v>225.95</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A718" s="1">
-        <v>42939</v>
+        <v>42940</v>
       </c>
       <c r="B718">
-        <v>225.95</v>
+        <v>224.71</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A719" s="1">
-        <v>42940</v>
+        <v>42941</v>
       </c>
       <c r="B719">
-        <v>224.71</v>
+        <v>206.71</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A720" s="1">
-        <v>42941</v>
+        <v>42942</v>
       </c>
       <c r="B720">
-        <v>206.71</v>
+        <v>203.95</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A721" s="1">
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="B721">
-        <v>203.95</v>
+        <v>204.32</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A722" s="1">
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="B722">
-        <v>204.32</v>
+        <v>193.12</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A723" s="1">
-        <v>42944</v>
+        <v>42945</v>
       </c>
       <c r="B723">
-        <v>193.12</v>
+        <v>205.79</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A724" s="1">
-        <v>42945</v>
+        <v>42946</v>
       </c>
       <c r="B724">
-        <v>205.79</v>
+        <v>197.98</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A725" s="1">
-        <v>42946</v>
+        <v>42947</v>
       </c>
       <c r="B725">
-        <v>197.98</v>
+        <v>203.87</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A726" s="1">
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="B726">
-        <v>203.87</v>
+        <v>226.77</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A727" s="1">
-        <v>42948</v>
+        <v>42949</v>
       </c>
       <c r="B727">
-        <v>226.77</v>
+        <v>219.95</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A728" s="1">
-        <v>42949</v>
+        <v>42950</v>
       </c>
       <c r="B728">
-        <v>219.95</v>
+        <v>225.34</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A729" s="1">
-        <v>42950</v>
+        <v>42951</v>
       </c>
       <c r="B729">
-        <v>225.34</v>
+        <v>223.07</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A730" s="1">
-        <v>42951</v>
+        <v>42952</v>
       </c>
       <c r="B730">
-        <v>223.07</v>
+        <v>256.51</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A731" s="1">
-        <v>42952</v>
+        <v>42953</v>
       </c>
       <c r="B731">
-        <v>256.51</v>
+        <v>261.57</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A732" s="1">
-        <v>42953</v>
+        <v>42954</v>
       </c>
       <c r="B732">
-        <v>261.57</v>
+        <v>269.18</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A733" s="1">
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="B733">
-        <v>269.18</v>
+        <v>296.77</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A734" s="1">
-        <v>42955</v>
+        <v>42956</v>
       </c>
       <c r="B734">
-        <v>296.77</v>
+        <v>296.02999999999997</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A735" s="1">
-        <v>42956</v>
+        <v>42957</v>
       </c>
       <c r="B735">
-        <v>296.02999999999997</v>
+        <v>295.89</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A736" s="1">
-        <v>42957</v>
+        <v>42958</v>
       </c>
       <c r="B736">
-        <v>295.89</v>
+        <v>308.86</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A737" s="1">
-        <v>42958</v>
+        <v>42959</v>
       </c>
       <c r="B737">
-        <v>308.86</v>
+        <v>310.60000000000002</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A738" s="1">
-        <v>42959</v>
+        <v>42960</v>
       </c>
       <c r="B738">
-        <v>310.60000000000002</v>
+        <v>298.06</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A739" s="1">
-        <v>42960</v>
+        <v>42961</v>
       </c>
       <c r="B739">
-        <v>298.06</v>
+        <v>300.10000000000002</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A740" s="1">
-        <v>42961</v>
+        <v>42962</v>
       </c>
       <c r="B740">
-        <v>300.10000000000002</v>
+        <v>289.82</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A741" s="1">
-        <v>42962</v>
+        <v>42963</v>
       </c>
       <c r="B741">
-        <v>289.82</v>
+        <v>302.27</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A742" s="1">
-        <v>42963</v>
+        <v>42964</v>
       </c>
       <c r="B742">
-        <v>302.27</v>
+        <v>301.45999999999998</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A743" s="1">
-        <v>42964</v>
+        <v>42965</v>
       </c>
       <c r="B743">
-        <v>301.45999999999998</v>
+        <v>295.58999999999997</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A744" s="1">
-        <v>42965</v>
+        <v>42966</v>
       </c>
       <c r="B744">
-        <v>295.58999999999997</v>
+        <v>297.47000000000003</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A745" s="1">
-        <v>42966</v>
+        <v>42967</v>
       </c>
       <c r="B745">
-        <v>297.47000000000003</v>
+        <v>301.43</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A746" s="1">
-        <v>42967</v>
+        <v>42968</v>
       </c>
       <c r="B746">
-        <v>301.43</v>
+        <v>321.58999999999997</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A747" s="1">
-        <v>42968</v>
+        <v>42969</v>
       </c>
       <c r="B747">
-        <v>321.58999999999997</v>
+        <v>314.79000000000002</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A748" s="1">
-        <v>42969</v>
+        <v>42970</v>
       </c>
       <c r="B748">
-        <v>314.79000000000002</v>
+        <v>317.52</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A749" s="1">
-        <v>42970</v>
+        <v>42971</v>
       </c>
       <c r="B749">
-        <v>317.52</v>
+        <v>325.61</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A750" s="1">
-        <v>42971</v>
+        <v>42972</v>
       </c>
       <c r="B750">
-        <v>325.61</v>
+        <v>331.92</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A751" s="1">
-        <v>42972</v>
+        <v>42973</v>
       </c>
       <c r="B751">
-        <v>331.92</v>
+        <v>333.88</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A752" s="1">
-        <v>42973</v>
+        <v>42974</v>
       </c>
       <c r="B752">
-        <v>333.88</v>
+        <v>347.89</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A753" s="1">
-        <v>42974</v>
+        <v>42975</v>
       </c>
       <c r="B753">
-        <v>347.89</v>
+        <v>347.75</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A754" s="1">
-        <v>42975</v>
+        <v>42976</v>
       </c>
       <c r="B754">
-        <v>347.75</v>
+        <v>370.67</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A755" s="1">
-        <v>42976</v>
+        <v>42977</v>
       </c>
       <c r="B755">
-        <v>370.67</v>
+        <v>378.49</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A756" s="1">
-        <v>42977</v>
+        <v>42978</v>
       </c>
       <c r="B756">
-        <v>378.49</v>
+        <v>383.04</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A757" s="1">
-        <v>42978</v>
+        <v>42979</v>
       </c>
       <c r="B757">
-        <v>383.04</v>
+        <v>387.74</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A758" s="1">
-        <v>42979</v>
+        <v>42980</v>
       </c>
       <c r="B758">
-        <v>387.74</v>
+        <v>348.98</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A759" s="1">
-        <v>42980</v>
+        <v>42981</v>
       </c>
       <c r="B759">
-        <v>348.98</v>
+        <v>347.48</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A760" s="1">
-        <v>42981</v>
+        <v>42982</v>
       </c>
       <c r="B760">
-        <v>347.48</v>
+        <v>295.17</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A761" s="1">
-        <v>42982</v>
+        <v>42983</v>
       </c>
       <c r="B761">
-        <v>295.17</v>
+        <v>312.99</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A762" s="1">
-        <v>42983</v>
+        <v>42984</v>
       </c>
       <c r="B762">
-        <v>312.99</v>
+        <v>334.34</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A763" s="1">
-        <v>42984</v>
+        <v>42985</v>
       </c>
       <c r="B763">
-        <v>334.34</v>
+        <v>329.43</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A764" s="1">
-        <v>42985</v>
+        <v>42986</v>
       </c>
       <c r="B764">
-        <v>329.43</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A765" s="1">
-        <v>42986</v>
+        <v>42987</v>
       </c>
       <c r="B765">
-        <v>296.5</v>
+        <v>294.39999999999998</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A766" s="1">
-        <v>42987</v>
+        <v>42988</v>
       </c>
       <c r="B766">
-        <v>294.39999999999998</v>
+        <v>288.75</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A767" s="1">
-        <v>42988</v>
+        <v>42989</v>
       </c>
       <c r="B767">
-        <v>288.75</v>
+        <v>294.52999999999997</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A768" s="1">
-        <v>42989</v>
+        <v>42990</v>
       </c>
       <c r="B768">
-        <v>294.52999999999997</v>
+        <v>291.45999999999998</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A769" s="1">
-        <v>42990</v>
+        <v>42991</v>
       </c>
       <c r="B769">
-        <v>291.45999999999998</v>
+        <v>277.11</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A770" s="1">
-        <v>42991</v>
+        <v>42992</v>
       </c>
       <c r="B770">
-        <v>277.11</v>
+        <v>213.91</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A771" s="1">
-        <v>42992</v>
+        <v>42993</v>
       </c>
       <c r="B771">
-        <v>213.91</v>
+        <v>250.46</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A772" s="1">
-        <v>42993</v>
+        <v>42994</v>
       </c>
       <c r="B772">
-        <v>250.46</v>
+        <v>246.52</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A773" s="1">
-        <v>42994</v>
+        <v>42995</v>
       </c>
       <c r="B773">
-        <v>246.52</v>
+        <v>251.75</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A774" s="1">
-        <v>42995</v>
+        <v>42996</v>
       </c>
       <c r="B774">
-        <v>251.75</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A775" s="1">
-        <v>42996</v>
+        <v>42997</v>
       </c>
       <c r="B775">
-        <v>293.5</v>
+        <v>282.8</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A776" s="1">
-        <v>42997</v>
+        <v>42998</v>
       </c>
       <c r="B776">
-        <v>282.8</v>
+        <v>283.74</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A777" s="1">
-        <v>42998</v>
+        <v>42999</v>
       </c>
       <c r="B777">
-        <v>283.74</v>
+        <v>258.58</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A778" s="1">
-        <v>42999</v>
+        <v>43000</v>
       </c>
       <c r="B778">
-        <v>258.58</v>
+        <v>264.31</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A779" s="1">
-        <v>43000</v>
+        <v>43001</v>
       </c>
       <c r="B779">
-        <v>264.31</v>
+        <v>286.17</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A780" s="1">
-        <v>43001</v>
+        <v>43002</v>
       </c>
       <c r="B780">
-        <v>286.17</v>
+        <v>282.48</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A781" s="1">
-        <v>43002</v>
+        <v>43003</v>
       </c>
       <c r="B781">
-        <v>282.48</v>
+        <v>292.33</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A782" s="1">
-        <v>43003</v>
+        <v>43004</v>
       </c>
       <c r="B782">
-        <v>292.33</v>
+        <v>287.44</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A783" s="1">
-        <v>43004</v>
+        <v>43005</v>
       </c>
       <c r="B783">
-        <v>287.44</v>
+        <v>306.47000000000003</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A784" s="1">
-        <v>43005</v>
+        <v>43006</v>
       </c>
       <c r="B784">
-        <v>306.47000000000003</v>
+        <v>299.14999999999998</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A785" s="1">
-        <v>43006</v>
+        <v>43007</v>
       </c>
       <c r="B785">
-        <v>299.14999999999998</v>
+        <v>291.47000000000003</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A786" s="1">
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="B786">
-        <v>291.47000000000003</v>
+        <v>301.45999999999998</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A787" s="1">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="B787">
-        <v>301.45999999999998</v>
+        <v>302.33999999999997</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A788" s="1">
-        <v>43009</v>
+        <v>43010</v>
       </c>
       <c r="B788">
-        <v>302.33999999999997</v>
+        <v>297.48</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A789" s="1">
-        <v>43010</v>
+        <v>43011</v>
       </c>
       <c r="B789">
-        <v>297.48</v>
+        <v>292.45999999999998</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A790" s="1">
-        <v>43011</v>
+        <v>43012</v>
       </c>
       <c r="B790">
-        <v>292.45999999999998</v>
+        <v>292.66000000000003</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A791" s="1">
-        <v>43012</v>
+        <v>43013</v>
       </c>
       <c r="B791">
-        <v>292.66000000000003</v>
+        <v>295.86</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A792" s="1">
-        <v>43013</v>
+        <v>43014</v>
       </c>
       <c r="B792">
-        <v>295.86</v>
+        <v>308.58999999999997</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A793" s="1">
-        <v>43014</v>
+        <v>43015</v>
       </c>
       <c r="B793">
-        <v>308.58999999999997</v>
+        <v>311.12</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A794" s="1">
-        <v>43015</v>
+        <v>43016</v>
       </c>
       <c r="B794">
-        <v>311.12</v>
+        <v>308.61</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A795" s="1">
-        <v>43016</v>
+        <v>43017</v>
       </c>
       <c r="B795">
-        <v>308.61</v>
+        <v>297.39</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A796" s="1">
-        <v>43017</v>
+        <v>43018</v>
       </c>
       <c r="B796">
-        <v>297.39</v>
+        <v>299.87</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A797" s="1">
-        <v>43018</v>
+        <v>43019</v>
       </c>
       <c r="B797">
-        <v>299.87</v>
+        <v>303.45999999999998</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A798" s="1">
-        <v>43019</v>
+        <v>43020</v>
       </c>
       <c r="B798">
-        <v>303.45999999999998</v>
+        <v>304.14</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A799" s="1">
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="B799">
-        <v>304.14</v>
+        <v>338.76</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A800" s="1">
-        <v>43021</v>
+        <v>43022</v>
       </c>
       <c r="B800">
-        <v>338.76</v>
+        <v>339.63</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A801" s="1">
-        <v>43022</v>
+        <v>43023</v>
       </c>
       <c r="B801">
-        <v>339.63</v>
+        <v>336.6</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A802" s="1">
-        <v>43023</v>
+        <v>43024</v>
       </c>
       <c r="B802">
-        <v>336.6</v>
+        <v>333.38</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A803" s="1">
-        <v>43024</v>
+        <v>43025</v>
       </c>
       <c r="B803">
-        <v>333.38</v>
+        <v>317.08</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A804" s="1">
-        <v>43025</v>
+        <v>43026</v>
       </c>
       <c r="B804">
-        <v>317.08</v>
+        <v>314.32</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A805" s="1">
-        <v>43026</v>
+        <v>43027</v>
       </c>
       <c r="B805">
-        <v>314.32</v>
+        <v>308.08999999999997</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A806" s="1">
-        <v>43027</v>
+        <v>43028</v>
       </c>
       <c r="B806">
-        <v>308.08999999999997</v>
+        <v>304.01</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A807" s="1">
-        <v>43028</v>
+        <v>43029</v>
       </c>
       <c r="B807">
-        <v>304.01</v>
+        <v>300.19</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A808" s="1">
-        <v>43029</v>
+        <v>43030</v>
       </c>
       <c r="B808">
-        <v>300.19</v>
+        <v>295.45</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A809" s="1">
-        <v>43030</v>
+        <v>43031</v>
       </c>
       <c r="B809">
-        <v>295.45</v>
+        <v>286.95</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A810" s="1">
-        <v>43031</v>
+        <v>43032</v>
       </c>
       <c r="B810">
-        <v>286.95</v>
+        <v>298.33</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A811" s="1">
-        <v>43032</v>
+        <v>43033</v>
       </c>
       <c r="B811">
-        <v>298.33</v>
+        <v>297.93</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A812" s="1">
-        <v>43033</v>
+        <v>43034</v>
       </c>
       <c r="B812">
-        <v>297.93</v>
+        <v>296.52999999999997</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A813" s="1">
-        <v>43034</v>
+        <v>43035</v>
       </c>
       <c r="B813">
-        <v>296.52999999999997</v>
+        <v>297.42</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A814" s="1">
-        <v>43035</v>
+        <v>43036</v>
       </c>
       <c r="B814">
-        <v>297.42</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A815" s="1">
-        <v>43036</v>
+        <v>43037</v>
       </c>
       <c r="B815">
-        <v>296.3</v>
+        <v>305.08999999999997</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A816" s="1">
-        <v>43037</v>
+        <v>43038</v>
       </c>
       <c r="B816">
-        <v>305.08999999999997</v>
+        <v>307.75</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A817" s="1">
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="B817">
-        <v>307.75</v>
+        <v>305.88</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A818" s="1">
-        <v>43039</v>
+        <v>43040</v>
       </c>
       <c r="B818">
-        <v>305.88</v>
+        <v>291.69</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A819" s="1">
-        <v>43040</v>
+        <v>43041</v>
       </c>
       <c r="B819">
-        <v>291.69</v>
+        <v>287.43</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A820" s="1">
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="B820">
-        <v>287.43</v>
+        <v>305.70999999999998</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A821" s="1">
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="B821">
-        <v>305.70999999999998</v>
+        <v>300.47000000000003</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A822" s="1">
-        <v>43043</v>
+        <v>43044</v>
       </c>
       <c r="B822">
-        <v>300.47000000000003</v>
+        <v>296.26</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A823" s="1">
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="B823">
-        <v>296.26</v>
+        <v>298.89</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A824" s="1">
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="B824">
-        <v>298.89</v>
+        <v>294.66000000000003</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A825" s="1">
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="B825">
-        <v>294.66000000000003</v>
+        <v>309.07</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A826" s="1">
-        <v>43047</v>
+        <v>43048</v>
       </c>
       <c r="B826">
-        <v>309.07</v>
+        <v>320.88</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A827" s="1">
-        <v>43048</v>
+        <v>43049</v>
       </c>
       <c r="B827">
-        <v>320.88</v>
+        <v>299.25</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A828" s="1">
-        <v>43049</v>
+        <v>43050</v>
       </c>
       <c r="B828">
-        <v>299.25</v>
+        <v>314.68</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A829" s="1">
-        <v>43050</v>
+        <v>43051</v>
       </c>
       <c r="B829">
-        <v>314.68</v>
+        <v>307.91000000000003</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A830" s="1">
-        <v>43051</v>
+        <v>43052</v>
       </c>
       <c r="B830">
-        <v>307.91000000000003</v>
+        <v>316.72000000000003</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A831" s="1">
-        <v>43052</v>
+        <v>43053</v>
       </c>
       <c r="B831">
-        <v>316.72000000000003</v>
+        <v>337.63</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A832" s="1">
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="B832">
-        <v>337.63</v>
+        <v>333.36</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A833" s="1">
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="B833">
-        <v>333.36</v>
+        <v>330.92</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A834" s="1">
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="B834">
-        <v>330.92</v>
+        <v>332.39</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A835" s="1">
-        <v>43056</v>
+        <v>43057</v>
       </c>
       <c r="B835">
-        <v>332.39</v>
+        <v>347.61</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A836" s="1">
-        <v>43057</v>
+        <v>43058</v>
       </c>
       <c r="B836">
-        <v>347.61</v>
+        <v>354.39</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A837" s="1">
-        <v>43058</v>
+        <v>43059</v>
       </c>
       <c r="B837">
-        <v>354.39</v>
+        <v>366.73</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A838" s="1">
-        <v>43059</v>
+        <v>43060</v>
       </c>
       <c r="B838">
-        <v>366.73</v>
+        <v>360.4</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A839" s="1">
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="B839">
-        <v>360.4</v>
+        <v>380.65</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A840" s="1">
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="B840">
-        <v>380.65</v>
+        <v>410.17</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A841" s="1">
-        <v>43062</v>
+        <v>43063</v>
       </c>
       <c r="B841">
-        <v>410.17</v>
+        <v>474.91</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A842" s="1">
-        <v>43063</v>
+        <v>43064</v>
       </c>
       <c r="B842">
-        <v>474.91</v>
+        <v>466.28</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A843" s="1">
-        <v>43064</v>
+        <v>43065</v>
       </c>
       <c r="B843">
-        <v>466.28</v>
+        <v>471.33</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A844" s="1">
-        <v>43065</v>
+        <v>43066</v>
       </c>
       <c r="B844">
-        <v>471.33</v>
+        <v>480.36</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A845" s="1">
-        <v>43066</v>
+        <v>43067</v>
       </c>
       <c r="B845">
-        <v>480.36</v>
+        <v>472.9</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A846" s="1">
-        <v>43067</v>
+        <v>43068</v>
       </c>
       <c r="B846">
-        <v>472.9</v>
+        <v>427.52</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A847" s="1">
-        <v>43068</v>
+        <v>43069</v>
       </c>
       <c r="B847">
-        <v>427.52</v>
+        <v>447.11</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A848" s="1">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="B848">
-        <v>447.11</v>
+        <v>466.54</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A849" s="1">
-        <v>43070</v>
+        <v>43071</v>
       </c>
       <c r="B849">
-        <v>466.54</v>
+        <v>463.45</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A850" s="1">
-        <v>43071</v>
+        <v>43072</v>
       </c>
       <c r="B850">
-        <v>463.45</v>
+        <v>465.85</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A851" s="1">
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="B851">
-        <v>465.85</v>
+        <v>470.2</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A852" s="1">
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="B852">
-        <v>470.2</v>
+        <v>463.28</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A853" s="1">
-        <v>43074</v>
+        <v>43075</v>
       </c>
       <c r="B853">
-        <v>463.28</v>
+        <v>428.59</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A854" s="1">
-        <v>43075</v>
+        <v>43076</v>
       </c>
       <c r="B854">
-        <v>428.59</v>
+        <v>434.41</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A855" s="1">
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="B855">
-        <v>434.41</v>
+        <v>456.03</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A856" s="1">
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="B856">
-        <v>456.03</v>
+        <v>473.5</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A857" s="1">
-        <v>43078</v>
+        <v>43079</v>
       </c>
       <c r="B857">
-        <v>473.5</v>
+        <v>441.72</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A858" s="1">
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="B858">
-        <v>441.72</v>
+        <v>515.14</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.15">
@@ -7325,9 +7325,6 @@
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A891" s="1"/>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A892" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/All-Web.xlsx
+++ b/All-Web.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31060" yWindow="-3360" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
+    <workbookView xWindow="29960" yWindow="-6960" windowWidth="23340" windowHeight="13860" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset1" sheetId="1" r:id="rId1"/>
@@ -354,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A851" zoomScale="208" workbookViewId="0">
-      <selection activeCell="C856" sqref="C856"/>
+    <sheetView tabSelected="1" topLeftCell="A844" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B865" sqref="B865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7228,7 +7228,12 @@
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A859" s="1"/>
+      <c r="A859" s="1">
+        <v>43081</v>
+      </c>
+      <c r="B859">
+        <v>621.13</v>
+      </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A860" s="1"/>
